--- a/d-rankDemo/public/xlsx/assets/日播时尚十大股东数据.xlsx
+++ b/d-rankDemo/public/xlsx/assets/日播时尚十大股东数据.xlsx
@@ -1,332 +1,415 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1809E41C-2334-4CDC-9AA8-DD66B800D263}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="30140" windowHeight="22140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="224">
+  <si>
+    <t>日期</t>
+  </si>
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>持股数量</t>
+  </si>
+  <si>
+    <t>持股占比</t>
+  </si>
+  <si>
+    <t>icon</t>
+  </si>
+  <si>
+    <t>跳转链接</t>
+  </si>
   <si>
     <t>上海日播投资控股有限公司</t>
   </si>
   <si>
+    <t>129,600,000</t>
+  </si>
+  <si>
+    <t>54.00%</t>
+  </si>
+  <si>
     <t>王卫东</t>
   </si>
   <si>
+    <t>29,070,000</t>
+  </si>
+  <si>
+    <t>12.11%</t>
+  </si>
+  <si>
     <t>曲江亭</t>
   </si>
   <si>
+    <t>15,930,000</t>
+  </si>
+  <si>
+    <t>6.64%</t>
+  </si>
+  <si>
     <t>林亮</t>
   </si>
   <si>
+    <t>1,400,000</t>
+  </si>
+  <si>
+    <t>0.58%</t>
+  </si>
+  <si>
     <t>郑征</t>
   </si>
   <si>
+    <t>1,350,000</t>
+  </si>
+  <si>
+    <t>0.56%</t>
+  </si>
+  <si>
     <t>法国兴业银行</t>
   </si>
   <si>
+    <t>807,600</t>
+  </si>
+  <si>
+    <t>0.34%</t>
+  </si>
+  <si>
     <t>李火凤</t>
   </si>
   <si>
+    <t>752,900</t>
+  </si>
+  <si>
     <t>李峥峥</t>
   </si>
   <si>
+    <t>747,513</t>
+  </si>
+  <si>
+    <t>0.31%</t>
+  </si>
+  <si>
     <t>王陶</t>
   </si>
   <si>
+    <t>580,000</t>
+  </si>
+  <si>
+    <t>0.24%</t>
+  </si>
+  <si>
     <t>中信银行股份有限公司-建信中证500指数增强型证券投资基金</t>
   </si>
   <si>
-    <t>129,600,000</t>
-  </si>
-  <si>
-    <t>29,070,000</t>
-  </si>
-  <si>
-    <t>15,930,000</t>
-  </si>
-  <si>
-    <t>1,400,000</t>
-  </si>
-  <si>
-    <t>1,350,000</t>
-  </si>
-  <si>
-    <t>807,600</t>
-  </si>
-  <si>
-    <t>752,900</t>
-  </si>
-  <si>
-    <t>747,513</t>
-  </si>
-  <si>
-    <t>580,000</t>
-  </si>
-  <si>
     <t>554,900</t>
   </si>
   <si>
-    <t>日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>持股占比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>0.23%</t>
+  </si>
+  <si>
+    <t>张晶</t>
   </si>
   <si>
     <t>2,041,520</t>
   </si>
   <si>
+    <t>0.85%</t>
+  </si>
+  <si>
+    <t>陈冈</t>
+  </si>
+  <si>
     <t>899,600</t>
   </si>
   <si>
+    <t>0.37%</t>
+  </si>
+  <si>
+    <t>张永高</t>
+  </si>
+  <si>
     <t>538,900</t>
   </si>
   <si>
+    <t>0.22%</t>
+  </si>
+  <si>
+    <t>叶君</t>
+  </si>
+  <si>
     <t>470,200</t>
   </si>
   <si>
-    <t>张晶</t>
-  </si>
-  <si>
-    <t>陈冈</t>
-  </si>
-  <si>
-    <t>张永高</t>
-  </si>
-  <si>
-    <t>叶君</t>
+    <t>0.20%</t>
   </si>
   <si>
     <t>蒙友祥</t>
   </si>
   <si>
+    <t>1,667,574</t>
+  </si>
+  <si>
+    <t>0.69%</t>
+  </si>
+  <si>
     <t>夏卢珍</t>
   </si>
   <si>
+    <t>1,226,300</t>
+  </si>
+  <si>
+    <t>0.51%</t>
+  </si>
+  <si>
     <t>孙骏</t>
   </si>
   <si>
+    <t>1,133,700</t>
+  </si>
+  <si>
+    <t>0.47%</t>
+  </si>
+  <si>
+    <t>998,374</t>
+  </si>
+  <si>
+    <t>0.42%</t>
+  </si>
+  <si>
     <t>UBS AG</t>
   </si>
   <si>
-    <t>1,667,574</t>
-  </si>
-  <si>
-    <t>1,226,300</t>
-  </si>
-  <si>
-    <t>1,133,700</t>
-  </si>
-  <si>
-    <t>998,374</t>
-  </si>
-  <si>
     <t>983,000</t>
   </si>
   <si>
+    <t>0.41%</t>
+  </si>
+  <si>
+    <t>979,000</t>
+  </si>
+  <si>
     <t>王飞</t>
   </si>
   <si>
+    <t>932,300</t>
+  </si>
+  <si>
+    <t>0.39%</t>
+  </si>
+  <si>
     <t>胡飞波</t>
   </si>
   <si>
+    <t>790,000</t>
+  </si>
+  <si>
+    <t>0.33%</t>
+  </si>
+  <si>
     <t>陈惠琴</t>
   </si>
   <si>
+    <t>750,000</t>
+  </si>
+  <si>
     <t>陈莉</t>
   </si>
   <si>
+    <t>500,000</t>
+  </si>
+  <si>
     <t>杨寒</t>
   </si>
   <si>
-    <t>979,000</t>
-  </si>
-  <si>
-    <t>932,300</t>
-  </si>
-  <si>
-    <t>790,000</t>
-  </si>
-  <si>
-    <t>750,000</t>
-  </si>
-  <si>
-    <t>500,000</t>
+    <t>0.21%</t>
   </si>
   <si>
     <t>赵亚敏</t>
   </si>
   <si>
+    <t>947,400</t>
+  </si>
+  <si>
     <t>刘磊</t>
   </si>
   <si>
+    <t>542,500</t>
+  </si>
+  <si>
     <t>宋黎明</t>
   </si>
   <si>
+    <t>463,300</t>
+  </si>
+  <si>
+    <t>0.19%</t>
+  </si>
+  <si>
     <t>钟牧虎</t>
   </si>
   <si>
+    <t>414,651</t>
+  </si>
+  <si>
+    <t>0.17%</t>
+  </si>
+  <si>
     <t>焦顺</t>
   </si>
   <si>
+    <t>395,800</t>
+  </si>
+  <si>
+    <t>0.16%</t>
+  </si>
+  <si>
     <t>王凤云</t>
   </si>
   <si>
-    <t>947,400</t>
-  </si>
-  <si>
-    <t>542,500</t>
-  </si>
-  <si>
-    <t>463,300</t>
-  </si>
-  <si>
-    <t>414,651</t>
-  </si>
-  <si>
-    <t>395,800</t>
-  </si>
-  <si>
     <t>303,400</t>
   </si>
   <si>
+    <t>0.13%</t>
+  </si>
+  <si>
     <t>赵红武</t>
   </si>
   <si>
+    <t>1,018,000</t>
+  </si>
+  <si>
+    <t>985,100</t>
+  </si>
+  <si>
     <t>赵荣</t>
   </si>
   <si>
+    <t>981,800</t>
+  </si>
+  <si>
     <t>谢吉潮</t>
   </si>
   <si>
+    <t>627,100</t>
+  </si>
+  <si>
+    <t>0.26%</t>
+  </si>
+  <si>
     <t>郭慧芸</t>
   </si>
   <si>
+    <t>469,600</t>
+  </si>
+  <si>
     <t>上海小鳄资产管理有限公司-天龙一号基金</t>
   </si>
   <si>
-    <t>1,018,000</t>
-  </si>
-  <si>
-    <t>985,100</t>
-  </si>
-  <si>
-    <t>981,800</t>
-  </si>
-  <si>
-    <t>627,100</t>
-  </si>
-  <si>
-    <t>469,600</t>
-  </si>
-  <si>
     <t>445,300</t>
   </si>
   <si>
+    <t>126,515,000</t>
+  </si>
+  <si>
+    <t>52.71%</t>
+  </si>
+  <si>
     <t>孙毓</t>
   </si>
   <si>
+    <t>2,472,800</t>
+  </si>
+  <si>
+    <t>1.03%</t>
+  </si>
+  <si>
     <t>石林</t>
   </si>
   <si>
+    <t>1,394,000</t>
+  </si>
+  <si>
     <t>蒙儒</t>
   </si>
   <si>
+    <t>1,017,900</t>
+  </si>
+  <si>
+    <t>1,005,300</t>
+  </si>
+  <si>
     <t>瑞士信贷(香港)有限公司</t>
   </si>
   <si>
-    <t>126,515,000</t>
-  </si>
-  <si>
-    <t>2,472,800</t>
-  </si>
-  <si>
-    <t>1,394,000</t>
-  </si>
-  <si>
-    <t>1,017,900</t>
-  </si>
-  <si>
-    <t>1,005,300</t>
-  </si>
-  <si>
     <t>1,000,000</t>
   </si>
   <si>
     <t>996,200</t>
   </si>
   <si>
+    <t>998,700</t>
+  </si>
+  <si>
     <t>李俊</t>
   </si>
   <si>
+    <t>860,000</t>
+  </si>
+  <si>
+    <t>0.36%</t>
+  </si>
+  <si>
     <t>袁喜保</t>
   </si>
   <si>
+    <t>643,900</t>
+  </si>
+  <si>
+    <t>0.27%</t>
+  </si>
+  <si>
     <t>李辉</t>
   </si>
   <si>
-    <t>998,700</t>
-  </si>
-  <si>
-    <t>860,000</t>
-  </si>
-  <si>
-    <t>643,900</t>
-  </si>
-  <si>
     <t>640,000</t>
   </si>
   <si>
     <t>日播时尚集团股份有限公司回购专用证券账户</t>
   </si>
   <si>
+    <t>2,804,100</t>
+  </si>
+  <si>
+    <t>1.17%</t>
+  </si>
+  <si>
     <t>王光坤</t>
   </si>
   <si>
-    <t>2,804,100</t>
-  </si>
-  <si>
     <t>2,197,300</t>
   </si>
   <si>
+    <t>0.92%</t>
+  </si>
+  <si>
     <t>994,300</t>
   </si>
   <si>
@@ -336,69 +419,90 @@
     <t>705,600</t>
   </si>
   <si>
+    <t>0.29%</t>
+  </si>
+  <si>
     <t>550,000</t>
   </si>
   <si>
     <t>沣京资本管理(北京)有限公司-沣京价值精选1期私募证券投资基金</t>
   </si>
   <si>
+    <t>2,106,500</t>
+  </si>
+  <si>
+    <t>0.88%</t>
+  </si>
+  <si>
+    <t>896,900</t>
+  </si>
+  <si>
     <t>邱晓平</t>
   </si>
   <si>
+    <t>805,593</t>
+  </si>
+  <si>
+    <t>706,700</t>
+  </si>
+  <si>
     <t>石岗</t>
   </si>
   <si>
-    <t>2,106,500</t>
-  </si>
-  <si>
-    <t>896,900</t>
-  </si>
-  <si>
-    <t>805,593</t>
-  </si>
-  <si>
-    <t>706,700</t>
-  </si>
-  <si>
     <t>560,284</t>
   </si>
   <si>
+    <t>15,920,000</t>
+  </si>
+  <si>
+    <t>6.63%</t>
+  </si>
+  <si>
     <t>李双玉</t>
   </si>
   <si>
+    <t>1,299,800</t>
+  </si>
+  <si>
+    <t>0.54%</t>
+  </si>
+  <si>
     <t>谌建霞</t>
   </si>
   <si>
+    <t>944,200</t>
+  </si>
+  <si>
+    <t>888,100</t>
+  </si>
+  <si>
     <t>颜海洋</t>
   </si>
   <si>
+    <t>847,700</t>
+  </si>
+  <si>
+    <t>0.35%</t>
+  </si>
+  <si>
     <t>徐刚坤</t>
   </si>
   <si>
-    <t>15,920,000</t>
-  </si>
-  <si>
-    <t>1,299,800</t>
-  </si>
-  <si>
-    <t>944,200</t>
-  </si>
-  <si>
-    <t>888,100</t>
-  </si>
-  <si>
-    <t>847,700</t>
-  </si>
-  <si>
     <t>810,200</t>
   </si>
   <si>
     <t>27,890,000</t>
   </si>
   <si>
+    <t>11.62%</t>
+  </si>
+  <si>
     <t>15,720,000</t>
   </si>
   <si>
+    <t>6.55%</t>
+  </si>
+  <si>
     <t>1,003,200</t>
   </si>
   <si>
@@ -408,6 +512,9 @@
     <t>773,800</t>
   </si>
   <si>
+    <t>0.32%</t>
+  </si>
+  <si>
     <t>王葵</t>
   </si>
   <si>
@@ -417,18 +524,30 @@
     <t>27,870,000</t>
   </si>
   <si>
+    <t>11.61%</t>
+  </si>
+  <si>
     <t>14,720,000</t>
   </si>
   <si>
+    <t>6.13%</t>
+  </si>
+  <si>
     <t>廖永兵</t>
   </si>
   <si>
     <t>1,681,900</t>
   </si>
   <si>
+    <t>0.70%</t>
+  </si>
+  <si>
     <t>958,200</t>
   </si>
   <si>
+    <t>0.40%</t>
+  </si>
+  <si>
     <t>倪新明</t>
   </si>
   <si>
@@ -441,12 +560,21 @@
     <t>818,000</t>
   </si>
   <si>
+    <t>52.73%</t>
+  </si>
+  <si>
+    <t>6.14%</t>
+  </si>
+  <si>
     <t>葛跃进</t>
   </si>
   <si>
     <t>1,101,300</t>
   </si>
   <si>
+    <t>0.46%</t>
+  </si>
+  <si>
     <t>959,100</t>
   </si>
   <si>
@@ -465,6 +593,9 @@
     <t>1,827,000</t>
   </si>
   <si>
+    <t>0.76%</t>
+  </si>
+  <si>
     <t>光大永明资管-建设银行-光大永明资产聚优稳健28号混合类资产管理产品</t>
   </si>
   <si>
@@ -480,18 +611,36 @@
     <t>910,000</t>
   </si>
   <si>
+    <t>0.38%</t>
+  </si>
+  <si>
+    <t>52.79%</t>
+  </si>
+  <si>
+    <t>11.63%</t>
+  </si>
+  <si>
     <t>董泽清</t>
   </si>
   <si>
     <t>3,800,000</t>
   </si>
   <si>
+    <t>1.59%</t>
+  </si>
+  <si>
     <t>1,500,000</t>
   </si>
   <si>
+    <t>0.63%</t>
+  </si>
+  <si>
     <t>1,050,000</t>
   </si>
   <si>
+    <t>0.44%</t>
+  </si>
+  <si>
     <t>956,400</t>
   </si>
   <si>
@@ -510,15 +659,24 @@
     <t>3,579,300</t>
   </si>
   <si>
+    <t>1.49%</t>
+  </si>
+  <si>
     <t>陈亚萍</t>
   </si>
   <si>
     <t>2,373,400</t>
   </si>
   <si>
+    <t>0.99%</t>
+  </si>
+  <si>
     <t>1,562,700</t>
   </si>
   <si>
+    <t>0.65%</t>
+  </si>
+  <si>
     <t>中信里昂资产管理有限公司-客户资金-人民币资金汇入</t>
   </si>
   <si>
@@ -531,208 +689,25 @@
     <t>1,110,669</t>
   </si>
   <si>
-    <t>54.00%</t>
-  </si>
-  <si>
-    <t>12.11%</t>
-  </si>
-  <si>
-    <t>6.64%</t>
-  </si>
-  <si>
-    <t>0.58%</t>
-  </si>
-  <si>
-    <t>0.56%</t>
-  </si>
-  <si>
-    <t>0.34%</t>
-  </si>
-  <si>
-    <t>0.31%</t>
-  </si>
-  <si>
-    <t>0.24%</t>
-  </si>
-  <si>
-    <t>0.23%</t>
-  </si>
-  <si>
-    <t>持股数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>跳转链接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.85%</t>
-  </si>
-  <si>
-    <t>0.37%</t>
-  </si>
-  <si>
-    <t>0.22%</t>
-  </si>
-  <si>
-    <t>0.20%</t>
-  </si>
-  <si>
-    <t>0.69%</t>
-  </si>
-  <si>
-    <t>0.51%</t>
-  </si>
-  <si>
-    <t>0.47%</t>
-  </si>
-  <si>
-    <t>0.42%</t>
-  </si>
-  <si>
-    <t>0.41%</t>
-  </si>
-  <si>
-    <t>0.39%</t>
-  </si>
-  <si>
-    <t>0.33%</t>
-  </si>
-  <si>
-    <t>0.21%</t>
-  </si>
-  <si>
-    <t>0.19%</t>
-  </si>
-  <si>
-    <t>0.17%</t>
-  </si>
-  <si>
-    <t>0.16%</t>
-  </si>
-  <si>
-    <t>0.13%</t>
-  </si>
-  <si>
-    <t>0.26%</t>
-  </si>
-  <si>
-    <t>52.71%</t>
-  </si>
-  <si>
-    <t>1.03%</t>
-  </si>
-  <si>
-    <t>0.36%</t>
-  </si>
-  <si>
-    <t>0.27%</t>
-  </si>
-  <si>
-    <t>1.17%</t>
-  </si>
-  <si>
-    <t>0.92%</t>
-  </si>
-  <si>
-    <t>0.29%</t>
-  </si>
-  <si>
-    <t>0.88%</t>
-  </si>
-  <si>
-    <t>6.63%</t>
-  </si>
-  <si>
-    <t>0.54%</t>
-  </si>
-  <si>
-    <t>0.35%</t>
-  </si>
-  <si>
-    <t>11.62%</t>
-  </si>
-  <si>
-    <t>6.55%</t>
-  </si>
-  <si>
-    <t>0.32%</t>
-  </si>
-  <si>
-    <t>11.61%</t>
-  </si>
-  <si>
-    <t>6.13%</t>
-  </si>
-  <si>
-    <t>0.70%</t>
-  </si>
-  <si>
-    <t>0.40%</t>
-  </si>
-  <si>
-    <t>52.73%</t>
-  </si>
-  <si>
-    <t>6.14%</t>
-  </si>
-  <si>
-    <t>0.46%</t>
-  </si>
-  <si>
-    <t>0.76%</t>
-  </si>
-  <si>
-    <t>0.38%</t>
-  </si>
-  <si>
-    <t>52.79%</t>
-  </si>
-  <si>
-    <t>11.63%</t>
-  </si>
-  <si>
-    <t>1.59%</t>
-  </si>
-  <si>
-    <t>0.63%</t>
-  </si>
-  <si>
-    <t>0.44%</t>
-  </si>
-  <si>
-    <t>1.49%</t>
-  </si>
-  <si>
-    <t>0.99%</t>
-  </si>
-  <si>
-    <t>0.65%</t>
-  </si>
-  <si>
-    <t>中国民生银行股份有限公司-金元顺安元启灵活配置混合型证券投资基金</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>rb_63.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.00000000%"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -741,20 +716,363 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -762,49 +1080,338 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="十大股东(2023-07-04)_1"/>
@@ -1004,6 +1611,524 @@
       <sheetData sheetId="26"/>
       <sheetData sheetId="27"/>
       <sheetData sheetId="28"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="68">
+          <cell r="B68" t="str">
+            <v>上海日播投资控股有限公司</v>
+          </cell>
+          <cell r="C68" t="str">
+            <v>rb_1.png</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="B69" t="str">
+            <v>王卫东</v>
+          </cell>
+          <cell r="C69" t="str">
+            <v>rb_2.png</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="B70" t="str">
+            <v>曲江亭</v>
+          </cell>
+          <cell r="C70" t="str">
+            <v>rb_3.png</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="B71" t="str">
+            <v>林亮</v>
+          </cell>
+          <cell r="C71" t="str">
+            <v>rb_4.png</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="B72" t="str">
+            <v>郑征</v>
+          </cell>
+          <cell r="C72" t="str">
+            <v>rb_5.png</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="B73" t="str">
+            <v>法国兴业银行</v>
+          </cell>
+          <cell r="C73" t="str">
+            <v>rb_6.png</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="B74" t="str">
+            <v>李火凤</v>
+          </cell>
+          <cell r="C74" t="str">
+            <v>rb_7.png</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="B75" t="str">
+            <v>李峥峥</v>
+          </cell>
+          <cell r="C75" t="str">
+            <v>rb_8.png</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="B76" t="str">
+            <v>王陶</v>
+          </cell>
+          <cell r="C76" t="str">
+            <v>rb_9.png</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="B77" t="str">
+            <v>中信银行股份有限公司-建信中证500指数增强型证券投资基金</v>
+          </cell>
+          <cell r="C77" t="str">
+            <v>rb_10.png</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="B78" t="str">
+            <v>张晶</v>
+          </cell>
+          <cell r="C78" t="str">
+            <v>rb_11.png</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="B79" t="str">
+            <v>陈冈</v>
+          </cell>
+          <cell r="C79" t="str">
+            <v>rb_12.png</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="B80" t="str">
+            <v>张永高</v>
+          </cell>
+          <cell r="C80" t="str">
+            <v>rb_13.png</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="B81" t="str">
+            <v>叶君</v>
+          </cell>
+          <cell r="C81" t="str">
+            <v>rb_14.png</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="B82" t="str">
+            <v>蒙友祥</v>
+          </cell>
+          <cell r="C82" t="str">
+            <v>rb_15.png</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="B83" t="str">
+            <v>夏卢珍</v>
+          </cell>
+          <cell r="C83" t="str">
+            <v>rb_16.png</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="B84" t="str">
+            <v>孙骏</v>
+          </cell>
+          <cell r="C84" t="str">
+            <v>rb_17.png</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="B85" t="str">
+            <v>UBS AG</v>
+          </cell>
+          <cell r="C85" t="str">
+            <v>rb_18.png</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="B86" t="str">
+            <v>王飞</v>
+          </cell>
+          <cell r="C86" t="str">
+            <v>rb_19.png</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="B87" t="str">
+            <v>胡飞波</v>
+          </cell>
+          <cell r="C87" t="str">
+            <v>rb_20.png</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="B88" t="str">
+            <v>陈惠琴</v>
+          </cell>
+          <cell r="C88" t="str">
+            <v>rb_21.png</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="B89" t="str">
+            <v>陈莉</v>
+          </cell>
+          <cell r="C89" t="str">
+            <v>rb_22.png</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="B90" t="str">
+            <v>杨寒</v>
+          </cell>
+          <cell r="C90" t="str">
+            <v>rb_23.png</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="B91" t="str">
+            <v>赵亚敏</v>
+          </cell>
+          <cell r="C91" t="str">
+            <v>rb_24.png</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="B92" t="str">
+            <v>刘磊</v>
+          </cell>
+          <cell r="C92" t="str">
+            <v>rb_25.png</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="B93" t="str">
+            <v>宋黎明</v>
+          </cell>
+          <cell r="C93" t="str">
+            <v>rb_26.png</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="B94" t="str">
+            <v>钟牧虎</v>
+          </cell>
+          <cell r="C94" t="str">
+            <v>rb_27.png</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="B95" t="str">
+            <v>焦顺</v>
+          </cell>
+          <cell r="C95" t="str">
+            <v>rb_28.png</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="B96" t="str">
+            <v>王凤云</v>
+          </cell>
+          <cell r="C96" t="str">
+            <v>rb_29.png</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="B97" t="str">
+            <v>赵红武</v>
+          </cell>
+          <cell r="C97" t="str">
+            <v>rb_30.png</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="B98" t="str">
+            <v>赵荣</v>
+          </cell>
+          <cell r="C98" t="str">
+            <v>rb_31.png</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="B99" t="str">
+            <v>谢吉潮</v>
+          </cell>
+          <cell r="C99" t="str">
+            <v>rb_32.png</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="B100" t="str">
+            <v>郭慧芸</v>
+          </cell>
+          <cell r="C100" t="str">
+            <v>rb_33.png</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="B101" t="str">
+            <v>上海小鳄资产管理有限公司-天龙一号基金</v>
+          </cell>
+          <cell r="C101" t="str">
+            <v>rb_34.png</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="B102" t="str">
+            <v>孙毓</v>
+          </cell>
+          <cell r="C102" t="str">
+            <v>rb_35.png</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="B103" t="str">
+            <v>石林</v>
+          </cell>
+          <cell r="C103" t="str">
+            <v>rb_36.png</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="B104" t="str">
+            <v>蒙儒</v>
+          </cell>
+          <cell r="C104" t="str">
+            <v>rb_37.png</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="B105" t="str">
+            <v>瑞士信贷(香港)有限公司</v>
+          </cell>
+          <cell r="C105" t="str">
+            <v>rb_38.png</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="B106" t="str">
+            <v>李俊</v>
+          </cell>
+          <cell r="C106" t="str">
+            <v>rb_39.png</v>
+          </cell>
+        </row>
+        <row r="107">
+          <cell r="B107" t="str">
+            <v>袁喜保</v>
+          </cell>
+          <cell r="C107" t="str">
+            <v>rb_40.png</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="B108" t="str">
+            <v>李辉</v>
+          </cell>
+          <cell r="C108" t="str">
+            <v>rb_41.png</v>
+          </cell>
+        </row>
+        <row r="109">
+          <cell r="B109" t="str">
+            <v>日播时尚集团股份有限公司回购专用证券账户</v>
+          </cell>
+          <cell r="C109" t="str">
+            <v>rb_42.png</v>
+          </cell>
+        </row>
+        <row r="110">
+          <cell r="B110" t="str">
+            <v>王光坤</v>
+          </cell>
+          <cell r="C110" t="str">
+            <v>rb_43.png</v>
+          </cell>
+        </row>
+        <row r="111">
+          <cell r="B111" t="str">
+            <v>沣京资本管理(北京)有限公司-沣京价值精选1期私募证券投资基金</v>
+          </cell>
+          <cell r="C111" t="str">
+            <v>rb_44.png</v>
+          </cell>
+        </row>
+        <row r="112">
+          <cell r="B112" t="str">
+            <v>邱晓平</v>
+          </cell>
+          <cell r="C112" t="str">
+            <v>rb_45.png</v>
+          </cell>
+        </row>
+        <row r="113">
+          <cell r="B113" t="str">
+            <v>石岗</v>
+          </cell>
+          <cell r="C113" t="str">
+            <v>rb_46.png</v>
+          </cell>
+        </row>
+        <row r="114">
+          <cell r="B114" t="str">
+            <v>李双玉</v>
+          </cell>
+          <cell r="C114" t="str">
+            <v>rb_47.png</v>
+          </cell>
+        </row>
+        <row r="115">
+          <cell r="B115" t="str">
+            <v>谌建霞</v>
+          </cell>
+          <cell r="C115" t="str">
+            <v>rb_48.png</v>
+          </cell>
+        </row>
+        <row r="116">
+          <cell r="B116" t="str">
+            <v>颜海洋</v>
+          </cell>
+          <cell r="C116" t="str">
+            <v>rb_49.png</v>
+          </cell>
+        </row>
+        <row r="117">
+          <cell r="B117" t="str">
+            <v>徐刚坤</v>
+          </cell>
+          <cell r="C117" t="str">
+            <v>rb_50.png</v>
+          </cell>
+        </row>
+        <row r="118">
+          <cell r="B118" t="str">
+            <v>王葵</v>
+          </cell>
+          <cell r="C118" t="str">
+            <v>rb_51.png</v>
+          </cell>
+        </row>
+        <row r="119">
+          <cell r="B119" t="str">
+            <v>廖永兵</v>
+          </cell>
+          <cell r="C119" t="str">
+            <v>rb_52.png</v>
+          </cell>
+        </row>
+        <row r="120">
+          <cell r="B120" t="str">
+            <v>倪新明</v>
+          </cell>
+          <cell r="C120" t="str">
+            <v>rb_53.png</v>
+          </cell>
+        </row>
+        <row r="121">
+          <cell r="B121" t="str">
+            <v>葛跃进</v>
+          </cell>
+          <cell r="C121" t="str">
+            <v>rb_54.png</v>
+          </cell>
+        </row>
+        <row r="122">
+          <cell r="B122" t="str">
+            <v>黄东明</v>
+          </cell>
+          <cell r="C122" t="str">
+            <v>rb_55.png</v>
+          </cell>
+        </row>
+        <row r="123">
+          <cell r="B123" t="str">
+            <v>中国民生银行股份有限公司-金元顺安元启灵活配置混合型证券投资基金</v>
+          </cell>
+          <cell r="C123" t="str">
+            <v>rb_56.png</v>
+          </cell>
+        </row>
+        <row r="124">
+          <cell r="B124" t="str">
+            <v>光大永明资管-建设银行-光大永明资产聚优稳健28号混合类资产管理产品</v>
+          </cell>
+          <cell r="C124" t="str">
+            <v>rb_57.png</v>
+          </cell>
+        </row>
+        <row r="125">
+          <cell r="B125" t="str">
+            <v>董泽清</v>
+          </cell>
+          <cell r="C125" t="str">
+            <v>rb_58.png</v>
+          </cell>
+        </row>
+        <row r="126">
+          <cell r="B126" t="str">
+            <v>姚晋</v>
+          </cell>
+          <cell r="C126" t="str">
+            <v>rb_59.png</v>
+          </cell>
+        </row>
+        <row r="127">
+          <cell r="B127" t="str">
+            <v>王晟羽</v>
+          </cell>
+          <cell r="C127" t="str">
+            <v>rb_60.png</v>
+          </cell>
+        </row>
+        <row r="128">
+          <cell r="B128" t="str">
+            <v>陈亚萍</v>
+          </cell>
+          <cell r="C128" t="str">
+            <v>rb_61.png</v>
+          </cell>
+        </row>
+        <row r="129">
+          <cell r="B129" t="str">
+            <v>中信里昂资产管理有限公司-客户资金-人民币资金汇入</v>
+          </cell>
+          <cell r="C129" t="str">
+            <v>rb_62.png</v>
+          </cell>
+        </row>
+        <row r="130">
+          <cell r="B130" t="str">
+            <v>MORGAN STANLEY&amp;CO.   INTERNATIONAL PLC.</v>
+          </cell>
+          <cell r="C130" t="str">
+            <v>rb_63.png</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1052,7 +2177,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -1087,7 +2212,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -1261,3159 +2386,3840 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E181"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F181"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="11.86328125" style="1" customWidth="1"/>
-    <col min="2" max="5" width="9.06640625" style="3"/>
+    <col min="1" max="1" width="12.3571428571429" style="1" customWidth="1"/>
+    <col min="2" max="2" width="73" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.8571428571429" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.57142857142857" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.4375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="255.642857142857" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" s="2">
+    <row r="1" spans="1:6">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="5">
         <v>43555</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="E2" s="3" t="str">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_1.png</v>
+      </c>
+      <c r="F2" s="2" t="str">
         <f>VLOOKUP(B2,[1]Sheet1!$A:$B,2,0)</f>
         <v>https://kuaicha.10jqka.com.cn/yuqingwebapp/yuqingapp/?client_userid=A1XHy&amp;share_hxapp=gsc&amp;share_action=&amp;back_source=wxhy#/companyDetail/chart?id=T004308394&amp;type=gqdc&amp;company_count=13&amp;holder_count=3&amp;scFrom=f10&amp;share=hexin&amp;isShowAppBar=false&amp;isShowStatusBar=false</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" s="2">
+    <row r="3" spans="1:6">
+      <c r="A3" s="5">
         <v>43555</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="E3" s="3" t="str">
+      <c r="E3" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_2.png</v>
+      </c>
+      <c r="F3" s="2" t="str">
         <f>VLOOKUP(B3,[1]Sheet1!$A:$B,2,0)</f>
         <v>https://kuaicha.10jqka.com.cn/yuqingwebapp/yuqingapp/?client_userid=A1XHy&amp;share_hxapp=gsc&amp;share_action=&amp;back_source=wxhy#/personDetail/personMap?id=T120896300&amp;company_size=undefined&amp;person_size=undefined&amp;scFrom=f10&amp;share=hexin&amp;isShowAppBar=false&amp;isShowStatusBar=false</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4" s="2">
+    <row r="4" spans="1:6">
+      <c r="A4" s="5">
         <v>43555</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E4" s="3" t="str">
+        <v>14</v>
+      </c>
+      <c r="E4" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_3.png</v>
+      </c>
+      <c r="F4" s="2" t="str">
         <f>VLOOKUP(B4,[1]Sheet1!$A:$B,2,0)</f>
         <v>https://kuaicha.10jqka.com.cn/yuqingwebapp/yuqingapp/?client_userid=A1XHy&amp;share_hxapp=gsc&amp;share_action=&amp;back_source=wxhy#/personDetail/personMap?id=H000447004&amp;company_size=1&amp;person_size=0&amp;scFrom=f10&amp;share=hexin&amp;isShowAppBar=false&amp;isShowStatusBar=false</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A5" s="2">
+    <row r="5" spans="1:6">
+      <c r="A5" s="5">
         <v>43555</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="E5" s="3" t="str">
+        <v>17</v>
+      </c>
+      <c r="E5" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_4.png</v>
+      </c>
+      <c r="F5" s="2" t="str">
         <f>VLOOKUP(B5,[1]Sheet1!$A:$B,2,0)</f>
         <v>https://kuaicha.10jqka.com.cn/yuqingwebapp/yuqingapp/?client_userid=A1XHy&amp;share_hxapp=gsc&amp;share_action=&amp;back_source=wxhy#/personDetail/personMap?id=T120897500&amp;company_size=11&amp;person_size=0&amp;scFrom=f10&amp;share=hexin&amp;isShowAppBar=false&amp;isShowStatusBar=false</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A6" s="2">
+    <row r="6" spans="1:6">
+      <c r="A6" s="5">
         <v>43555</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="E6" s="3" t="str">
+        <v>20</v>
+      </c>
+      <c r="E6" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_5.png</v>
+      </c>
+      <c r="F6" s="2" t="str">
         <f>VLOOKUP(B6,[1]Sheet1!$A:$B,2,0)</f>
         <v>https://kuaicha.10jqka.com.cn/yuqingwebapp/yuqingapp/?client_userid=A1XHy&amp;share_hxapp=gsc&amp;share_action=&amp;back_source=wxhy#/personDetail/personMap?id=T120897100&amp;company_size=44&amp;person_size=0&amp;scFrom=f10&amp;share=hexin&amp;isShowAppBar=false&amp;isShowStatusBar=false</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" s="2">
+    <row r="7" spans="1:6">
+      <c r="A7" s="5">
         <v>43555</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="E7" s="3" t="e">
+        <v>23</v>
+      </c>
+      <c r="E7" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_6.png</v>
+      </c>
+      <c r="F7" s="2" t="e">
         <f>VLOOKUP(B7,[1]Sheet1!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A8" s="2">
+    <row r="8" spans="1:6">
+      <c r="A8" s="5">
         <v>43555</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="4">
-        <v>3.2000000000000002E-3</v>
-      </c>
-      <c r="E8" s="3" t="e">
+        <v>25</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.0032</v>
+      </c>
+      <c r="E8" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_7.png</v>
+      </c>
+      <c r="F8" s="2" t="e">
         <f>VLOOKUP(B8,[1]Sheet1!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A9" s="2">
+    <row r="9" spans="1:6">
+      <c r="A9" s="5">
         <v>43555</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="E9" s="3" t="e">
+        <v>28</v>
+      </c>
+      <c r="E9" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_8.png</v>
+      </c>
+      <c r="F9" s="2" t="e">
         <f>VLOOKUP(B9,[1]Sheet1!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A10" s="2">
+    <row r="10" spans="1:6">
+      <c r="A10" s="5">
         <v>43555</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E10" s="3" t="e">
+        <v>31</v>
+      </c>
+      <c r="E10" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_9.png</v>
+      </c>
+      <c r="F10" s="2" t="e">
         <f>VLOOKUP(B10,[1]Sheet1!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A11" s="2">
+    <row r="11" spans="1:6">
+      <c r="A11" s="5">
         <v>43555</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="E11" s="3" t="e">
+        <v>34</v>
+      </c>
+      <c r="E11" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_10.png</v>
+      </c>
+      <c r="F11" s="2" t="e">
         <f>VLOOKUP(B11,[1]Sheet1!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A12" s="2">
+    <row r="12" spans="1:6">
+      <c r="A12" s="5">
         <v>43646</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="E12" s="3" t="str">
+        <v>8</v>
+      </c>
+      <c r="E12" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_1.png</v>
+      </c>
+      <c r="F12" s="2" t="str">
         <f>VLOOKUP(B12,[1]Sheet1!$A:$B,2,0)</f>
         <v>https://kuaicha.10jqka.com.cn/yuqingwebapp/yuqingapp/?client_userid=A1XHy&amp;share_hxapp=gsc&amp;share_action=&amp;back_source=wxhy#/companyDetail/chart?id=T004308394&amp;type=gqdc&amp;company_count=13&amp;holder_count=3&amp;scFrom=f10&amp;share=hexin&amp;isShowAppBar=false&amp;isShowStatusBar=false</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A13" s="2">
+    <row r="13" spans="1:6">
+      <c r="A13" s="5">
         <v>43646</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="E13" s="3" t="str">
+      <c r="E13" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_2.png</v>
+      </c>
+      <c r="F13" s="2" t="str">
         <f>VLOOKUP(B13,[1]Sheet1!$A:$B,2,0)</f>
         <v>https://kuaicha.10jqka.com.cn/yuqingwebapp/yuqingapp/?client_userid=A1XHy&amp;share_hxapp=gsc&amp;share_action=&amp;back_source=wxhy#/personDetail/personMap?id=T120896300&amp;company_size=undefined&amp;person_size=undefined&amp;scFrom=f10&amp;share=hexin&amp;isShowAppBar=false&amp;isShowStatusBar=false</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A14" s="2">
+    <row r="14" spans="1:6">
+      <c r="A14" s="5">
         <v>43646</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E14" s="3" t="str">
+        <v>14</v>
+      </c>
+      <c r="E14" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_3.png</v>
+      </c>
+      <c r="F14" s="2" t="str">
         <f>VLOOKUP(B14,[1]Sheet1!$A:$B,2,0)</f>
         <v>https://kuaicha.10jqka.com.cn/yuqingwebapp/yuqingapp/?client_userid=A1XHy&amp;share_hxapp=gsc&amp;share_action=&amp;back_source=wxhy#/personDetail/personMap?id=H000447004&amp;company_size=1&amp;person_size=0&amp;scFrom=f10&amp;share=hexin&amp;isShowAppBar=false&amp;isShowStatusBar=false</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A15" s="2">
+    <row r="15" spans="1:6">
+      <c r="A15" s="5">
         <v>43646</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="E15" s="3" t="e">
+        <v>37</v>
+      </c>
+      <c r="E15" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_11.png</v>
+      </c>
+      <c r="F15" s="2" t="e">
         <f>VLOOKUP(B15,[1]Sheet1!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A16" s="2">
+    <row r="16" spans="1:6">
+      <c r="A16" s="5">
         <v>43646</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="E16" s="3" t="str">
+        <v>17</v>
+      </c>
+      <c r="E16" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_4.png</v>
+      </c>
+      <c r="F16" s="2" t="str">
         <f>VLOOKUP(B16,[1]Sheet1!$A:$B,2,0)</f>
         <v>https://kuaicha.10jqka.com.cn/yuqingwebapp/yuqingapp/?client_userid=A1XHy&amp;share_hxapp=gsc&amp;share_action=&amp;back_source=wxhy#/personDetail/personMap?id=T120897500&amp;company_size=11&amp;person_size=0&amp;scFrom=f10&amp;share=hexin&amp;isShowAppBar=false&amp;isShowStatusBar=false</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A17" s="2">
+    <row r="17" spans="1:6">
+      <c r="A17" s="5">
         <v>43646</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="E17" s="3" t="str">
+        <v>20</v>
+      </c>
+      <c r="E17" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_5.png</v>
+      </c>
+      <c r="F17" s="2" t="str">
         <f>VLOOKUP(B17,[1]Sheet1!$A:$B,2,0)</f>
         <v>https://kuaicha.10jqka.com.cn/yuqingwebapp/yuqingapp/?client_userid=A1XHy&amp;share_hxapp=gsc&amp;share_action=&amp;back_source=wxhy#/personDetail/personMap?id=T120897100&amp;company_size=44&amp;person_size=0&amp;scFrom=f10&amp;share=hexin&amp;isShowAppBar=false&amp;isShowStatusBar=false</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A18" s="2">
+    <row r="18" spans="1:6">
+      <c r="A18" s="5">
         <v>43646</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="E18" s="3" t="e">
+        <v>40</v>
+      </c>
+      <c r="E18" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_12.png</v>
+      </c>
+      <c r="F18" s="2" t="e">
         <f>VLOOKUP(B18,[1]Sheet1!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A19" s="2">
+    <row r="19" spans="1:6">
+      <c r="A19" s="5">
         <v>43646</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E19" s="3" t="e">
+        <v>31</v>
+      </c>
+      <c r="E19" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_9.png</v>
+      </c>
+      <c r="F19" s="2" t="e">
         <f>VLOOKUP(B19,[1]Sheet1!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A20" s="2">
+    <row r="20" spans="1:6">
+      <c r="A20" s="5">
         <v>43646</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E20" s="3" t="e">
+        <v>43</v>
+      </c>
+      <c r="E20" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_13.png</v>
+      </c>
+      <c r="F20" s="2" t="e">
         <f>VLOOKUP(B20,[1]Sheet1!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A21" s="2">
+    <row r="21" spans="1:6">
+      <c r="A21" s="5">
         <v>43646</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="E21" s="3" t="e">
+        <v>46</v>
+      </c>
+      <c r="E21" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_14.png</v>
+      </c>
+      <c r="F21" s="2" t="e">
         <f>VLOOKUP(B21,[1]Sheet1!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A22" s="2">
+    <row r="22" spans="1:6">
+      <c r="A22" s="5">
         <v>43738</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="E22" s="3" t="str">
+        <v>8</v>
+      </c>
+      <c r="E22" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_1.png</v>
+      </c>
+      <c r="F22" s="2" t="str">
         <f>VLOOKUP(B22,[1]Sheet1!$A:$B,2,0)</f>
         <v>https://kuaicha.10jqka.com.cn/yuqingwebapp/yuqingapp/?client_userid=A1XHy&amp;share_hxapp=gsc&amp;share_action=&amp;back_source=wxhy#/companyDetail/chart?id=T004308394&amp;type=gqdc&amp;company_count=13&amp;holder_count=3&amp;scFrom=f10&amp;share=hexin&amp;isShowAppBar=false&amp;isShowStatusBar=false</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A23" s="2">
+    <row r="23" spans="1:6">
+      <c r="A23" s="5">
         <v>43738</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="E23" s="3" t="str">
+      <c r="E23" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_2.png</v>
+      </c>
+      <c r="F23" s="2" t="str">
         <f>VLOOKUP(B23,[1]Sheet1!$A:$B,2,0)</f>
         <v>https://kuaicha.10jqka.com.cn/yuqingwebapp/yuqingapp/?client_userid=A1XHy&amp;share_hxapp=gsc&amp;share_action=&amp;back_source=wxhy#/personDetail/personMap?id=T120896300&amp;company_size=undefined&amp;person_size=undefined&amp;scFrom=f10&amp;share=hexin&amp;isShowAppBar=false&amp;isShowStatusBar=false</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A24" s="2">
+    <row r="24" spans="1:6">
+      <c r="A24" s="5">
         <v>43738</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E24" s="3" t="str">
+        <v>14</v>
+      </c>
+      <c r="E24" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_3.png</v>
+      </c>
+      <c r="F24" s="2" t="str">
         <f>VLOOKUP(B24,[1]Sheet1!$A:$B,2,0)</f>
         <v>https://kuaicha.10jqka.com.cn/yuqingwebapp/yuqingapp/?client_userid=A1XHy&amp;share_hxapp=gsc&amp;share_action=&amp;back_source=wxhy#/personDetail/personMap?id=H000447004&amp;company_size=1&amp;person_size=0&amp;scFrom=f10&amp;share=hexin&amp;isShowAppBar=false&amp;isShowStatusBar=false</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A25" s="2">
+    <row r="25" spans="1:6">
+      <c r="A25" s="5">
         <v>43738</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="E25" s="3" t="e">
+        <v>49</v>
+      </c>
+      <c r="E25" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_15.png</v>
+      </c>
+      <c r="F25" s="2" t="e">
         <f>VLOOKUP(B25,[1]Sheet1!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A26" s="2">
+    <row r="26" spans="1:6">
+      <c r="A26" s="5">
         <v>43738</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="E26" s="3" t="str">
+        <v>17</v>
+      </c>
+      <c r="E26" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_4.png</v>
+      </c>
+      <c r="F26" s="2" t="str">
         <f>VLOOKUP(B26,[1]Sheet1!$A:$B,2,0)</f>
         <v>https://kuaicha.10jqka.com.cn/yuqingwebapp/yuqingapp/?client_userid=A1XHy&amp;share_hxapp=gsc&amp;share_action=&amp;back_source=wxhy#/personDetail/personMap?id=T120897500&amp;company_size=11&amp;person_size=0&amp;scFrom=f10&amp;share=hexin&amp;isShowAppBar=false&amp;isShowStatusBar=false</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A27" s="2">
+    <row r="27" spans="1:6">
+      <c r="A27" s="5">
         <v>43738</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="E27" s="3" t="str">
+        <v>20</v>
+      </c>
+      <c r="E27" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_5.png</v>
+      </c>
+      <c r="F27" s="2" t="str">
         <f>VLOOKUP(B27,[1]Sheet1!$A:$B,2,0)</f>
         <v>https://kuaicha.10jqka.com.cn/yuqingwebapp/yuqingapp/?client_userid=A1XHy&amp;share_hxapp=gsc&amp;share_action=&amp;back_source=wxhy#/personDetail/personMap?id=T120897100&amp;company_size=44&amp;person_size=0&amp;scFrom=f10&amp;share=hexin&amp;isShowAppBar=false&amp;isShowStatusBar=false</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A28" s="2">
+    <row r="28" spans="1:6">
+      <c r="A28" s="5">
         <v>43738</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="E28" s="3" t="e">
+        <v>52</v>
+      </c>
+      <c r="E28" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_16.png</v>
+      </c>
+      <c r="F28" s="2" t="e">
         <f>VLOOKUP(B28,[1]Sheet1!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A29" s="2">
+    <row r="29" spans="1:6">
+      <c r="A29" s="5">
         <v>43738</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="E29" s="3" t="e">
+        <v>55</v>
+      </c>
+      <c r="E29" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_17.png</v>
+      </c>
+      <c r="F29" s="2" t="e">
         <f>VLOOKUP(B29,[1]Sheet1!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A30" s="2">
+    <row r="30" spans="1:6">
+      <c r="A30" s="5">
         <v>43738</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="E30" s="3" t="e">
+        <v>57</v>
+      </c>
+      <c r="E30" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_12.png</v>
+      </c>
+      <c r="F30" s="2" t="e">
         <f>VLOOKUP(B30,[1]Sheet1!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A31" s="2">
+    <row r="31" spans="1:6">
+      <c r="A31" s="5">
         <v>43738</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="E31" s="3" t="e">
+        <v>60</v>
+      </c>
+      <c r="E31" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_18.png</v>
+      </c>
+      <c r="F31" s="2" t="e">
         <f>VLOOKUP(B31,[1]Sheet1!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A32" s="2">
+    <row r="32" spans="1:6">
+      <c r="A32" s="5">
         <v>43830</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="E32" s="3" t="str">
+        <v>8</v>
+      </c>
+      <c r="E32" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_1.png</v>
+      </c>
+      <c r="F32" s="2" t="str">
         <f>VLOOKUP(B32,[1]Sheet1!$A:$B,2,0)</f>
         <v>https://kuaicha.10jqka.com.cn/yuqingwebapp/yuqingapp/?client_userid=A1XHy&amp;share_hxapp=gsc&amp;share_action=&amp;back_source=wxhy#/companyDetail/chart?id=T004308394&amp;type=gqdc&amp;company_count=13&amp;holder_count=3&amp;scFrom=f10&amp;share=hexin&amp;isShowAppBar=false&amp;isShowStatusBar=false</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A33" s="2">
+    <row r="33" spans="1:6">
+      <c r="A33" s="5">
         <v>43830</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="E33" s="3" t="str">
+      <c r="E33" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_2.png</v>
+      </c>
+      <c r="F33" s="2" t="str">
         <f>VLOOKUP(B33,[1]Sheet1!$A:$B,2,0)</f>
         <v>https://kuaicha.10jqka.com.cn/yuqingwebapp/yuqingapp/?client_userid=A1XHy&amp;share_hxapp=gsc&amp;share_action=&amp;back_source=wxhy#/personDetail/personMap?id=T120896300&amp;company_size=undefined&amp;person_size=undefined&amp;scFrom=f10&amp;share=hexin&amp;isShowAppBar=false&amp;isShowStatusBar=false</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A34" s="2">
+    <row r="34" spans="1:6">
+      <c r="A34" s="5">
         <v>43830</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E34" s="3" t="str">
+        <v>14</v>
+      </c>
+      <c r="E34" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_3.png</v>
+      </c>
+      <c r="F34" s="2" t="str">
         <f>VLOOKUP(B34,[1]Sheet1!$A:$B,2,0)</f>
         <v>https://kuaicha.10jqka.com.cn/yuqingwebapp/yuqingapp/?client_userid=A1XHy&amp;share_hxapp=gsc&amp;share_action=&amp;back_source=wxhy#/personDetail/personMap?id=H000447004&amp;company_size=1&amp;person_size=0&amp;scFrom=f10&amp;share=hexin&amp;isShowAppBar=false&amp;isShowStatusBar=false</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A35" s="2">
+    <row r="35" spans="1:6">
+      <c r="A35" s="5">
         <v>43830</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="E35" s="3" t="str">
+        <v>17</v>
+      </c>
+      <c r="E35" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_4.png</v>
+      </c>
+      <c r="F35" s="2" t="str">
         <f>VLOOKUP(B35,[1]Sheet1!$A:$B,2,0)</f>
         <v>https://kuaicha.10jqka.com.cn/yuqingwebapp/yuqingapp/?client_userid=A1XHy&amp;share_hxapp=gsc&amp;share_action=&amp;back_source=wxhy#/personDetail/personMap?id=T120897500&amp;company_size=11&amp;person_size=0&amp;scFrom=f10&amp;share=hexin&amp;isShowAppBar=false&amp;isShowStatusBar=false</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A36" s="2">
+    <row r="36" spans="1:6">
+      <c r="A36" s="5">
         <v>43830</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="E36" s="3" t="e">
+        <v>60</v>
+      </c>
+      <c r="E36" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_18.png</v>
+      </c>
+      <c r="F36" s="2" t="e">
         <f>VLOOKUP(B36,[1]Sheet1!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A37" s="2">
+    <row r="37" spans="1:6">
+      <c r="A37" s="5">
         <v>43830</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E37" s="3" t="e">
+        <v>64</v>
+      </c>
+      <c r="E37" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_19.png</v>
+      </c>
+      <c r="F37" s="2" t="e">
         <f>VLOOKUP(B37,[1]Sheet1!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A38" s="2">
+    <row r="38" spans="1:6">
+      <c r="A38" s="5">
         <v>43830</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="E38" s="3" t="e">
+        <v>67</v>
+      </c>
+      <c r="E38" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_20.png</v>
+      </c>
+      <c r="F38" s="2" t="e">
         <f>VLOOKUP(B38,[1]Sheet1!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A39" s="2">
+    <row r="39" spans="1:6">
+      <c r="A39" s="5">
         <v>43830</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="E39" s="3" t="e">
+        <v>28</v>
+      </c>
+      <c r="E39" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_21.png</v>
+      </c>
+      <c r="F39" s="2" t="e">
         <f>VLOOKUP(B39,[1]Sheet1!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A40" s="2">
+    <row r="40" spans="1:6">
+      <c r="A40" s="5">
         <v>43830</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D40" s="4">
-        <v>2.2000000000000001E-3</v>
-      </c>
-      <c r="E40" s="3" t="e">
+        <v>71</v>
+      </c>
+      <c r="D40" s="6">
+        <v>0.0022</v>
+      </c>
+      <c r="E40" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_22.png</v>
+      </c>
+      <c r="F40" s="2" t="e">
         <f>VLOOKUP(B40,[1]Sheet1!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A41" s="2">
+    <row r="41" spans="1:6">
+      <c r="A41" s="5">
         <v>43830</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E41" s="3" t="e">
+        <v>73</v>
+      </c>
+      <c r="E41" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_23.png</v>
+      </c>
+      <c r="F41" s="2" t="e">
         <f>VLOOKUP(B41,[1]Sheet1!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A42" s="2">
+    <row r="42" spans="1:6">
+      <c r="A42" s="5">
         <v>43921</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="E42" s="3" t="str">
+        <v>8</v>
+      </c>
+      <c r="E42" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_1.png</v>
+      </c>
+      <c r="F42" s="2" t="str">
         <f>VLOOKUP(B42,[1]Sheet1!$A:$B,2,0)</f>
         <v>https://kuaicha.10jqka.com.cn/yuqingwebapp/yuqingapp/?client_userid=A1XHy&amp;share_hxapp=gsc&amp;share_action=&amp;back_source=wxhy#/companyDetail/chart?id=T004308394&amp;type=gqdc&amp;company_count=13&amp;holder_count=3&amp;scFrom=f10&amp;share=hexin&amp;isShowAppBar=false&amp;isShowStatusBar=false</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A43" s="2">
+    <row r="43" spans="1:6">
+      <c r="A43" s="5">
         <v>43921</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C43" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="E43" s="3" t="str">
+      <c r="E43" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_2.png</v>
+      </c>
+      <c r="F43" s="2" t="str">
         <f>VLOOKUP(B43,[1]Sheet1!$A:$B,2,0)</f>
         <v>https://kuaicha.10jqka.com.cn/yuqingwebapp/yuqingapp/?client_userid=A1XHy&amp;share_hxapp=gsc&amp;share_action=&amp;back_source=wxhy#/personDetail/personMap?id=T120896300&amp;company_size=undefined&amp;person_size=undefined&amp;scFrom=f10&amp;share=hexin&amp;isShowAppBar=false&amp;isShowStatusBar=false</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A44" s="2">
+    <row r="44" spans="1:6">
+      <c r="A44" s="5">
         <v>43921</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E44" s="3" t="str">
+        <v>14</v>
+      </c>
+      <c r="E44" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_3.png</v>
+      </c>
+      <c r="F44" s="2" t="str">
         <f>VLOOKUP(B44,[1]Sheet1!$A:$B,2,0)</f>
         <v>https://kuaicha.10jqka.com.cn/yuqingwebapp/yuqingapp/?client_userid=A1XHy&amp;share_hxapp=gsc&amp;share_action=&amp;back_source=wxhy#/personDetail/personMap?id=H000447004&amp;company_size=1&amp;person_size=0&amp;scFrom=f10&amp;share=hexin&amp;isShowAppBar=false&amp;isShowStatusBar=false</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A45" s="2">
+    <row r="45" spans="1:6">
+      <c r="A45" s="5">
         <v>43921</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="E45" s="3" t="str">
+        <v>17</v>
+      </c>
+      <c r="E45" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_4.png</v>
+      </c>
+      <c r="F45" s="2" t="str">
         <f>VLOOKUP(B45,[1]Sheet1!$A:$B,2,0)</f>
         <v>https://kuaicha.10jqka.com.cn/yuqingwebapp/yuqingapp/?client_userid=A1XHy&amp;share_hxapp=gsc&amp;share_action=&amp;back_source=wxhy#/personDetail/personMap?id=T120897500&amp;company_size=11&amp;person_size=0&amp;scFrom=f10&amp;share=hexin&amp;isShowAppBar=false&amp;isShowStatusBar=false</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A46" s="2">
+    <row r="46" spans="1:6">
+      <c r="A46" s="5">
         <v>43921</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E46" s="3" t="e">
+        <v>64</v>
+      </c>
+      <c r="E46" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_24.png</v>
+      </c>
+      <c r="F46" s="2" t="e">
         <f>VLOOKUP(B46,[1]Sheet1!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A47" s="2">
+    <row r="47" spans="1:6">
+      <c r="A47" s="5">
         <v>43921</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="E47" s="3" t="e">
+        <v>34</v>
+      </c>
+      <c r="E47" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_25.png</v>
+      </c>
+      <c r="F47" s="2" t="e">
         <f>VLOOKUP(B47,[1]Sheet1!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A48" s="2">
+    <row r="48" spans="1:6">
+      <c r="A48" s="5">
         <v>43921</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="E48" s="3" t="e">
+        <v>80</v>
+      </c>
+      <c r="E48" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_26.png</v>
+      </c>
+      <c r="F48" s="2" t="e">
         <f>VLOOKUP(B48,[1]Sheet1!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A49" s="2">
+    <row r="49" spans="1:6">
+      <c r="A49" s="5">
         <v>43921</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="E49" s="3" t="e">
+        <v>83</v>
+      </c>
+      <c r="E49" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_27.png</v>
+      </c>
+      <c r="F49" s="2" t="e">
         <f>VLOOKUP(B49,[1]Sheet1!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A50" s="2">
+    <row r="50" spans="1:6">
+      <c r="A50" s="5">
         <v>43921</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="E50" s="3" t="e">
+        <v>86</v>
+      </c>
+      <c r="E50" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_28.png</v>
+      </c>
+      <c r="F50" s="2" t="e">
         <f>VLOOKUP(B50,[1]Sheet1!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A51" s="2">
+    <row r="51" spans="1:6">
+      <c r="A51" s="5">
         <v>43921</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="E51" s="3" t="e">
+        <v>89</v>
+      </c>
+      <c r="E51" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_29.png</v>
+      </c>
+      <c r="F51" s="2" t="e">
         <f>VLOOKUP(B51,[1]Sheet1!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A52" s="2">
+    <row r="52" spans="1:6">
+      <c r="A52" s="5">
         <v>44012</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="E52" s="3" t="str">
+        <v>8</v>
+      </c>
+      <c r="E52" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_1.png</v>
+      </c>
+      <c r="F52" s="2" t="str">
         <f>VLOOKUP(B52,[1]Sheet1!$A:$B,2,0)</f>
         <v>https://kuaicha.10jqka.com.cn/yuqingwebapp/yuqingapp/?client_userid=A1XHy&amp;share_hxapp=gsc&amp;share_action=&amp;back_source=wxhy#/companyDetail/chart?id=T004308394&amp;type=gqdc&amp;company_count=13&amp;holder_count=3&amp;scFrom=f10&amp;share=hexin&amp;isShowAppBar=false&amp;isShowStatusBar=false</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A53" s="2">
+    <row r="53" spans="1:6">
+      <c r="A53" s="5">
         <v>44012</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C53" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D53" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="E53" s="3" t="str">
+      <c r="E53" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_2.png</v>
+      </c>
+      <c r="F53" s="2" t="str">
         <f>VLOOKUP(B53,[1]Sheet1!$A:$B,2,0)</f>
         <v>https://kuaicha.10jqka.com.cn/yuqingwebapp/yuqingapp/?client_userid=A1XHy&amp;share_hxapp=gsc&amp;share_action=&amp;back_source=wxhy#/personDetail/personMap?id=T120896300&amp;company_size=undefined&amp;person_size=undefined&amp;scFrom=f10&amp;share=hexin&amp;isShowAppBar=false&amp;isShowStatusBar=false</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A54" s="2">
+    <row r="54" spans="1:6">
+      <c r="A54" s="5">
         <v>44012</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E54" s="3" t="str">
+        <v>14</v>
+      </c>
+      <c r="E54" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_3.png</v>
+      </c>
+      <c r="F54" s="2" t="str">
         <f>VLOOKUP(B54,[1]Sheet1!$A:$B,2,0)</f>
         <v>https://kuaicha.10jqka.com.cn/yuqingwebapp/yuqingapp/?client_userid=A1XHy&amp;share_hxapp=gsc&amp;share_action=&amp;back_source=wxhy#/personDetail/personMap?id=H000447004&amp;company_size=1&amp;person_size=0&amp;scFrom=f10&amp;share=hexin&amp;isShowAppBar=false&amp;isShowStatusBar=false</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A55" s="2">
+    <row r="55" spans="1:6">
+      <c r="A55" s="5">
         <v>44012</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="E55" s="3" t="str">
+        <v>17</v>
+      </c>
+      <c r="E55" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_4.png</v>
+      </c>
+      <c r="F55" s="2" t="str">
         <f>VLOOKUP(B55,[1]Sheet1!$A:$B,2,0)</f>
         <v>https://kuaicha.10jqka.com.cn/yuqingwebapp/yuqingapp/?client_userid=A1XHy&amp;share_hxapp=gsc&amp;share_action=&amp;back_source=wxhy#/personDetail/personMap?id=T120897500&amp;company_size=11&amp;person_size=0&amp;scFrom=f10&amp;share=hexin&amp;isShowAppBar=false&amp;isShowStatusBar=false</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A56" s="2">
+    <row r="56" spans="1:6">
+      <c r="A56" s="5">
         <v>44012</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="E56" s="3" t="str">
+        <v>57</v>
+      </c>
+      <c r="E56" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_30.png</v>
+      </c>
+      <c r="F56" s="2" t="str">
         <f>VLOOKUP(B56,[1]Sheet1!$A:$B,2,0)</f>
         <v>https://kuaicha.10jqka.com.cn/yuqingwebapp/yuqingapp/?client_userid=A1XHy&amp;share_hxapp=gsc&amp;share_action=&amp;back_source=wxhy#/personDetail/personMap?id=Q00000245297770&amp;company_size=1&amp;person_size=0&amp;scFrom=f10&amp;share=hexin&amp;isShowAppBar=false&amp;isShowStatusBar=false</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A57" s="2">
+    <row r="57" spans="1:6">
+      <c r="A57" s="5">
         <v>44012</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="E57" s="3" t="e">
+        <v>60</v>
+      </c>
+      <c r="E57" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_24.png</v>
+      </c>
+      <c r="F57" s="2" t="e">
         <f>VLOOKUP(B57,[1]Sheet1!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A58" s="2">
+    <row r="58" spans="1:6">
+      <c r="A58" s="5">
         <v>44012</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D58" s="4">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="E58" s="3" t="str">
+        <v>94</v>
+      </c>
+      <c r="D58" s="6">
+        <v>0.004</v>
+      </c>
+      <c r="E58" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_31.png</v>
+      </c>
+      <c r="F58" s="2" t="str">
         <f>VLOOKUP(B58,[1]Sheet1!$A:$B,2,0)</f>
         <v>https://kuaicha.10jqka.com.cn/yuqingwebapp/yuqingapp/?client_userid=A1XHy&amp;share_hxapp=gsc&amp;share_action=&amp;back_source=wxhy#/personDetail/personMap?id=Q00000245114537&amp;company_size=1&amp;person_size=0&amp;scFrom=f10&amp;share=hexin&amp;isShowAppBar=false&amp;isShowStatusBar=false</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A59" s="2">
+    <row r="59" spans="1:6">
+      <c r="A59" s="5">
         <v>44012</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="E59" s="3" t="e">
+        <v>97</v>
+      </c>
+      <c r="E59" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_32.png</v>
+      </c>
+      <c r="F59" s="2" t="e">
         <f>VLOOKUP(B59,[1]Sheet1!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A60" s="2">
+    <row r="60" spans="1:6">
+      <c r="A60" s="5">
         <v>44012</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="E60" s="3" t="e">
+        <v>46</v>
+      </c>
+      <c r="E60" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_33.png</v>
+      </c>
+      <c r="F60" s="2" t="e">
         <f>VLOOKUP(B60,[1]Sheet1!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A61" s="2">
+    <row r="61" spans="1:6">
+      <c r="A61" s="5">
         <v>44012</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="E61" s="3" t="e">
+        <v>80</v>
+      </c>
+      <c r="E61" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_34.png</v>
+      </c>
+      <c r="F61" s="2" t="e">
         <f>VLOOKUP(B61,[1]Sheet1!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A62" s="2">
+    <row r="62" spans="1:6">
+      <c r="A62" s="5">
         <v>44104</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="E62" s="3" t="str">
+        <v>103</v>
+      </c>
+      <c r="E62" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_1.png</v>
+      </c>
+      <c r="F62" s="2" t="str">
         <f>VLOOKUP(B62,[1]Sheet1!$A:$B,2,0)</f>
         <v>https://kuaicha.10jqka.com.cn/yuqingwebapp/yuqingapp/?client_userid=A1XHy&amp;share_hxapp=gsc&amp;share_action=&amp;back_source=wxhy#/companyDetail/chart?id=T004308394&amp;type=gqdc&amp;company_count=13&amp;holder_count=3&amp;scFrom=f10&amp;share=hexin&amp;isShowAppBar=false&amp;isShowStatusBar=false</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A63" s="2">
+    <row r="63" spans="1:6">
+      <c r="A63" s="5">
         <v>44104</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C63" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D63" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D63" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="E63" s="3" t="str">
+      <c r="E63" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_2.png</v>
+      </c>
+      <c r="F63" s="2" t="str">
         <f>VLOOKUP(B63,[1]Sheet1!$A:$B,2,0)</f>
         <v>https://kuaicha.10jqka.com.cn/yuqingwebapp/yuqingapp/?client_userid=A1XHy&amp;share_hxapp=gsc&amp;share_action=&amp;back_source=wxhy#/personDetail/personMap?id=T120896300&amp;company_size=undefined&amp;person_size=undefined&amp;scFrom=f10&amp;share=hexin&amp;isShowAppBar=false&amp;isShowStatusBar=false</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A64" s="2">
+    <row r="64" spans="1:6">
+      <c r="A64" s="5">
         <v>44104</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E64" s="3" t="str">
+        <v>14</v>
+      </c>
+      <c r="E64" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_3.png</v>
+      </c>
+      <c r="F64" s="2" t="str">
         <f>VLOOKUP(B64,[1]Sheet1!$A:$B,2,0)</f>
         <v>https://kuaicha.10jqka.com.cn/yuqingwebapp/yuqingapp/?client_userid=A1XHy&amp;share_hxapp=gsc&amp;share_action=&amp;back_source=wxhy#/personDetail/personMap?id=H000447004&amp;company_size=1&amp;person_size=0&amp;scFrom=f10&amp;share=hexin&amp;isShowAppBar=false&amp;isShowStatusBar=false</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A65" s="2">
+    <row r="65" spans="1:6">
+      <c r="A65" s="5">
         <v>44104</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="E65" s="3" t="e">
+        <v>106</v>
+      </c>
+      <c r="E65" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_35.png</v>
+      </c>
+      <c r="F65" s="2" t="e">
         <f>VLOOKUP(B65,[1]Sheet1!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A66" s="2">
+    <row r="66" spans="1:6">
+      <c r="A66" s="5">
         <v>44104</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="E66" s="3" t="str">
+        <v>17</v>
+      </c>
+      <c r="E66" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_4.png</v>
+      </c>
+      <c r="F66" s="2" t="str">
         <f>VLOOKUP(B66,[1]Sheet1!$A:$B,2,0)</f>
         <v>https://kuaicha.10jqka.com.cn/yuqingwebapp/yuqingapp/?client_userid=A1XHy&amp;share_hxapp=gsc&amp;share_action=&amp;back_source=wxhy#/personDetail/personMap?id=T120897500&amp;company_size=11&amp;person_size=0&amp;scFrom=f10&amp;share=hexin&amp;isShowAppBar=false&amp;isShowStatusBar=false</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A67" s="2">
+    <row r="67" spans="1:6">
+      <c r="A67" s="5">
         <v>44104</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="E67" s="3" t="e">
+        <v>17</v>
+      </c>
+      <c r="E67" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_36.png</v>
+      </c>
+      <c r="F67" s="2" t="e">
         <f>VLOOKUP(B67,[1]Sheet1!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A68" s="2">
+    <row r="68" spans="1:6">
+      <c r="A68" s="5">
         <v>44104</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D68" s="4">
-        <v>4.3E-3</v>
-      </c>
-      <c r="E68" s="3" t="e">
+        <v>110</v>
+      </c>
+      <c r="D68" s="6">
+        <v>0.0043</v>
+      </c>
+      <c r="E68" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_37.png</v>
+      </c>
+      <c r="F68" s="2" t="e">
         <f>VLOOKUP(B68,[1]Sheet1!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A69" s="2">
+    <row r="69" spans="1:6">
+      <c r="A69" s="5">
         <v>44104</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D69" s="4">
-        <v>4.1999999999999997E-3</v>
-      </c>
-      <c r="E69" s="3" t="str">
+        <v>111</v>
+      </c>
+      <c r="D69" s="6">
+        <v>0.0042</v>
+      </c>
+      <c r="E69" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_30.png</v>
+      </c>
+      <c r="F69" s="2" t="str">
         <f>VLOOKUP(B69,[1]Sheet1!$A:$B,2,0)</f>
         <v>https://kuaicha.10jqka.com.cn/yuqingwebapp/yuqingapp/?client_userid=A1XHy&amp;share_hxapp=gsc&amp;share_action=&amp;back_source=wxhy#/personDetail/personMap?id=Q00000245297770&amp;company_size=1&amp;person_size=0&amp;scFrom=f10&amp;share=hexin&amp;isShowAppBar=false&amp;isShowStatusBar=false</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A70" s="2">
+    <row r="70" spans="1:6">
+      <c r="A70" s="5">
         <v>44104</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D70" s="4">
-        <v>4.1000000000000003E-3</v>
-      </c>
-      <c r="E70" s="3" t="e">
+        <v>113</v>
+      </c>
+      <c r="D70" s="6">
+        <v>0.0041</v>
+      </c>
+      <c r="E70" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_38.png</v>
+      </c>
+      <c r="F70" s="2" t="e">
         <f>VLOOKUP(B70,[1]Sheet1!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A71" s="2">
+    <row r="71" spans="1:6">
+      <c r="A71" s="5">
         <v>44104</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D71" s="4">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="E71" s="3" t="str">
+        <v>114</v>
+      </c>
+      <c r="D71" s="6">
+        <v>0.004</v>
+      </c>
+      <c r="E71" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_31.png</v>
+      </c>
+      <c r="F71" s="2" t="str">
         <f>VLOOKUP(B71,[1]Sheet1!$A:$B,2,0)</f>
         <v>https://kuaicha.10jqka.com.cn/yuqingwebapp/yuqingapp/?client_userid=A1XHy&amp;share_hxapp=gsc&amp;share_action=&amp;back_source=wxhy#/personDetail/personMap?id=Q00000245114537&amp;company_size=1&amp;person_size=0&amp;scFrom=f10&amp;share=hexin&amp;isShowAppBar=false&amp;isShowStatusBar=false</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A72" s="2">
+    <row r="72" spans="1:6">
+      <c r="A72" s="5">
         <v>44196</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="E72" s="3" t="str">
+        <v>103</v>
+      </c>
+      <c r="E72" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_1.png</v>
+      </c>
+      <c r="F72" s="2" t="str">
         <f>VLOOKUP(B72,[1]Sheet1!$A:$B,2,0)</f>
         <v>https://kuaicha.10jqka.com.cn/yuqingwebapp/yuqingapp/?client_userid=A1XHy&amp;share_hxapp=gsc&amp;share_action=&amp;back_source=wxhy#/companyDetail/chart?id=T004308394&amp;type=gqdc&amp;company_count=13&amp;holder_count=3&amp;scFrom=f10&amp;share=hexin&amp;isShowAppBar=false&amp;isShowStatusBar=false</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A73" s="2">
+    <row r="73" spans="1:6">
+      <c r="A73" s="5">
         <v>44196</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C73" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D73" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D73" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="E73" s="3" t="str">
+      <c r="E73" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_2.png</v>
+      </c>
+      <c r="F73" s="2" t="str">
         <f>VLOOKUP(B73,[1]Sheet1!$A:$B,2,0)</f>
         <v>https://kuaicha.10jqka.com.cn/yuqingwebapp/yuqingapp/?client_userid=A1XHy&amp;share_hxapp=gsc&amp;share_action=&amp;back_source=wxhy#/personDetail/personMap?id=T120896300&amp;company_size=undefined&amp;person_size=undefined&amp;scFrom=f10&amp;share=hexin&amp;isShowAppBar=false&amp;isShowStatusBar=false</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A74" s="2">
+    <row r="74" spans="1:6">
+      <c r="A74" s="5">
         <v>44196</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E74" s="3" t="str">
+        <v>14</v>
+      </c>
+      <c r="E74" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_3.png</v>
+      </c>
+      <c r="F74" s="2" t="str">
         <f>VLOOKUP(B74,[1]Sheet1!$A:$B,2,0)</f>
         <v>https://kuaicha.10jqka.com.cn/yuqingwebapp/yuqingapp/?client_userid=A1XHy&amp;share_hxapp=gsc&amp;share_action=&amp;back_source=wxhy#/personDetail/personMap?id=H000447004&amp;company_size=1&amp;person_size=0&amp;scFrom=f10&amp;share=hexin&amp;isShowAppBar=false&amp;isShowStatusBar=false</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A75" s="2">
+    <row r="75" spans="1:6">
+      <c r="A75" s="5">
         <v>44196</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="E75" s="3" t="str">
+        <v>17</v>
+      </c>
+      <c r="E75" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_4.png</v>
+      </c>
+      <c r="F75" s="2" t="str">
         <f>VLOOKUP(B75,[1]Sheet1!$A:$B,2,0)</f>
         <v>https://kuaicha.10jqka.com.cn/yuqingwebapp/yuqingapp/?client_userid=A1XHy&amp;share_hxapp=gsc&amp;share_action=&amp;back_source=wxhy#/personDetail/personMap?id=T120897500&amp;company_size=11&amp;person_size=0&amp;scFrom=f10&amp;share=hexin&amp;isShowAppBar=false&amp;isShowStatusBar=false</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A76" s="2">
+    <row r="76" spans="1:6">
+      <c r="A76" s="5">
         <v>44196</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D76" s="4">
-        <v>4.3E-3</v>
-      </c>
-      <c r="E76" s="3" t="e">
+        <v>113</v>
+      </c>
+      <c r="D76" s="6">
+        <v>0.0043</v>
+      </c>
+      <c r="E76" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_38.png</v>
+      </c>
+      <c r="F76" s="2" t="e">
         <f>VLOOKUP(B76,[1]Sheet1!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A77" s="2">
+    <row r="77" spans="1:6">
+      <c r="A77" s="5">
         <v>44196</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="E77" s="3" t="str">
+        <v>57</v>
+      </c>
+      <c r="E77" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_30.png</v>
+      </c>
+      <c r="F77" s="2" t="str">
         <f>VLOOKUP(B77,[1]Sheet1!$A:$B,2,0)</f>
         <v>https://kuaicha.10jqka.com.cn/yuqingwebapp/yuqingapp/?client_userid=A1XHy&amp;share_hxapp=gsc&amp;share_action=&amp;back_source=wxhy#/personDetail/personMap?id=Q00000245297770&amp;company_size=1&amp;person_size=0&amp;scFrom=f10&amp;share=hexin&amp;isShowAppBar=false&amp;isShowStatusBar=false</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A78" s="2">
+    <row r="78" spans="1:6">
+      <c r="A78" s="5">
         <v>44196</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D78" s="4">
-        <v>4.1000000000000003E-3</v>
-      </c>
-      <c r="E78" s="3" t="str">
+        <v>114</v>
+      </c>
+      <c r="D78" s="6">
+        <v>0.0041</v>
+      </c>
+      <c r="E78" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_31.png</v>
+      </c>
+      <c r="F78" s="2" t="str">
         <f>VLOOKUP(B78,[1]Sheet1!$A:$B,2,0)</f>
         <v>https://kuaicha.10jqka.com.cn/yuqingwebapp/yuqingapp/?client_userid=A1XHy&amp;share_hxapp=gsc&amp;share_action=&amp;back_source=wxhy#/personDetail/personMap?id=Q00000245114537&amp;company_size=1&amp;person_size=0&amp;scFrom=f10&amp;share=hexin&amp;isShowAppBar=false&amp;isShowStatusBar=false</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A79" s="2">
+    <row r="79" spans="1:6">
+      <c r="A79" s="5">
         <v>44196</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="E79" s="3" t="e">
+        <v>118</v>
+      </c>
+      <c r="E79" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_39.png</v>
+      </c>
+      <c r="F79" s="2" t="e">
         <f>VLOOKUP(B79,[1]Sheet1!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A80" s="2">
+    <row r="80" spans="1:6">
+      <c r="A80" s="5">
         <v>44196</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>89</v>
+        <v>120</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="E80" s="3" t="str">
+        <v>121</v>
+      </c>
+      <c r="E80" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_40.png</v>
+      </c>
+      <c r="F80" s="2" t="str">
         <f>VLOOKUP(B80,[1]Sheet1!$A:$B,2,0)</f>
         <v>https://kuaicha.10jqka.com.cn/yuqingwebapp/yuqingapp/?client_userid=A1XHy&amp;share_hxapp=gsc&amp;share_action=&amp;back_source=wxhy#/personDetail/personMap?id=Q00000253475776&amp;company_size=1&amp;person_size=0&amp;scFrom=f10&amp;share=hexin&amp;isShowAppBar=false&amp;isShowStatusBar=false</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A81" s="2">
+    <row r="81" spans="1:6">
+      <c r="A81" s="5">
         <v>44196</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D81" s="4">
-        <v>2.5999999999999999E-3</v>
-      </c>
-      <c r="E81" s="3" t="e">
+        <v>123</v>
+      </c>
+      <c r="D81" s="6">
+        <v>0.0026</v>
+      </c>
+      <c r="E81" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_41.png</v>
+      </c>
+      <c r="F81" s="2" t="e">
         <f>VLOOKUP(B81,[1]Sheet1!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A82" s="2">
+    <row r="82" spans="1:6">
+      <c r="A82" s="5">
         <v>44286</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="E82" s="3" t="str">
+        <v>103</v>
+      </c>
+      <c r="E82" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_1.png</v>
+      </c>
+      <c r="F82" s="2" t="str">
         <f>VLOOKUP(B82,[1]Sheet1!$A:$B,2,0)</f>
         <v>https://kuaicha.10jqka.com.cn/yuqingwebapp/yuqingapp/?client_userid=A1XHy&amp;share_hxapp=gsc&amp;share_action=&amp;back_source=wxhy#/companyDetail/chart?id=T004308394&amp;type=gqdc&amp;company_count=13&amp;holder_count=3&amp;scFrom=f10&amp;share=hexin&amp;isShowAppBar=false&amp;isShowStatusBar=false</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A83" s="2">
+    <row r="83" spans="1:6">
+      <c r="A83" s="5">
         <v>44286</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C83" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D83" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D83" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="E83" s="3" t="str">
+      <c r="E83" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_2.png</v>
+      </c>
+      <c r="F83" s="2" t="str">
         <f>VLOOKUP(B83,[1]Sheet1!$A:$B,2,0)</f>
         <v>https://kuaicha.10jqka.com.cn/yuqingwebapp/yuqingapp/?client_userid=A1XHy&amp;share_hxapp=gsc&amp;share_action=&amp;back_source=wxhy#/personDetail/personMap?id=T120896300&amp;company_size=undefined&amp;person_size=undefined&amp;scFrom=f10&amp;share=hexin&amp;isShowAppBar=false&amp;isShowStatusBar=false</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A84" s="2">
+    <row r="84" spans="1:6">
+      <c r="A84" s="5">
         <v>44286</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E84" s="3" t="str">
+        <v>14</v>
+      </c>
+      <c r="E84" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_3.png</v>
+      </c>
+      <c r="F84" s="2" t="str">
         <f>VLOOKUP(B84,[1]Sheet1!$A:$B,2,0)</f>
         <v>https://kuaicha.10jqka.com.cn/yuqingwebapp/yuqingapp/?client_userid=A1XHy&amp;share_hxapp=gsc&amp;share_action=&amp;back_source=wxhy#/personDetail/personMap?id=H000447004&amp;company_size=1&amp;person_size=0&amp;scFrom=f10&amp;share=hexin&amp;isShowAppBar=false&amp;isShowStatusBar=false</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A85" s="2">
+    <row r="85" spans="1:6">
+      <c r="A85" s="5">
         <v>44286</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>91</v>
+        <v>124</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="E85" s="3" t="e">
+        <v>126</v>
+      </c>
+      <c r="E85" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_42.png</v>
+      </c>
+      <c r="F85" s="2" t="e">
         <f>VLOOKUP(B85,[1]Sheet1!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A86" s="2">
+    <row r="86" spans="1:6">
+      <c r="A86" s="5">
         <v>44286</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>92</v>
+        <v>127</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="E86" s="3" t="e">
+        <v>129</v>
+      </c>
+      <c r="E86" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_43.png</v>
+      </c>
+      <c r="F86" s="2" t="e">
         <f>VLOOKUP(B86,[1]Sheet1!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A87" s="2">
+    <row r="87" spans="1:6">
+      <c r="A87" s="5">
         <v>44286</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="E87" s="3" t="str">
+        <v>17</v>
+      </c>
+      <c r="E87" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_4.png</v>
+      </c>
+      <c r="F87" s="2" t="str">
         <f>VLOOKUP(B87,[1]Sheet1!$A:$B,2,0)</f>
         <v>https://kuaicha.10jqka.com.cn/yuqingwebapp/yuqingapp/?client_userid=A1XHy&amp;share_hxapp=gsc&amp;share_action=&amp;back_source=wxhy#/personDetail/personMap?id=T120897500&amp;company_size=11&amp;person_size=0&amp;scFrom=f10&amp;share=hexin&amp;isShowAppBar=false&amp;isShowStatusBar=false</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A88" s="2">
+    <row r="88" spans="1:6">
+      <c r="A88" s="5">
         <v>44286</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="E88" s="3" t="str">
+        <v>60</v>
+      </c>
+      <c r="E88" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_30.png</v>
+      </c>
+      <c r="F88" s="2" t="str">
         <f>VLOOKUP(B88,[1]Sheet1!$A:$B,2,0)</f>
         <v>https://kuaicha.10jqka.com.cn/yuqingwebapp/yuqingapp/?client_userid=A1XHy&amp;share_hxapp=gsc&amp;share_action=&amp;back_source=wxhy#/personDetail/personMap?id=Q00000245297770&amp;company_size=1&amp;person_size=0&amp;scFrom=f10&amp;share=hexin&amp;isShowAppBar=false&amp;isShowStatusBar=false</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A89" s="2">
+    <row r="89" spans="1:6">
+      <c r="A89" s="5">
         <v>44286</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>96</v>
+        <v>131</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E89" s="3" t="str">
+        <v>64</v>
+      </c>
+      <c r="E89" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_31.png</v>
+      </c>
+      <c r="F89" s="2" t="str">
         <f>VLOOKUP(B89,[1]Sheet1!$A:$B,2,0)</f>
         <v>https://kuaicha.10jqka.com.cn/yuqingwebapp/yuqingapp/?client_userid=A1XHy&amp;share_hxapp=gsc&amp;share_action=&amp;back_source=wxhy#/personDetail/personMap?id=Q00000245114537&amp;company_size=1&amp;person_size=0&amp;scFrom=f10&amp;share=hexin&amp;isShowAppBar=false&amp;isShowStatusBar=false</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A90" s="2">
+    <row r="90" spans="1:6">
+      <c r="A90" s="5">
         <v>44286</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>97</v>
+        <v>132</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="E90" s="3" t="str">
+        <v>133</v>
+      </c>
+      <c r="E90" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_40.png</v>
+      </c>
+      <c r="F90" s="2" t="str">
         <f>VLOOKUP(B90,[1]Sheet1!$A:$B,2,0)</f>
         <v>https://kuaicha.10jqka.com.cn/yuqingwebapp/yuqingapp/?client_userid=A1XHy&amp;share_hxapp=gsc&amp;share_action=&amp;back_source=wxhy#/personDetail/personMap?id=Q00000253475776&amp;company_size=1&amp;person_size=0&amp;scFrom=f10&amp;share=hexin&amp;isShowAppBar=false&amp;isShowStatusBar=false</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A91" s="2">
+    <row r="91" spans="1:6">
+      <c r="A91" s="5">
         <v>44286</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>98</v>
+        <v>134</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="E91" s="3" t="e">
+        <v>34</v>
+      </c>
+      <c r="E91" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_39.png</v>
+      </c>
+      <c r="F91" s="2" t="e">
         <f>VLOOKUP(B91,[1]Sheet1!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A92" s="2">
+    <row r="92" spans="1:6">
+      <c r="A92" s="5">
         <v>44377</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="E92" s="3" t="str">
+        <v>103</v>
+      </c>
+      <c r="E92" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_1.png</v>
+      </c>
+      <c r="F92" s="2" t="str">
         <f>VLOOKUP(B92,[1]Sheet1!$A:$B,2,0)</f>
         <v>https://kuaicha.10jqka.com.cn/yuqingwebapp/yuqingapp/?client_userid=A1XHy&amp;share_hxapp=gsc&amp;share_action=&amp;back_source=wxhy#/companyDetail/chart?id=T004308394&amp;type=gqdc&amp;company_count=13&amp;holder_count=3&amp;scFrom=f10&amp;share=hexin&amp;isShowAppBar=false&amp;isShowStatusBar=false</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A93" s="2">
+    <row r="93" spans="1:6">
+      <c r="A93" s="5">
         <v>44377</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C93" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D93" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D93" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="E93" s="3" t="str">
+      <c r="E93" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_2.png</v>
+      </c>
+      <c r="F93" s="2" t="str">
         <f>VLOOKUP(B93,[1]Sheet1!$A:$B,2,0)</f>
         <v>https://kuaicha.10jqka.com.cn/yuqingwebapp/yuqingapp/?client_userid=A1XHy&amp;share_hxapp=gsc&amp;share_action=&amp;back_source=wxhy#/personDetail/personMap?id=T120896300&amp;company_size=undefined&amp;person_size=undefined&amp;scFrom=f10&amp;share=hexin&amp;isShowAppBar=false&amp;isShowStatusBar=false</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A94" s="2">
+    <row r="94" spans="1:6">
+      <c r="A94" s="5">
         <v>44377</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E94" s="3" t="str">
+        <v>14</v>
+      </c>
+      <c r="E94" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_3.png</v>
+      </c>
+      <c r="F94" s="2" t="str">
         <f>VLOOKUP(B94,[1]Sheet1!$A:$B,2,0)</f>
         <v>https://kuaicha.10jqka.com.cn/yuqingwebapp/yuqingapp/?client_userid=A1XHy&amp;share_hxapp=gsc&amp;share_action=&amp;back_source=wxhy#/personDetail/personMap?id=H000447004&amp;company_size=1&amp;person_size=0&amp;scFrom=f10&amp;share=hexin&amp;isShowAppBar=false&amp;isShowStatusBar=false</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A95" s="2">
+    <row r="95" spans="1:6">
+      <c r="A95" s="5">
         <v>44377</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>102</v>
+        <v>136</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="E95" s="3" t="e">
+        <v>137</v>
+      </c>
+      <c r="E95" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_44.png</v>
+      </c>
+      <c r="F95" s="2" t="e">
         <f>VLOOKUP(B95,[1]Sheet1!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A96" s="2">
+    <row r="96" spans="1:6">
+      <c r="A96" s="5">
         <v>44377</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="E96" s="3" t="str">
+        <v>17</v>
+      </c>
+      <c r="E96" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_4.png</v>
+      </c>
+      <c r="F96" s="2" t="str">
         <f>VLOOKUP(B96,[1]Sheet1!$A:$B,2,0)</f>
         <v>https://kuaicha.10jqka.com.cn/yuqingwebapp/yuqingapp/?client_userid=A1XHy&amp;share_hxapp=gsc&amp;share_action=&amp;back_source=wxhy#/personDetail/personMap?id=T120897500&amp;company_size=11&amp;person_size=0&amp;scFrom=f10&amp;share=hexin&amp;isShowAppBar=false&amp;isShowStatusBar=false</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A97" s="2">
+    <row r="97" spans="1:6">
+      <c r="A97" s="5">
         <v>44377</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="E97" s="3" t="str">
+        <v>60</v>
+      </c>
+      <c r="E97" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_30.png</v>
+      </c>
+      <c r="F97" s="2" t="str">
         <f>VLOOKUP(B97,[1]Sheet1!$A:$B,2,0)</f>
         <v>https://kuaicha.10jqka.com.cn/yuqingwebapp/yuqingapp/?client_userid=A1XHy&amp;share_hxapp=gsc&amp;share_action=&amp;back_source=wxhy#/personDetail/personMap?id=Q00000245297770&amp;company_size=1&amp;person_size=0&amp;scFrom=f10&amp;share=hexin&amp;isShowAppBar=false&amp;isShowStatusBar=false</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A98" s="2">
+    <row r="98" spans="1:6">
+      <c r="A98" s="5">
         <v>44377</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>103</v>
+        <v>138</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="E98" s="3" t="str">
+        <v>40</v>
+      </c>
+      <c r="E98" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_31.png</v>
+      </c>
+      <c r="F98" s="2" t="str">
         <f>VLOOKUP(B98,[1]Sheet1!$A:$B,2,0)</f>
         <v>https://kuaicha.10jqka.com.cn/yuqingwebapp/yuqingapp/?client_userid=A1XHy&amp;share_hxapp=gsc&amp;share_action=&amp;back_source=wxhy#/personDetail/personMap?id=Q00000245114537&amp;company_size=1&amp;person_size=0&amp;scFrom=f10&amp;share=hexin&amp;isShowAppBar=false&amp;isShowStatusBar=false</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A99" s="2">
+    <row r="99" spans="1:6">
+      <c r="A99" s="5">
         <v>44377</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>104</v>
+        <v>140</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="E99" s="3" t="e">
+        <v>23</v>
+      </c>
+      <c r="E99" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_45.png</v>
+      </c>
+      <c r="F99" s="2" t="e">
         <f>VLOOKUP(B99,[1]Sheet1!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A100" s="2">
+    <row r="100" spans="1:6">
+      <c r="A100" s="5">
         <v>44377</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>105</v>
+        <v>141</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="E100" s="3" t="str">
+        <v>133</v>
+      </c>
+      <c r="E100" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_40.png</v>
+      </c>
+      <c r="F100" s="2" t="str">
         <f>VLOOKUP(B100,[1]Sheet1!$A:$B,2,0)</f>
         <v>https://kuaicha.10jqka.com.cn/yuqingwebapp/yuqingapp/?client_userid=A1XHy&amp;share_hxapp=gsc&amp;share_action=&amp;back_source=wxhy#/personDetail/personMap?id=Q00000253475776&amp;company_size=1&amp;person_size=0&amp;scFrom=f10&amp;share=hexin&amp;isShowAppBar=false&amp;isShowStatusBar=false</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A101" s="2">
+    <row r="101" spans="1:6">
+      <c r="A101" s="5">
         <v>44377</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>101</v>
+        <v>142</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="E101" s="3" t="e">
+        <v>34</v>
+      </c>
+      <c r="E101" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_46.png</v>
+      </c>
+      <c r="F101" s="2" t="e">
         <f>VLOOKUP(B101,[1]Sheet1!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A102" s="2">
+    <row r="102" spans="1:6">
+      <c r="A102" s="5">
         <v>44469</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="E102" s="3" t="str">
+        <v>103</v>
+      </c>
+      <c r="E102" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_1.png</v>
+      </c>
+      <c r="F102" s="2" t="str">
         <f>VLOOKUP(B102,[1]Sheet1!$A:$B,2,0)</f>
         <v>https://kuaicha.10jqka.com.cn/yuqingwebapp/yuqingapp/?client_userid=A1XHy&amp;share_hxapp=gsc&amp;share_action=&amp;back_source=wxhy#/companyDetail/chart?id=T004308394&amp;type=gqdc&amp;company_count=13&amp;holder_count=3&amp;scFrom=f10&amp;share=hexin&amp;isShowAppBar=false&amp;isShowStatusBar=false</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A103" s="2">
+    <row r="103" spans="1:6">
+      <c r="A103" s="5">
         <v>44469</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C103" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D103" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D103" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="E103" s="3" t="str">
+      <c r="E103" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_2.png</v>
+      </c>
+      <c r="F103" s="2" t="str">
         <f>VLOOKUP(B103,[1]Sheet1!$A:$B,2,0)</f>
         <v>https://kuaicha.10jqka.com.cn/yuqingwebapp/yuqingapp/?client_userid=A1XHy&amp;share_hxapp=gsc&amp;share_action=&amp;back_source=wxhy#/personDetail/personMap?id=T120896300&amp;company_size=undefined&amp;person_size=undefined&amp;scFrom=f10&amp;share=hexin&amp;isShowAppBar=false&amp;isShowStatusBar=false</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A104" s="2">
+    <row r="104" spans="1:6">
+      <c r="A104" s="5">
         <v>44469</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="E104" s="3" t="str">
+        <v>145</v>
+      </c>
+      <c r="E104" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_3.png</v>
+      </c>
+      <c r="F104" s="2" t="str">
         <f>VLOOKUP(B104,[1]Sheet1!$A:$B,2,0)</f>
         <v>https://kuaicha.10jqka.com.cn/yuqingwebapp/yuqingapp/?client_userid=A1XHy&amp;share_hxapp=gsc&amp;share_action=&amp;back_source=wxhy#/personDetail/personMap?id=H000447004&amp;company_size=1&amp;person_size=0&amp;scFrom=f10&amp;share=hexin&amp;isShowAppBar=false&amp;isShowStatusBar=false</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A105" s="2">
+    <row r="105" spans="1:6">
+      <c r="A105" s="5">
         <v>44469</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="E105" s="3" t="str">
+        <v>17</v>
+      </c>
+      <c r="E105" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_4.png</v>
+      </c>
+      <c r="F105" s="2" t="str">
         <f>VLOOKUP(B105,[1]Sheet1!$A:$B,2,0)</f>
         <v>https://kuaicha.10jqka.com.cn/yuqingwebapp/yuqingapp/?client_userid=A1XHy&amp;share_hxapp=gsc&amp;share_action=&amp;back_source=wxhy#/personDetail/personMap?id=T120897500&amp;company_size=11&amp;person_size=0&amp;scFrom=f10&amp;share=hexin&amp;isShowAppBar=false&amp;isShowStatusBar=false</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A106" s="2">
+    <row r="106" spans="1:6">
+      <c r="A106" s="5">
         <v>44469</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>112</v>
+        <v>147</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="E106" s="3" t="e">
+        <v>148</v>
+      </c>
+      <c r="E106" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_47.png</v>
+      </c>
+      <c r="F106" s="2" t="e">
         <f>VLOOKUP(B106,[1]Sheet1!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A107" s="2">
+    <row r="107" spans="1:6">
+      <c r="A107" s="5">
         <v>44469</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="E107" s="3" t="str">
+        <v>60</v>
+      </c>
+      <c r="E107" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_30.png</v>
+      </c>
+      <c r="F107" s="2" t="str">
         <f>VLOOKUP(B107,[1]Sheet1!$A:$B,2,0)</f>
         <v>https://kuaicha.10jqka.com.cn/yuqingwebapp/yuqingapp/?client_userid=A1XHy&amp;share_hxapp=gsc&amp;share_action=&amp;back_source=wxhy#/personDetail/personMap?id=Q00000245297770&amp;company_size=1&amp;person_size=0&amp;scFrom=f10&amp;share=hexin&amp;isShowAppBar=false&amp;isShowStatusBar=false</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A108" s="2">
+    <row r="108" spans="1:6">
+      <c r="A108" s="5">
         <v>44469</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>108</v>
+        <v>149</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>113</v>
+        <v>150</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E108" s="3" t="e">
+        <v>64</v>
+      </c>
+      <c r="E108" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_48.png</v>
+      </c>
+      <c r="F108" s="2" t="e">
         <f>VLOOKUP(B108,[1]Sheet1!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A109" s="2">
+    <row r="109" spans="1:6">
+      <c r="A109" s="5">
         <v>44469</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>114</v>
+        <v>151</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="E109" s="3" t="str">
+        <v>40</v>
+      </c>
+      <c r="E109" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_31.png</v>
+      </c>
+      <c r="F109" s="2" t="str">
         <f>VLOOKUP(B109,[1]Sheet1!$A:$B,2,0)</f>
         <v>https://kuaicha.10jqka.com.cn/yuqingwebapp/yuqingapp/?client_userid=A1XHy&amp;share_hxapp=gsc&amp;share_action=&amp;back_source=wxhy#/personDetail/personMap?id=Q00000245114537&amp;company_size=1&amp;person_size=0&amp;scFrom=f10&amp;share=hexin&amp;isShowAppBar=false&amp;isShowStatusBar=false</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A110" s="2">
+    <row r="110" spans="1:6">
+      <c r="A110" s="5">
         <v>44469</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>115</v>
+        <v>153</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="E110" s="3" t="e">
+        <v>154</v>
+      </c>
+      <c r="E110" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_49.png</v>
+      </c>
+      <c r="F110" s="2" t="e">
         <f>VLOOKUP(B110,[1]Sheet1!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A111" s="2">
+    <row r="111" spans="1:6">
+      <c r="A111" s="5">
         <v>44469</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>110</v>
+        <v>155</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>116</v>
+        <v>156</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="E111" s="3" t="str">
+        <v>23</v>
+      </c>
+      <c r="E111" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_50.png</v>
+      </c>
+      <c r="F111" s="2" t="str">
         <f>VLOOKUP(B111,[1]Sheet1!$A:$B,2,0)</f>
         <v>https://kuaicha.10jqka.com.cn/yuqingwebapp/yuqingapp/?client_userid=A1XHy&amp;share_hxapp=gsc&amp;share_action=&amp;back_source=wxhy#/personDetail/personMap?id=Q00000329245157&amp;company_size=1&amp;person_size=0&amp;scFrom=f10&amp;share=hexin&amp;isShowAppBar=false&amp;isShowStatusBar=false</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A112" s="2">
+    <row r="112" spans="1:6">
+      <c r="A112" s="5">
         <v>44561</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="E112" s="3" t="str">
+        <v>103</v>
+      </c>
+      <c r="E112" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_1.png</v>
+      </c>
+      <c r="F112" s="2" t="str">
         <f>VLOOKUP(B112,[1]Sheet1!$A:$B,2,0)</f>
         <v>https://kuaicha.10jqka.com.cn/yuqingwebapp/yuqingapp/?client_userid=A1XHy&amp;share_hxapp=gsc&amp;share_action=&amp;back_source=wxhy#/companyDetail/chart?id=T004308394&amp;type=gqdc&amp;company_count=13&amp;holder_count=3&amp;scFrom=f10&amp;share=hexin&amp;isShowAppBar=false&amp;isShowStatusBar=false</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A113" s="2">
+    <row r="113" spans="1:6">
+      <c r="A113" s="5">
         <v>44561</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>117</v>
+        <v>157</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="E113" s="3" t="str">
+        <v>158</v>
+      </c>
+      <c r="E113" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_2.png</v>
+      </c>
+      <c r="F113" s="2" t="str">
         <f>VLOOKUP(B113,[1]Sheet1!$A:$B,2,0)</f>
         <v>https://kuaicha.10jqka.com.cn/yuqingwebapp/yuqingapp/?client_userid=A1XHy&amp;share_hxapp=gsc&amp;share_action=&amp;back_source=wxhy#/personDetail/personMap?id=T120896300&amp;company_size=undefined&amp;person_size=undefined&amp;scFrom=f10&amp;share=hexin&amp;isShowAppBar=false&amp;isShowStatusBar=false</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A114" s="2">
+    <row r="114" spans="1:6">
+      <c r="A114" s="5">
         <v>44561</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="E114" s="3" t="str">
+        <v>160</v>
+      </c>
+      <c r="E114" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_3.png</v>
+      </c>
+      <c r="F114" s="2" t="str">
         <f>VLOOKUP(B114,[1]Sheet1!$A:$B,2,0)</f>
         <v>https://kuaicha.10jqka.com.cn/yuqingwebapp/yuqingapp/?client_userid=A1XHy&amp;share_hxapp=gsc&amp;share_action=&amp;back_source=wxhy#/personDetail/personMap?id=H000447004&amp;company_size=1&amp;person_size=0&amp;scFrom=f10&amp;share=hexin&amp;isShowAppBar=false&amp;isShowStatusBar=false</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A115" s="2">
+    <row r="115" spans="1:6">
+      <c r="A115" s="5">
         <v>44561</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="E115" s="3" t="str">
+        <v>17</v>
+      </c>
+      <c r="E115" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_4.png</v>
+      </c>
+      <c r="F115" s="2" t="str">
         <f>VLOOKUP(B115,[1]Sheet1!$A:$B,2,0)</f>
         <v>https://kuaicha.10jqka.com.cn/yuqingwebapp/yuqingapp/?client_userid=A1XHy&amp;share_hxapp=gsc&amp;share_action=&amp;back_source=wxhy#/personDetail/personMap?id=T120897500&amp;company_size=11&amp;person_size=0&amp;scFrom=f10&amp;share=hexin&amp;isShowAppBar=false&amp;isShowStatusBar=false</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A116" s="2">
+    <row r="116" spans="1:6">
+      <c r="A116" s="5">
         <v>44561</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>112</v>
+        <v>147</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="E116" s="3" t="e">
+        <v>148</v>
+      </c>
+      <c r="E116" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_47.png</v>
+      </c>
+      <c r="F116" s="2" t="e">
         <f>VLOOKUP(B116,[1]Sheet1!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A117" s="2">
+    <row r="117" spans="1:6">
+      <c r="A117" s="5">
         <v>44561</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>119</v>
+        <v>161</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="E117" s="3" t="str">
+        <v>57</v>
+      </c>
+      <c r="E117" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_30.png</v>
+      </c>
+      <c r="F117" s="2" t="str">
         <f>VLOOKUP(B117,[1]Sheet1!$A:$B,2,0)</f>
         <v>https://kuaicha.10jqka.com.cn/yuqingwebapp/yuqingapp/?client_userid=A1XHy&amp;share_hxapp=gsc&amp;share_action=&amp;back_source=wxhy#/personDetail/personMap?id=Q00000245297770&amp;company_size=1&amp;person_size=0&amp;scFrom=f10&amp;share=hexin&amp;isShowAppBar=false&amp;isShowStatusBar=false</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A118" s="2">
+    <row r="118" spans="1:6">
+      <c r="A118" s="5">
         <v>44561</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>114</v>
+        <v>151</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="E118" s="3" t="str">
+        <v>40</v>
+      </c>
+      <c r="E118" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_31.png</v>
+      </c>
+      <c r="F118" s="2" t="str">
         <f>VLOOKUP(B118,[1]Sheet1!$A:$B,2,0)</f>
         <v>https://kuaicha.10jqka.com.cn/yuqingwebapp/yuqingapp/?client_userid=A1XHy&amp;share_hxapp=gsc&amp;share_action=&amp;back_source=wxhy#/personDetail/personMap?id=Q00000245114537&amp;company_size=1&amp;person_size=0&amp;scFrom=f10&amp;share=hexin&amp;isShowAppBar=false&amp;isShowStatusBar=false</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A119" s="2">
+    <row r="119" spans="1:6">
+      <c r="A119" s="5">
         <v>44561</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>108</v>
+        <v>149</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>120</v>
+        <v>162</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="E119" s="3" t="e">
+        <v>23</v>
+      </c>
+      <c r="E119" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_48.png</v>
+      </c>
+      <c r="F119" s="2" t="e">
         <f>VLOOKUP(B119,[1]Sheet1!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A120" s="2">
+    <row r="120" spans="1:6">
+      <c r="A120" s="5">
         <v>44561</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>110</v>
+        <v>155</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>121</v>
+        <v>163</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="E120" s="3" t="str">
+        <v>164</v>
+      </c>
+      <c r="E120" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_50.png</v>
+      </c>
+      <c r="F120" s="2" t="str">
         <f>VLOOKUP(B120,[1]Sheet1!$A:$B,2,0)</f>
         <v>https://kuaicha.10jqka.com.cn/yuqingwebapp/yuqingapp/?client_userid=A1XHy&amp;share_hxapp=gsc&amp;share_action=&amp;back_source=wxhy#/personDetail/personMap?id=Q00000329245157&amp;company_size=1&amp;person_size=0&amp;scFrom=f10&amp;share=hexin&amp;isShowAppBar=false&amp;isShowStatusBar=false</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A121" s="2">
+    <row r="121" spans="1:6">
+      <c r="A121" s="5">
         <v>44561</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>122</v>
+        <v>165</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>123</v>
+        <v>166</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="E121" s="3" t="e">
+        <v>28</v>
+      </c>
+      <c r="E121" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_51.png</v>
+      </c>
+      <c r="F121" s="2" t="e">
         <f>VLOOKUP(B121,[1]Sheet1!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A122" s="2">
+    <row r="122" spans="1:6">
+      <c r="A122" s="5">
         <v>44651</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="E122" s="3" t="str">
+        <v>103</v>
+      </c>
+      <c r="E122" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_1.png</v>
+      </c>
+      <c r="F122" s="2" t="str">
         <f>VLOOKUP(B122,[1]Sheet1!$A:$B,2,0)</f>
         <v>https://kuaicha.10jqka.com.cn/yuqingwebapp/yuqingapp/?client_userid=A1XHy&amp;share_hxapp=gsc&amp;share_action=&amp;back_source=wxhy#/companyDetail/chart?id=T004308394&amp;type=gqdc&amp;company_count=13&amp;holder_count=3&amp;scFrom=f10&amp;share=hexin&amp;isShowAppBar=false&amp;isShowStatusBar=false</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A123" s="2">
+    <row r="123" spans="1:6">
+      <c r="A123" s="5">
         <v>44651</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>124</v>
+        <v>167</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="E123" s="3" t="str">
+        <v>168</v>
+      </c>
+      <c r="E123" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_2.png</v>
+      </c>
+      <c r="F123" s="2" t="str">
         <f>VLOOKUP(B123,[1]Sheet1!$A:$B,2,0)</f>
         <v>https://kuaicha.10jqka.com.cn/yuqingwebapp/yuqingapp/?client_userid=A1XHy&amp;share_hxapp=gsc&amp;share_action=&amp;back_source=wxhy#/personDetail/personMap?id=T120896300&amp;company_size=undefined&amp;person_size=undefined&amp;scFrom=f10&amp;share=hexin&amp;isShowAppBar=false&amp;isShowStatusBar=false</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A124" s="2">
+    <row r="124" spans="1:6">
+      <c r="A124" s="5">
         <v>44651</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>125</v>
+        <v>169</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="E124" s="3" t="str">
+        <v>170</v>
+      </c>
+      <c r="E124" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_3.png</v>
+      </c>
+      <c r="F124" s="2" t="str">
         <f>VLOOKUP(B124,[1]Sheet1!$A:$B,2,0)</f>
         <v>https://kuaicha.10jqka.com.cn/yuqingwebapp/yuqingapp/?client_userid=A1XHy&amp;share_hxapp=gsc&amp;share_action=&amp;back_source=wxhy#/personDetail/personMap?id=H000447004&amp;company_size=1&amp;person_size=0&amp;scFrom=f10&amp;share=hexin&amp;isShowAppBar=false&amp;isShowStatusBar=false</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A125" s="2">
+    <row r="125" spans="1:6">
+      <c r="A125" s="5">
         <v>44651</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>126</v>
+        <v>171</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>127</v>
+        <v>172</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="E125" s="3" t="e">
+        <v>173</v>
+      </c>
+      <c r="E125" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_52.png</v>
+      </c>
+      <c r="F125" s="2" t="e">
         <f>VLOOKUP(B125,[1]Sheet1!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A126" s="2">
+    <row r="126" spans="1:6">
+      <c r="A126" s="5">
         <v>44651</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="E126" s="3" t="str">
+        <v>17</v>
+      </c>
+      <c r="E126" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_4.png</v>
+      </c>
+      <c r="F126" s="2" t="str">
         <f>VLOOKUP(B126,[1]Sheet1!$A:$B,2,0)</f>
         <v>https://kuaicha.10jqka.com.cn/yuqingwebapp/yuqingapp/?client_userid=A1XHy&amp;share_hxapp=gsc&amp;share_action=&amp;back_source=wxhy#/personDetail/personMap?id=T120897500&amp;company_size=11&amp;person_size=0&amp;scFrom=f10&amp;share=hexin&amp;isShowAppBar=false&amp;isShowStatusBar=false</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A127" s="2">
+    <row r="127" spans="1:6">
+      <c r="A127" s="5">
         <v>44651</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="E127" s="3" t="str">
+        <v>60</v>
+      </c>
+      <c r="E127" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_30.png</v>
+      </c>
+      <c r="F127" s="2" t="str">
         <f>VLOOKUP(B127,[1]Sheet1!$A:$B,2,0)</f>
         <v>https://kuaicha.10jqka.com.cn/yuqingwebapp/yuqingapp/?client_userid=A1XHy&amp;share_hxapp=gsc&amp;share_action=&amp;back_source=wxhy#/personDetail/personMap?id=Q00000245297770&amp;company_size=1&amp;person_size=0&amp;scFrom=f10&amp;share=hexin&amp;isShowAppBar=false&amp;isShowStatusBar=false</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A128" s="2">
+    <row r="128" spans="1:6">
+      <c r="A128" s="5">
         <v>44651</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>128</v>
+        <v>174</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="E128" s="3" t="str">
+        <v>175</v>
+      </c>
+      <c r="E128" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_31.png</v>
+      </c>
+      <c r="F128" s="2" t="str">
         <f>VLOOKUP(B128,[1]Sheet1!$A:$B,2,0)</f>
         <v>https://kuaicha.10jqka.com.cn/yuqingwebapp/yuqingapp/?client_userid=A1XHy&amp;share_hxapp=gsc&amp;share_action=&amp;back_source=wxhy#/personDetail/personMap?id=Q00000245114537&amp;company_size=1&amp;person_size=0&amp;scFrom=f10&amp;share=hexin&amp;isShowAppBar=false&amp;isShowStatusBar=false</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A129" s="2">
+    <row r="129" spans="1:6">
+      <c r="A129" s="5">
         <v>44651</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>129</v>
+        <v>176</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>130</v>
+        <v>177</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="E129" s="3" t="e">
+        <v>40</v>
+      </c>
+      <c r="E129" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_53.png</v>
+      </c>
+      <c r="F129" s="2" t="e">
         <f>VLOOKUP(B129,[1]Sheet1!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A130" s="2">
+    <row r="130" spans="1:6">
+      <c r="A130" s="5">
         <v>44651</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>110</v>
+        <v>155</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>131</v>
+        <v>178</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="E130" s="3" t="str">
+        <v>23</v>
+      </c>
+      <c r="E130" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_50.png</v>
+      </c>
+      <c r="F130" s="2" t="str">
         <f>VLOOKUP(B130,[1]Sheet1!$A:$B,2,0)</f>
         <v>https://kuaicha.10jqka.com.cn/yuqingwebapp/yuqingapp/?client_userid=A1XHy&amp;share_hxapp=gsc&amp;share_action=&amp;back_source=wxhy#/personDetail/personMap?id=Q00000329245157&amp;company_size=1&amp;person_size=0&amp;scFrom=f10&amp;share=hexin&amp;isShowAppBar=false&amp;isShowStatusBar=false</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A131" s="2">
+    <row r="131" spans="1:6">
+      <c r="A131" s="5">
         <v>44651</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>108</v>
+        <v>149</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>132</v>
+        <v>179</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="E131" s="3" t="e">
+        <v>23</v>
+      </c>
+      <c r="E131" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_48.png</v>
+      </c>
+      <c r="F131" s="2" t="e">
         <f>VLOOKUP(B131,[1]Sheet1!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A132" s="2">
+    <row r="132" spans="1:6">
+      <c r="A132" s="5">
         <v>44742</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="E132" s="3" t="str">
+        <v>180</v>
+      </c>
+      <c r="E132" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_1.png</v>
+      </c>
+      <c r="F132" s="2" t="str">
         <f>VLOOKUP(B132,[1]Sheet1!$A:$B,2,0)</f>
         <v>https://kuaicha.10jqka.com.cn/yuqingwebapp/yuqingapp/?client_userid=A1XHy&amp;share_hxapp=gsc&amp;share_action=&amp;back_source=wxhy#/companyDetail/chart?id=T004308394&amp;type=gqdc&amp;company_count=13&amp;holder_count=3&amp;scFrom=f10&amp;share=hexin&amp;isShowAppBar=false&amp;isShowStatusBar=false</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A133" s="2">
+    <row r="133" spans="1:6">
+      <c r="A133" s="5">
         <v>44742</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>124</v>
+        <v>167</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="E133" s="3" t="str">
+        <v>158</v>
+      </c>
+      <c r="E133" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_2.png</v>
+      </c>
+      <c r="F133" s="2" t="str">
         <f>VLOOKUP(B133,[1]Sheet1!$A:$B,2,0)</f>
         <v>https://kuaicha.10jqka.com.cn/yuqingwebapp/yuqingapp/?client_userid=A1XHy&amp;share_hxapp=gsc&amp;share_action=&amp;back_source=wxhy#/personDetail/personMap?id=T120896300&amp;company_size=undefined&amp;person_size=undefined&amp;scFrom=f10&amp;share=hexin&amp;isShowAppBar=false&amp;isShowStatusBar=false</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A134" s="2">
+    <row r="134" spans="1:6">
+      <c r="A134" s="5">
         <v>44742</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>125</v>
+        <v>169</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="E134" s="3" t="str">
+        <v>181</v>
+      </c>
+      <c r="E134" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_3.png</v>
+      </c>
+      <c r="F134" s="2" t="str">
         <f>VLOOKUP(B134,[1]Sheet1!$A:$B,2,0)</f>
         <v>https://kuaicha.10jqka.com.cn/yuqingwebapp/yuqingapp/?client_userid=A1XHy&amp;share_hxapp=gsc&amp;share_action=&amp;back_source=wxhy#/personDetail/personMap?id=H000447004&amp;company_size=1&amp;person_size=0&amp;scFrom=f10&amp;share=hexin&amp;isShowAppBar=false&amp;isShowStatusBar=false</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A135" s="2">
+    <row r="135" spans="1:6">
+      <c r="A135" s="5">
         <v>44742</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="E135" s="3" t="str">
+        <v>17</v>
+      </c>
+      <c r="E135" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_4.png</v>
+      </c>
+      <c r="F135" s="2" t="str">
         <f>VLOOKUP(B135,[1]Sheet1!$A:$B,2,0)</f>
         <v>https://kuaicha.10jqka.com.cn/yuqingwebapp/yuqingapp/?client_userid=A1XHy&amp;share_hxapp=gsc&amp;share_action=&amp;back_source=wxhy#/personDetail/personMap?id=T120897500&amp;company_size=11&amp;person_size=0&amp;scFrom=f10&amp;share=hexin&amp;isShowAppBar=false&amp;isShowStatusBar=false</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A136" s="2">
+    <row r="136" spans="1:6">
+      <c r="A136" s="5">
         <v>44742</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>134</v>
+        <v>183</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="E136" s="3" t="str">
+        <v>184</v>
+      </c>
+      <c r="E136" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_54.png</v>
+      </c>
+      <c r="F136" s="2" t="str">
         <f>VLOOKUP(B136,[1]Sheet1!$A:$B,2,0)</f>
         <v>https://kuaicha.10jqka.com.cn/yuqingwebapp/yuqingapp/?client_userid=A1XHy&amp;share_hxapp=gsc&amp;share_action=&amp;back_source=wxhy#/personDetail/personMap?id=Q00000408202130&amp;company_size=1&amp;person_size=0&amp;scFrom=f10&amp;share=hexin&amp;isShowAppBar=false&amp;isShowStatusBar=false</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A137" s="2">
+    <row r="137" spans="1:6">
+      <c r="A137" s="5">
         <v>44742</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="E137" s="3" t="str">
+        <v>60</v>
+      </c>
+      <c r="E137" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_30.png</v>
+      </c>
+      <c r="F137" s="2" t="str">
         <f>VLOOKUP(B137,[1]Sheet1!$A:$B,2,0)</f>
         <v>https://kuaicha.10jqka.com.cn/yuqingwebapp/yuqingapp/?client_userid=A1XHy&amp;share_hxapp=gsc&amp;share_action=&amp;back_source=wxhy#/personDetail/personMap?id=Q00000245297770&amp;company_size=1&amp;person_size=0&amp;scFrom=f10&amp;share=hexin&amp;isShowAppBar=false&amp;isShowStatusBar=false</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A138" s="2">
+    <row r="138" spans="1:6">
+      <c r="A138" s="5">
         <v>44742</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>135</v>
+        <v>185</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="E138" s="3" t="str">
+        <v>175</v>
+      </c>
+      <c r="E138" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_31.png</v>
+      </c>
+      <c r="F138" s="2" t="str">
         <f>VLOOKUP(B138,[1]Sheet1!$A:$B,2,0)</f>
         <v>https://kuaicha.10jqka.com.cn/yuqingwebapp/yuqingapp/?client_userid=A1XHy&amp;share_hxapp=gsc&amp;share_action=&amp;back_source=wxhy#/personDetail/personMap?id=Q00000245114537&amp;company_size=1&amp;person_size=0&amp;scFrom=f10&amp;share=hexin&amp;isShowAppBar=false&amp;isShowStatusBar=false</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A139" s="2">
+    <row r="139" spans="1:6">
+      <c r="A139" s="5">
         <v>44742</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>110</v>
+        <v>155</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>136</v>
+        <v>186</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="E139" s="3" t="str">
+        <v>23</v>
+      </c>
+      <c r="E139" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_50.png</v>
+      </c>
+      <c r="F139" s="2" t="str">
         <f>VLOOKUP(B139,[1]Sheet1!$A:$B,2,0)</f>
         <v>https://kuaicha.10jqka.com.cn/yuqingwebapp/yuqingapp/?client_userid=A1XHy&amp;share_hxapp=gsc&amp;share_action=&amp;back_source=wxhy#/personDetail/personMap?id=Q00000329245157&amp;company_size=1&amp;person_size=0&amp;scFrom=f10&amp;share=hexin&amp;isShowAppBar=false&amp;isShowStatusBar=false</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A140" s="2">
+    <row r="140" spans="1:6">
+      <c r="A140" s="5">
         <v>44742</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="E140" s="3" t="str">
+        <v>67</v>
+      </c>
+      <c r="E140" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_40.png</v>
+      </c>
+      <c r="F140" s="2" t="str">
         <f>VLOOKUP(B140,[1]Sheet1!$A:$B,2,0)</f>
         <v>https://kuaicha.10jqka.com.cn/yuqingwebapp/yuqingapp/?client_userid=A1XHy&amp;share_hxapp=gsc&amp;share_action=&amp;back_source=wxhy#/personDetail/personMap?id=Q00000253475776&amp;company_size=1&amp;person_size=0&amp;scFrom=f10&amp;share=hexin&amp;isShowAppBar=false&amp;isShowStatusBar=false</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A141" s="2">
+    <row r="141" spans="1:6">
+      <c r="A141" s="5">
         <v>44742</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>137</v>
+        <v>187</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>138</v>
+        <v>188</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="E141" s="3" t="str">
+        <v>164</v>
+      </c>
+      <c r="E141" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_55.png</v>
+      </c>
+      <c r="F141" s="2" t="str">
         <f>VLOOKUP(B141,[1]Sheet1!$A:$B,2,0)</f>
         <v>https://kuaicha.10jqka.com.cn/yuqingwebapp/yuqingapp/?client_userid=A1XHy&amp;share_hxapp=gsc&amp;share_action=&amp;back_source=wxhy#/personDetail/personMap?id=Q00000408408895&amp;company_size=1&amp;person_size=0&amp;scFrom=f10&amp;share=hexin&amp;isShowAppBar=false&amp;isShowStatusBar=false</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A142" s="2">
+    <row r="142" spans="1:6">
+      <c r="A142" s="5">
         <v>44834</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="E142" s="3" t="str">
+        <v>180</v>
+      </c>
+      <c r="E142" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_1.png</v>
+      </c>
+      <c r="F142" s="2" t="str">
         <f>VLOOKUP(B142,[1]Sheet1!$A:$B,2,0)</f>
         <v>https://kuaicha.10jqka.com.cn/yuqingwebapp/yuqingapp/?client_userid=A1XHy&amp;share_hxapp=gsc&amp;share_action=&amp;back_source=wxhy#/companyDetail/chart?id=T004308394&amp;type=gqdc&amp;company_count=13&amp;holder_count=3&amp;scFrom=f10&amp;share=hexin&amp;isShowAppBar=false&amp;isShowStatusBar=false</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A143" s="2">
+    <row r="143" spans="1:6">
+      <c r="A143" s="5">
         <v>44834</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>124</v>
+        <v>167</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="E143" s="3" t="str">
+        <v>158</v>
+      </c>
+      <c r="E143" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_2.png</v>
+      </c>
+      <c r="F143" s="2" t="str">
         <f>VLOOKUP(B143,[1]Sheet1!$A:$B,2,0)</f>
         <v>https://kuaicha.10jqka.com.cn/yuqingwebapp/yuqingapp/?client_userid=A1XHy&amp;share_hxapp=gsc&amp;share_action=&amp;back_source=wxhy#/personDetail/personMap?id=T120896300&amp;company_size=undefined&amp;person_size=undefined&amp;scFrom=f10&amp;share=hexin&amp;isShowAppBar=false&amp;isShowStatusBar=false</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A144" s="2">
+    <row r="144" spans="1:6">
+      <c r="A144" s="5">
         <v>44834</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>125</v>
+        <v>169</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="E144" s="3" t="str">
+        <v>181</v>
+      </c>
+      <c r="E144" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_3.png</v>
+      </c>
+      <c r="F144" s="2" t="str">
         <f>VLOOKUP(B144,[1]Sheet1!$A:$B,2,0)</f>
         <v>https://kuaicha.10jqka.com.cn/yuqingwebapp/yuqingapp/?client_userid=A1XHy&amp;share_hxapp=gsc&amp;share_action=&amp;back_source=wxhy#/personDetail/personMap?id=H000447004&amp;company_size=1&amp;person_size=0&amp;scFrom=f10&amp;share=hexin&amp;isShowAppBar=false&amp;isShowStatusBar=false</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A145" s="2">
+    <row r="145" spans="1:6">
+      <c r="A145" s="5">
         <v>44834</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>222</v>
+        <v>189</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>140</v>
+        <v>190</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="E145" s="3" t="str">
+        <v>191</v>
+      </c>
+      <c r="E145" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_56.png</v>
+      </c>
+      <c r="F145" s="2" t="str">
         <f>VLOOKUP(B145,[1]Sheet1!$A:$B,2,0)</f>
         <v>https://fund.10jqka.com.cn/public/ifundout/dist/detail.html?frm=ijijinsdk&amp;share_userid=A1XHy&amp;share_jjid=feefad1a5ff6b2ef&amp;share_hxapp=gsdk&amp;back_source=wxhy#/004685</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A146" s="2">
+    <row r="146" spans="1:6">
+      <c r="A146" s="5">
         <v>44834</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="E146" s="3" t="str">
+        <v>17</v>
+      </c>
+      <c r="E146" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_4.png</v>
+      </c>
+      <c r="F146" s="2" t="str">
         <f>VLOOKUP(B146,[1]Sheet1!$A:$B,2,0)</f>
         <v>https://kuaicha.10jqka.com.cn/yuqingwebapp/yuqingapp/?client_userid=A1XHy&amp;share_hxapp=gsc&amp;share_action=&amp;back_source=wxhy#/personDetail/personMap?id=T120897500&amp;company_size=11&amp;person_size=0&amp;scFrom=f10&amp;share=hexin&amp;isShowAppBar=false&amp;isShowStatusBar=false</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A147" s="2">
+    <row r="147" spans="1:6">
+      <c r="A147" s="5">
         <v>44834</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>141</v>
+        <v>192</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>142</v>
+        <v>193</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="E147" s="3" t="e">
+        <v>20</v>
+      </c>
+      <c r="E147" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_57.png</v>
+      </c>
+      <c r="F147" s="2" t="e">
         <f>VLOOKUP(B147,[1]Sheet1!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A148" s="2">
+    <row r="148" spans="1:6">
+      <c r="A148" s="5">
         <v>44834</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="E148" s="3" t="str">
+        <v>60</v>
+      </c>
+      <c r="E148" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_30.png</v>
+      </c>
+      <c r="F148" s="2" t="str">
         <f>VLOOKUP(B148,[1]Sheet1!$A:$B,2,0)</f>
         <v>https://kuaicha.10jqka.com.cn/yuqingwebapp/yuqingapp/?client_userid=A1XHy&amp;share_hxapp=gsc&amp;share_action=&amp;back_source=wxhy#/personDetail/personMap?id=Q00000245297770&amp;company_size=1&amp;person_size=0&amp;scFrom=f10&amp;share=hexin&amp;isShowAppBar=false&amp;isShowStatusBar=false</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A149" s="2">
+    <row r="149" spans="1:6">
+      <c r="A149" s="5">
         <v>44834</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>143</v>
+        <v>194</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="E149" s="3" t="str">
+        <v>175</v>
+      </c>
+      <c r="E149" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_54.png</v>
+      </c>
+      <c r="F149" s="2" t="str">
         <f>VLOOKUP(B149,[1]Sheet1!$A:$B,2,0)</f>
         <v>https://kuaicha.10jqka.com.cn/yuqingwebapp/yuqingapp/?client_userid=A1XHy&amp;share_hxapp=gsc&amp;share_action=&amp;back_source=wxhy#/personDetail/personMap?id=Q00000408202130&amp;company_size=1&amp;person_size=0&amp;scFrom=f10&amp;share=hexin&amp;isShowAppBar=false&amp;isShowStatusBar=false</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A150" s="2">
+    <row r="150" spans="1:6">
+      <c r="A150" s="5">
         <v>44834</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D150" s="4">
-        <v>3.8999999999999998E-3</v>
-      </c>
-      <c r="E150" s="3" t="str">
+        <v>195</v>
+      </c>
+      <c r="D150" s="6">
+        <v>0.0039</v>
+      </c>
+      <c r="E150" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_31.png</v>
+      </c>
+      <c r="F150" s="2" t="str">
         <f>VLOOKUP(B150,[1]Sheet1!$A:$B,2,0)</f>
         <v>https://kuaicha.10jqka.com.cn/yuqingwebapp/yuqingapp/?client_userid=A1XHy&amp;share_hxapp=gsc&amp;share_action=&amp;back_source=wxhy#/personDetail/personMap?id=Q00000245114537&amp;company_size=1&amp;person_size=0&amp;scFrom=f10&amp;share=hexin&amp;isShowAppBar=false&amp;isShowStatusBar=false</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A151" s="2">
+    <row r="151" spans="1:6">
+      <c r="A151" s="5">
         <v>44834</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>145</v>
+        <v>196</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="E151" s="3" t="str">
+        <v>197</v>
+      </c>
+      <c r="E151" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_40.png</v>
+      </c>
+      <c r="F151" s="2" t="str">
         <f>VLOOKUP(B151,[1]Sheet1!$A:$B,2,0)</f>
         <v>https://kuaicha.10jqka.com.cn/yuqingwebapp/yuqingapp/?client_userid=A1XHy&amp;share_hxapp=gsc&amp;share_action=&amp;back_source=wxhy#/personDetail/personMap?id=Q00000253475776&amp;company_size=1&amp;person_size=0&amp;scFrom=f10&amp;share=hexin&amp;isShowAppBar=false&amp;isShowStatusBar=false</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A152" s="2">
+    <row r="152" spans="1:6">
+      <c r="A152" s="5">
         <v>44926</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="E152" s="3" t="str">
+        <v>198</v>
+      </c>
+      <c r="E152" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_1.png</v>
+      </c>
+      <c r="F152" s="2" t="str">
         <f>VLOOKUP(B152,[1]Sheet1!$A:$B,2,0)</f>
         <v>https://kuaicha.10jqka.com.cn/yuqingwebapp/yuqingapp/?client_userid=A1XHy&amp;share_hxapp=gsc&amp;share_action=&amp;back_source=wxhy#/companyDetail/chart?id=T004308394&amp;type=gqdc&amp;company_count=13&amp;holder_count=3&amp;scFrom=f10&amp;share=hexin&amp;isShowAppBar=false&amp;isShowStatusBar=false</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A153" s="2">
+    <row r="153" spans="1:6">
+      <c r="A153" s="5">
         <v>44926</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>124</v>
+        <v>167</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="E153" s="3" t="str">
+        <v>199</v>
+      </c>
+      <c r="E153" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_2.png</v>
+      </c>
+      <c r="F153" s="2" t="str">
         <f>VLOOKUP(B153,[1]Sheet1!$A:$B,2,0)</f>
         <v>https://kuaicha.10jqka.com.cn/yuqingwebapp/yuqingapp/?client_userid=A1XHy&amp;share_hxapp=gsc&amp;share_action=&amp;back_source=wxhy#/personDetail/personMap?id=T120896300&amp;company_size=undefined&amp;person_size=undefined&amp;scFrom=f10&amp;share=hexin&amp;isShowAppBar=false&amp;isShowStatusBar=false</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A154" s="2">
+    <row r="154" spans="1:6">
+      <c r="A154" s="5">
         <v>44926</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>125</v>
+        <v>169</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="E154" s="3" t="str">
+        <v>181</v>
+      </c>
+      <c r="E154" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_3.png</v>
+      </c>
+      <c r="F154" s="2" t="str">
         <f>VLOOKUP(B154,[1]Sheet1!$A:$B,2,0)</f>
         <v>https://kuaicha.10jqka.com.cn/yuqingwebapp/yuqingapp/?client_userid=A1XHy&amp;share_hxapp=gsc&amp;share_action=&amp;back_source=wxhy#/personDetail/personMap?id=H000447004&amp;company_size=1&amp;person_size=0&amp;scFrom=f10&amp;share=hexin&amp;isShowAppBar=false&amp;isShowStatusBar=false</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A155" s="2">
+    <row r="155" spans="1:6">
+      <c r="A155" s="5">
         <v>44926</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>146</v>
+        <v>200</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>147</v>
+        <v>201</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="E155" s="3" t="str">
+        <v>202</v>
+      </c>
+      <c r="E155" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_58.png</v>
+      </c>
+      <c r="F155" s="2" t="str">
         <f>VLOOKUP(B155,[1]Sheet1!$A:$B,2,0)</f>
         <v>https://kuaicha.10jqka.com.cn/yuqingwebapp/yuqingapp/?client_userid=A1XHy&amp;share_hxapp=gsc&amp;share_action=&amp;back_source=wxhy#/personDetail/personMap?id=Q00000454722577&amp;company_size=1&amp;person_size=0&amp;scFrom=f10&amp;share=hexin&amp;isShowAppBar=false&amp;isShowStatusBar=false</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A156" s="2">
+    <row r="156" spans="1:6">
+      <c r="A156" s="5">
         <v>44926</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>139</v>
+        <v>189</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>148</v>
+        <v>203</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="E156" s="3" t="str">
+        <v>204</v>
+      </c>
+      <c r="E156" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_56.png</v>
+      </c>
+      <c r="F156" s="2" t="str">
         <f>VLOOKUP(B156,[1]Sheet1!$A:$B,2,0)</f>
         <v>https://fund.10jqka.com.cn/public/ifundout/dist/detail.html?frm=ijijinsdk&amp;share_userid=A1XHy&amp;share_jjid=feefad1a5ff6b2ef&amp;share_hxapp=gsdk&amp;back_source=wxhy#/004685</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A157" s="2">
+    <row r="157" spans="1:6">
+      <c r="A157" s="5">
         <v>44926</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>149</v>
+        <v>205</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="E157" s="3" t="str">
+        <v>206</v>
+      </c>
+      <c r="E157" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_4.png</v>
+      </c>
+      <c r="F157" s="2" t="str">
         <f>VLOOKUP(B157,[1]Sheet1!$A:$B,2,0)</f>
         <v>https://kuaicha.10jqka.com.cn/yuqingwebapp/yuqingapp/?client_userid=A1XHy&amp;share_hxapp=gsc&amp;share_action=&amp;back_source=wxhy#/personDetail/personMap?id=T120897500&amp;company_size=11&amp;person_size=0&amp;scFrom=f10&amp;share=hexin&amp;isShowAppBar=false&amp;isShowStatusBar=false</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A158" s="2">
+    <row r="158" spans="1:6">
+      <c r="A158" s="5">
         <v>44926</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="E158" s="3" t="str">
+        <v>60</v>
+      </c>
+      <c r="E158" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_30.png</v>
+      </c>
+      <c r="F158" s="2" t="str">
         <f>VLOOKUP(B158,[1]Sheet1!$A:$B,2,0)</f>
         <v>https://kuaicha.10jqka.com.cn/yuqingwebapp/yuqingapp/?client_userid=A1XHy&amp;share_hxapp=gsc&amp;share_action=&amp;back_source=wxhy#/personDetail/personMap?id=Q00000245297770&amp;company_size=1&amp;person_size=0&amp;scFrom=f10&amp;share=hexin&amp;isShowAppBar=false&amp;isShowStatusBar=false</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A159" s="2">
+    <row r="159" spans="1:6">
+      <c r="A159" s="5">
         <v>44926</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>150</v>
+        <v>207</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="E159" s="3" t="str">
+        <v>175</v>
+      </c>
+      <c r="E159" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_31.png</v>
+      </c>
+      <c r="F159" s="2" t="str">
         <f>VLOOKUP(B159,[1]Sheet1!$A:$B,2,0)</f>
         <v>https://kuaicha.10jqka.com.cn/yuqingwebapp/yuqingapp/?client_userid=A1XHy&amp;share_hxapp=gsc&amp;share_action=&amp;back_source=wxhy#/personDetail/personMap?id=Q00000245114537&amp;company_size=1&amp;person_size=0&amp;scFrom=f10&amp;share=hexin&amp;isShowAppBar=false&amp;isShowStatusBar=false</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A160" s="2">
+    <row r="160" spans="1:6">
+      <c r="A160" s="5">
         <v>44926</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>137</v>
+        <v>187</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>151</v>
+        <v>208</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="E160" s="3" t="str">
+        <v>40</v>
+      </c>
+      <c r="E160" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_55.png</v>
+      </c>
+      <c r="F160" s="2" t="str">
         <f>VLOOKUP(B160,[1]Sheet1!$A:$B,2,0)</f>
         <v>https://kuaicha.10jqka.com.cn/yuqingwebapp/yuqingapp/?client_userid=A1XHy&amp;share_hxapp=gsc&amp;share_action=&amp;back_source=wxhy#/personDetail/personMap?id=Q00000408408895&amp;company_size=1&amp;person_size=0&amp;scFrom=f10&amp;share=hexin&amp;isShowAppBar=false&amp;isShowStatusBar=false</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A161" s="2">
+    <row r="161" spans="1:6">
+      <c r="A161" s="5">
         <v>44926</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>152</v>
+        <v>209</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>153</v>
+        <v>210</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="E161" s="3" t="str">
+        <v>154</v>
+      </c>
+      <c r="E161" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_59.png</v>
+      </c>
+      <c r="F161" s="2" t="str">
         <f>VLOOKUP(B161,[1]Sheet1!$A:$B,2,0)</f>
         <v>https://kuaicha.10jqka.com.cn/yuqingwebapp/yuqingapp/?client_userid=A1XHy&amp;share_hxapp=gsc&amp;share_action=&amp;back_source=wxhy#/personDetail/personMap?id=Q00000454944881&amp;company_size=1&amp;person_size=0&amp;scFrom=f10&amp;share=hexin&amp;isShowAppBar=false&amp;isShowStatusBar=false</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A162" s="2">
+    <row r="162" spans="1:6">
+      <c r="A162" s="5">
         <v>45016</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="E162" s="3" t="str">
+        <v>198</v>
+      </c>
+      <c r="E162" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_1.png</v>
+      </c>
+      <c r="F162" s="2" t="str">
         <f>VLOOKUP(B162,[1]Sheet1!$A:$B,2,0)</f>
         <v>https://kuaicha.10jqka.com.cn/yuqingwebapp/yuqingapp/?client_userid=A1XHy&amp;share_hxapp=gsc&amp;share_action=&amp;back_source=wxhy#/companyDetail/chart?id=T004308394&amp;type=gqdc&amp;company_count=13&amp;holder_count=3&amp;scFrom=f10&amp;share=hexin&amp;isShowAppBar=false&amp;isShowStatusBar=false</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A163" s="2">
+    <row r="163" spans="1:6">
+      <c r="A163" s="5">
         <v>45016</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>124</v>
+        <v>167</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="E163" s="3" t="str">
+        <v>199</v>
+      </c>
+      <c r="E163" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_2.png</v>
+      </c>
+      <c r="F163" s="2" t="str">
         <f>VLOOKUP(B163,[1]Sheet1!$A:$B,2,0)</f>
         <v>https://kuaicha.10jqka.com.cn/yuqingwebapp/yuqingapp/?client_userid=A1XHy&amp;share_hxapp=gsc&amp;share_action=&amp;back_source=wxhy#/personDetail/personMap?id=T120896300&amp;company_size=undefined&amp;person_size=undefined&amp;scFrom=f10&amp;share=hexin&amp;isShowAppBar=false&amp;isShowStatusBar=false</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A164" s="2">
+    <row r="164" spans="1:6">
+      <c r="A164" s="5">
         <v>45016</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>154</v>
+        <v>211</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>125</v>
+        <v>169</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="E164" s="3" t="str">
+        <v>181</v>
+      </c>
+      <c r="E164" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_60.png</v>
+      </c>
+      <c r="F164" s="2" t="str">
         <f>VLOOKUP(B164,[1]Sheet1!$A:$B,2,0)</f>
         <v>https://kuaicha.10jqka.com.cn/yuqingwebapp/yuqingapp/?client_userid=A1XHy&amp;share_hxapp=gsc&amp;share_action=&amp;back_source=wxhy#/personDetail/personMap?id=T189807700&amp;company_size=3&amp;person_size=0&amp;scFrom=f10&amp;share=hexin&amp;isShowAppBar=false&amp;isShowStatusBar=false</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A165" s="2">
+    <row r="165" spans="1:6">
+      <c r="A165" s="5">
         <v>45016</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>152</v>
+        <v>209</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>155</v>
+        <v>212</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="E165" s="3" t="str">
+        <v>213</v>
+      </c>
+      <c r="E165" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_59.png</v>
+      </c>
+      <c r="F165" s="2" t="str">
         <f>VLOOKUP(B165,[1]Sheet1!$A:$B,2,0)</f>
         <v>https://kuaicha.10jqka.com.cn/yuqingwebapp/yuqingapp/?client_userid=A1XHy&amp;share_hxapp=gsc&amp;share_action=&amp;back_source=wxhy#/personDetail/personMap?id=Q00000454944881&amp;company_size=1&amp;person_size=0&amp;scFrom=f10&amp;share=hexin&amp;isShowAppBar=false&amp;isShowStatusBar=false</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A166" s="2">
+    <row r="166" spans="1:6">
+      <c r="A166" s="5">
         <v>45016</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>156</v>
+        <v>214</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>157</v>
+        <v>215</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="E166" s="3" t="str">
+        <v>216</v>
+      </c>
+      <c r="E166" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_61.png</v>
+      </c>
+      <c r="F166" s="2" t="str">
         <f>VLOOKUP(B166,[1]Sheet1!$A:$B,2,0)</f>
         <v>https://kuaicha.10jqka.com.cn/yuqingwebapp/yuqingapp/?client_userid=A1XHy&amp;share_hxapp=gsc&amp;share_action=&amp;back_source=wxhy#/personDetail/personMap?id=Q00000454944308&amp;company_size=1&amp;person_size=0&amp;scFrom=f10&amp;share=hexin&amp;isShowAppBar=false&amp;isShowStatusBar=false</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A167" s="2">
+    <row r="167" spans="1:6">
+      <c r="A167" s="5">
         <v>45016</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>139</v>
+        <v>189</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>158</v>
+        <v>217</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="E167" s="3" t="str">
+        <v>218</v>
+      </c>
+      <c r="E167" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_56.png</v>
+      </c>
+      <c r="F167" s="2" t="str">
         <f>VLOOKUP(B167,[1]Sheet1!$A:$B,2,0)</f>
         <v>https://fund.10jqka.com.cn/public/ifundout/dist/detail.html?frm=ijijinsdk&amp;share_userid=A1XHy&amp;share_jjid=feefad1a5ff6b2ef&amp;share_hxapp=gsdk&amp;back_source=wxhy#/004685</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A168" s="2">
+    <row r="168" spans="1:6">
+      <c r="A168" s="5">
         <v>45016</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>159</v>
+        <v>219</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>160</v>
+        <v>220</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="E168" s="3" t="str">
+        <v>204</v>
+      </c>
+      <c r="E168" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_62.png</v>
+      </c>
+      <c r="F168" s="2" t="str">
         <f>VLOOKUP(B168,[1]Sheet1!$A:$B,2,0)</f>
         <v>https://kuaicha.10jqka.com.cn/yuqingwebapp/yuqingapp/?client_userid=A1XHy&amp;share_hxapp=gsc&amp;share_action=&amp;back_source=wxhy#/companyDetail/chart?id=Q1241AC72E&amp;type=gqdc&amp;company_count=6&amp;holder_count=&amp;scFrom=f10&amp;share=hexin&amp;isShowAppBar=false&amp;isShowStatusBar=false</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A169" s="2">
+    <row r="169" spans="1:6">
+      <c r="A169" s="5">
         <v>45016</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>161</v>
+        <v>221</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>162</v>
+        <v>222</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="E169" s="3" t="e">
+        <v>184</v>
+      </c>
+      <c r="E169" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F169" s="2" t="e">
         <f>VLOOKUP(B169,[1]Sheet1!$A:$B,2,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A170" s="2">
+    <row r="170" spans="1:6">
+      <c r="A170" s="5">
         <v>45016</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="E170" s="3" t="str">
+        <v>60</v>
+      </c>
+      <c r="E170" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_30.png</v>
+      </c>
+      <c r="F170" s="2" t="str">
         <f>VLOOKUP(B170,[1]Sheet1!$A:$B,2,0)</f>
         <v>https://kuaicha.10jqka.com.cn/yuqingwebapp/yuqingapp/?client_userid=A1XHy&amp;share_hxapp=gsc&amp;share_action=&amp;back_source=wxhy#/personDetail/personMap?id=Q00000245297770&amp;company_size=1&amp;person_size=0&amp;scFrom=f10&amp;share=hexin&amp;isShowAppBar=false&amp;isShowStatusBar=false</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A171" s="2">
+    <row r="171" spans="1:6">
+      <c r="A171" s="5">
         <v>45016</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>150</v>
+        <v>207</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="E171" s="3" t="str">
+        <v>175</v>
+      </c>
+      <c r="E171" s="2" t="str">
+        <f>VLOOKUP(B:B,[2]Sheet1!$B$68:$C$130,2,0)</f>
+        <v>rb_31.png</v>
+      </c>
+      <c r="F171" s="2" t="str">
         <f>VLOOKUP(B171,[1]Sheet1!$A:$B,2,0)</f>
         <v>https://kuaicha.10jqka.com.cn/yuqingwebapp/yuqingapp/?client_userid=A1XHy&amp;share_hxapp=gsc&amp;share_action=&amp;back_source=wxhy#/personDetail/personMap?id=Q00000245114537&amp;company_size=1&amp;person_size=0&amp;scFrom=f10&amp;share=hexin&amp;isShowAppBar=false&amp;isShowStatusBar=false</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A172" s="2"/>
+    <row r="172" spans="1:3">
+      <c r="A172" s="5"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A173" s="2"/>
+    <row r="173" spans="1:3">
+      <c r="A173" s="5"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A174" s="2"/>
+    <row r="174" spans="1:3">
+      <c r="A174" s="5"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A175" s="2"/>
+    <row r="175" spans="1:3">
+      <c r="A175" s="5"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A176" s="2"/>
+    <row r="176" spans="1:3">
+      <c r="A176" s="5"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A177" s="2"/>
+    <row r="177" spans="1:3">
+      <c r="A177" s="5"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A178" s="2"/>
+    <row r="178" spans="1:3">
+      <c r="A178" s="5"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A179" s="2"/>
+    <row r="179" spans="1:3">
+      <c r="A179" s="5"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A180" s="2"/>
+    <row r="180" spans="1:3">
+      <c r="A180" s="5"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A181" s="2"/>
+    <row r="181" spans="1:3">
+      <c r="A181" s="5"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/d-rankDemo/public/xlsx/assets/日播时尚十大股东数据.xlsx
+++ b/d-rankDemo/public/xlsx/assets/日播时尚十大股东数据.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\viruser.v-desktop\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5611D109-1AEA-4D28-B16C-A18576AFEF9D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19395" windowHeight="10395"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -722,58 +721,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2019年一季度</t>
-  </si>
-  <si>
-    <t>2020年一季度</t>
-  </si>
-  <si>
-    <t>2021年一季度</t>
-  </si>
-  <si>
-    <t>2022年一季度</t>
-  </si>
-  <si>
-    <t>2023年一季度</t>
-  </si>
-  <si>
-    <t>2019年二季度</t>
-  </si>
-  <si>
-    <t>2020年二季度</t>
-  </si>
-  <si>
-    <t>2019年三季度</t>
-  </si>
-  <si>
-    <t>2019年四季度</t>
-  </si>
-  <si>
-    <t>2020年四季度</t>
-  </si>
-  <si>
-    <t>2021年四季度</t>
-  </si>
-  <si>
-    <t>2022年四季度</t>
-  </si>
-  <si>
-    <t>2020年三季度</t>
-  </si>
-  <si>
-    <t>2021年三季度</t>
-  </si>
-  <si>
-    <t>2022年二季度</t>
-  </si>
-  <si>
-    <t>2022年三季度</t>
-  </si>
-  <si>
-    <t>2021年二季度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>经财务部门初步测算，预计2019年年度实现归属于上市公司股东的净利润与上年同期相比，将减少2590万元到3350万元，同比减少67%到87%。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -976,12 +923,63 @@
   <si>
     <t>业绩预减</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019一季度</t>
+  </si>
+  <si>
+    <t>2019二季度</t>
+  </si>
+  <si>
+    <t>2019三季度</t>
+  </si>
+  <si>
+    <t>2019四季度</t>
+  </si>
+  <si>
+    <t>2020一季度</t>
+  </si>
+  <si>
+    <t>2020二季度</t>
+  </si>
+  <si>
+    <t>2020三季度</t>
+  </si>
+  <si>
+    <t>2020四季度</t>
+  </si>
+  <si>
+    <t>2021一季度</t>
+  </si>
+  <si>
+    <t>2021二季度</t>
+  </si>
+  <si>
+    <t>2021三季度</t>
+  </si>
+  <si>
+    <t>2021四季度</t>
+  </si>
+  <si>
+    <t>2022一季度</t>
+  </si>
+  <si>
+    <t>2022二季度</t>
+  </si>
+  <si>
+    <t>2022三季度</t>
+  </si>
+  <si>
+    <t>2022四季度</t>
+  </si>
+  <si>
+    <t>2023一季度</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00000000%"/>
   </numFmts>
@@ -1080,7 +1078,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{CCD3E577-0F8C-4460-A5D0-F8429CAC72F4}"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1563,22 +1561,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J181"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="A161" sqref="A161:B161"/>
+      <selection activeCell="A151" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.86328125" style="1" customWidth="1"/>
-    <col min="2" max="6" width="9.06640625" style="3"/>
-    <col min="8" max="8" width="13.86328125" customWidth="1"/>
-    <col min="10" max="10" width="11.86328125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.875" style="1" customWidth="1"/>
+    <col min="2" max="6" width="9.125" style="3"/>
+    <col min="8" max="8" width="13.875" customWidth="1"/>
+    <col min="10" max="10" width="11.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>20</v>
       </c>
@@ -1592,7 +1590,7 @@
         <v>22</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>173</v>
@@ -1605,9 +1603,9 @@
       </c>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>225</v>
+        <v>292</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -1619,7 +1617,7 @@
         <v>163</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="F2" s="3" t="str">
         <f>VLOOKUP(B2,[1]Sheet1!$A:$B,2,0)</f>
@@ -1627,9 +1625,9 @@
       </c>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>225</v>
+        <v>292</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
@@ -1641,7 +1639,7 @@
         <v>164</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="F3" s="3" t="str">
         <f>VLOOKUP(B3,[1]Sheet1!$A:$B,2,0)</f>
@@ -1649,9 +1647,9 @@
       </c>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>225</v>
+        <v>292</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>2</v>
@@ -1663,7 +1661,7 @@
         <v>165</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="F4" s="3" t="str">
         <f>VLOOKUP(B4,[1]Sheet1!$A:$B,2,0)</f>
@@ -1671,9 +1669,9 @@
       </c>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>225</v>
+        <v>292</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>3</v>
@@ -1685,7 +1683,7 @@
         <v>166</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="F5" s="3" t="str">
         <f>VLOOKUP(B5,[1]Sheet1!$A:$B,2,0)</f>
@@ -1693,9 +1691,9 @@
       </c>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>225</v>
+        <v>292</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>4</v>
@@ -1707,7 +1705,7 @@
         <v>167</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="F6" s="3" t="str">
         <f>VLOOKUP(B6,[1]Sheet1!$A:$B,2,0)</f>
@@ -1715,9 +1713,9 @@
       </c>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>225</v>
+        <v>292</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
@@ -1729,7 +1727,7 @@
         <v>168</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="F7" s="3" t="e">
         <f>VLOOKUP(B7,[1]Sheet1!$A:$B,2,0)</f>
@@ -1737,9 +1735,9 @@
       </c>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>225</v>
+        <v>292</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>6</v>
@@ -1751,7 +1749,7 @@
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="F8" s="3" t="e">
         <f>VLOOKUP(B8,[1]Sheet1!$A:$B,2,0)</f>
@@ -1759,9 +1757,9 @@
       </c>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>225</v>
+        <v>292</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>7</v>
@@ -1773,7 +1771,7 @@
         <v>169</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="F9" s="3" t="e">
         <f>VLOOKUP(B9,[1]Sheet1!$A:$B,2,0)</f>
@@ -1781,9 +1779,9 @@
       </c>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>225</v>
+        <v>292</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
@@ -1795,7 +1793,7 @@
         <v>170</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="F10" s="3" t="e">
         <f>VLOOKUP(B10,[1]Sheet1!$A:$B,2,0)</f>
@@ -1803,9 +1801,9 @@
       </c>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>225</v>
+        <v>292</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>9</v>
@@ -1817,7 +1815,7 @@
         <v>171</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="F11" s="3" t="e">
         <f>VLOOKUP(B11,[1]Sheet1!$A:$B,2,0)</f>
@@ -1825,9 +1823,9 @@
       </c>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>230</v>
+        <v>293</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>0</v>
@@ -1839,7 +1837,7 @@
         <v>163</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="F12" s="3" t="str">
         <f>VLOOKUP(B12,[1]Sheet1!$A:$B,2,0)</f>
@@ -1847,9 +1845,9 @@
       </c>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>230</v>
+        <v>293</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>1</v>
@@ -1861,7 +1859,7 @@
         <v>164</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="F13" s="3" t="str">
         <f>VLOOKUP(B13,[1]Sheet1!$A:$B,2,0)</f>
@@ -1869,9 +1867,9 @@
       </c>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>230</v>
+        <v>293</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>2</v>
@@ -1883,7 +1881,7 @@
         <v>165</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="F14" s="3" t="str">
         <f>VLOOKUP(B14,[1]Sheet1!$A:$B,2,0)</f>
@@ -1891,9 +1889,9 @@
       </c>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>230</v>
+        <v>293</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>27</v>
@@ -1905,7 +1903,7 @@
         <v>174</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="F15" s="3" t="e">
         <f>VLOOKUP(B15,[1]Sheet1!$A:$B,2,0)</f>
@@ -1913,9 +1911,9 @@
       </c>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>230</v>
+        <v>293</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>3</v>
@@ -1927,7 +1925,7 @@
         <v>166</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="F16" s="3" t="str">
         <f>VLOOKUP(B16,[1]Sheet1!$A:$B,2,0)</f>
@@ -1935,9 +1933,9 @@
       </c>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>230</v>
+        <v>293</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>4</v>
@@ -1949,7 +1947,7 @@
         <v>167</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="F17" s="3" t="str">
         <f>VLOOKUP(B17,[1]Sheet1!$A:$B,2,0)</f>
@@ -1957,9 +1955,9 @@
       </c>
       <c r="J17" s="2"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>230</v>
+        <v>293</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>28</v>
@@ -1971,7 +1969,7 @@
         <v>175</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="F18" s="3" t="e">
         <f>VLOOKUP(B18,[1]Sheet1!$A:$B,2,0)</f>
@@ -1979,9 +1977,9 @@
       </c>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>230</v>
+        <v>293</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>8</v>
@@ -1993,7 +1991,7 @@
         <v>170</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="F19" s="3" t="e">
         <f>VLOOKUP(B19,[1]Sheet1!$A:$B,2,0)</f>
@@ -2001,9 +1999,9 @@
       </c>
       <c r="J19" s="2"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>230</v>
+        <v>293</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>29</v>
@@ -2015,7 +2013,7 @@
         <v>176</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="F20" s="3" t="e">
         <f>VLOOKUP(B20,[1]Sheet1!$A:$B,2,0)</f>
@@ -2023,9 +2021,9 @@
       </c>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>230</v>
+        <v>293</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>30</v>
@@ -2037,7 +2035,7 @@
         <v>177</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="F21" s="3" t="e">
         <f>VLOOKUP(B21,[1]Sheet1!$A:$B,2,0)</f>
@@ -2045,9 +2043,9 @@
       </c>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>232</v>
+        <v>294</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>0</v>
@@ -2059,7 +2057,7 @@
         <v>163</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="F22" s="3" t="str">
         <f>VLOOKUP(B22,[1]Sheet1!$A:$B,2,0)</f>
@@ -2067,9 +2065,9 @@
       </c>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>232</v>
+        <v>294</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>1</v>
@@ -2081,7 +2079,7 @@
         <v>164</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="F23" s="3" t="str">
         <f>VLOOKUP(B23,[1]Sheet1!$A:$B,2,0)</f>
@@ -2089,9 +2087,9 @@
       </c>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>232</v>
+        <v>294</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>2</v>
@@ -2103,7 +2101,7 @@
         <v>165</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="F24" s="3" t="str">
         <f>VLOOKUP(B24,[1]Sheet1!$A:$B,2,0)</f>
@@ -2111,9 +2109,9 @@
       </c>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>232</v>
+        <v>294</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>31</v>
@@ -2125,7 +2123,7 @@
         <v>178</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="F25" s="3" t="e">
         <f>VLOOKUP(B25,[1]Sheet1!$A:$B,2,0)</f>
@@ -2133,9 +2131,9 @@
       </c>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>232</v>
+        <v>294</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>3</v>
@@ -2147,7 +2145,7 @@
         <v>166</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="F26" s="3" t="str">
         <f>VLOOKUP(B26,[1]Sheet1!$A:$B,2,0)</f>
@@ -2155,9 +2153,9 @@
       </c>
       <c r="J26" s="2"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>232</v>
+        <v>294</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>4</v>
@@ -2169,7 +2167,7 @@
         <v>167</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="F27" s="3" t="str">
         <f>VLOOKUP(B27,[1]Sheet1!$A:$B,2,0)</f>
@@ -2177,9 +2175,9 @@
       </c>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>232</v>
+        <v>294</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>32</v>
@@ -2191,7 +2189,7 @@
         <v>179</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="F28" s="3" t="e">
         <f>VLOOKUP(B28,[1]Sheet1!$A:$B,2,0)</f>
@@ -2199,9 +2197,9 @@
       </c>
       <c r="J28" s="2"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>232</v>
+        <v>294</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>33</v>
@@ -2213,7 +2211,7 @@
         <v>180</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="F29" s="3" t="e">
         <f>VLOOKUP(B29,[1]Sheet1!$A:$B,2,0)</f>
@@ -2221,9 +2219,9 @@
       </c>
       <c r="J29" s="2"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>232</v>
+        <v>294</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>28</v>
@@ -2235,7 +2233,7 @@
         <v>181</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="F30" s="3" t="e">
         <f>VLOOKUP(B30,[1]Sheet1!$A:$B,2,0)</f>
@@ -2243,9 +2241,9 @@
       </c>
       <c r="J30" s="2"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>232</v>
+        <v>294</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>34</v>
@@ -2257,7 +2255,7 @@
         <v>182</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="F31" s="3" t="e">
         <f>VLOOKUP(B31,[1]Sheet1!$A:$B,2,0)</f>
@@ -2265,9 +2263,9 @@
       </c>
       <c r="J31" s="2"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>233</v>
+        <v>295</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>0</v>
@@ -2279,7 +2277,7 @@
         <v>163</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="F32" s="3" t="str">
         <f>VLOOKUP(B32,[1]Sheet1!$A:$B,2,0)</f>
@@ -2287,9 +2285,9 @@
       </c>
       <c r="J32" s="2"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>233</v>
+        <v>295</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>1</v>
@@ -2301,7 +2299,7 @@
         <v>164</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="F33" s="3" t="str">
         <f>VLOOKUP(B33,[1]Sheet1!$A:$B,2,0)</f>
@@ -2309,9 +2307,9 @@
       </c>
       <c r="J33" s="2"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>233</v>
+        <v>295</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>2</v>
@@ -2323,7 +2321,7 @@
         <v>165</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="F34" s="3" t="str">
         <f>VLOOKUP(B34,[1]Sheet1!$A:$B,2,0)</f>
@@ -2331,9 +2329,9 @@
       </c>
       <c r="J34" s="2"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>233</v>
+        <v>295</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>3</v>
@@ -2345,23 +2343,23 @@
         <v>166</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="F35" s="3" t="str">
         <f>VLOOKUP(B35,[1]Sheet1!$A:$B,2,0)</f>
         <v>https://kuaicha.10jqka.com.cn/yuqingwebapp/yuqingapp/?client_userid=A1XHy&amp;share_hxapp=gsc&amp;share_action=&amp;back_source=wxhy#/personDetail/personMap?id=T120897500&amp;company_size=11&amp;person_size=0&amp;scFrom=f10&amp;share=hexin&amp;isShowAppBar=false&amp;isShowStatusBar=false</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>308</v>
+        <v>291</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="J35" s="2"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>233</v>
+        <v>295</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>34</v>
@@ -2373,7 +2371,7 @@
         <v>182</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="F36" s="3" t="e">
         <f>VLOOKUP(B36,[1]Sheet1!$A:$B,2,0)</f>
@@ -2381,9 +2379,9 @@
       </c>
       <c r="J36" s="2"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>233</v>
+        <v>295</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>40</v>
@@ -2395,7 +2393,7 @@
         <v>183</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="F37" s="3" t="e">
         <f>VLOOKUP(B37,[1]Sheet1!$A:$B,2,0)</f>
@@ -2403,9 +2401,9 @@
       </c>
       <c r="J37" s="2"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>233</v>
+        <v>295</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>41</v>
@@ -2417,7 +2415,7 @@
         <v>184</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="F38" s="3" t="e">
         <f>VLOOKUP(B38,[1]Sheet1!$A:$B,2,0)</f>
@@ -2425,9 +2423,9 @@
       </c>
       <c r="J38" s="2"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>233</v>
+        <v>295</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>42</v>
@@ -2439,7 +2437,7 @@
         <v>169</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="F39" s="3" t="e">
         <f>VLOOKUP(B39,[1]Sheet1!$A:$B,2,0)</f>
@@ -2447,9 +2445,9 @@
       </c>
       <c r="J39" s="2"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>233</v>
+        <v>295</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>43</v>
@@ -2461,7 +2459,7 @@
         <v>2.2000000000000001E-3</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="F40" s="3" t="e">
         <f>VLOOKUP(B40,[1]Sheet1!$A:$B,2,0)</f>
@@ -2469,9 +2467,9 @@
       </c>
       <c r="J40" s="2"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>233</v>
+        <v>295</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>44</v>
@@ -2483,7 +2481,7 @@
         <v>185</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="F41" s="3" t="e">
         <f>VLOOKUP(B41,[1]Sheet1!$A:$B,2,0)</f>
@@ -2491,9 +2489,9 @@
       </c>
       <c r="J41" s="2"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>226</v>
+        <v>296</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>0</v>
@@ -2505,7 +2503,7 @@
         <v>163</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="F42" s="3" t="str">
         <f>VLOOKUP(B42,[1]Sheet1!$A:$B,2,0)</f>
@@ -2513,9 +2511,9 @@
       </c>
       <c r="J42" s="2"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>226</v>
+        <v>296</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>1</v>
@@ -2527,7 +2525,7 @@
         <v>164</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="F43" s="3" t="str">
         <f>VLOOKUP(B43,[1]Sheet1!$A:$B,2,0)</f>
@@ -2535,9 +2533,9 @@
       </c>
       <c r="J43" s="2"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>226</v>
+        <v>296</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>2</v>
@@ -2549,7 +2547,7 @@
         <v>165</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="F44" s="3" t="str">
         <f>VLOOKUP(B44,[1]Sheet1!$A:$B,2,0)</f>
@@ -2557,9 +2555,9 @@
       </c>
       <c r="J44" s="2"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>226</v>
+        <v>296</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>3</v>
@@ -2571,7 +2569,7 @@
         <v>166</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="F45" s="3" t="str">
         <f>VLOOKUP(B45,[1]Sheet1!$A:$B,2,0)</f>
@@ -2581,9 +2579,9 @@
       <c r="H45" s="1"/>
       <c r="J45" s="2"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>226</v>
+        <v>296</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>50</v>
@@ -2595,7 +2593,7 @@
         <v>183</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="F46" s="3" t="e">
         <f>VLOOKUP(B46,[1]Sheet1!$A:$B,2,0)</f>
@@ -2603,9 +2601,9 @@
       </c>
       <c r="J46" s="2"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>226</v>
+        <v>296</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>51</v>
@@ -2617,7 +2615,7 @@
         <v>171</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="F47" s="3" t="e">
         <f>VLOOKUP(B47,[1]Sheet1!$A:$B,2,0)</f>
@@ -2625,9 +2623,9 @@
       </c>
       <c r="J47" s="2"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>226</v>
+        <v>296</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>52</v>
@@ -2639,7 +2637,7 @@
         <v>186</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="F48" s="3" t="e">
         <f>VLOOKUP(B48,[1]Sheet1!$A:$B,2,0)</f>
@@ -2647,9 +2645,9 @@
       </c>
       <c r="J48" s="2"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>226</v>
+        <v>296</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>53</v>
@@ -2661,7 +2659,7 @@
         <v>187</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="F49" s="3" t="e">
         <f>VLOOKUP(B49,[1]Sheet1!$A:$B,2,0)</f>
@@ -2669,9 +2667,9 @@
       </c>
       <c r="J49" s="2"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>226</v>
+        <v>296</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>54</v>
@@ -2683,7 +2681,7 @@
         <v>188</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="F50" s="3" t="e">
         <f>VLOOKUP(B50,[1]Sheet1!$A:$B,2,0)</f>
@@ -2691,9 +2689,9 @@
       </c>
       <c r="J50" s="2"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>226</v>
+        <v>296</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>55</v>
@@ -2705,7 +2703,7 @@
         <v>189</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
       <c r="F51" s="3" t="e">
         <f>VLOOKUP(B51,[1]Sheet1!$A:$B,2,0)</f>
@@ -2713,9 +2711,9 @@
       </c>
       <c r="J51" s="2"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>231</v>
+        <v>297</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>0</v>
@@ -2727,7 +2725,7 @@
         <v>163</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="F52" s="3" t="str">
         <f>VLOOKUP(B52,[1]Sheet1!$A:$B,2,0)</f>
@@ -2735,9 +2733,9 @@
       </c>
       <c r="J52" s="2"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>231</v>
+        <v>297</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>1</v>
@@ -2749,7 +2747,7 @@
         <v>164</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="F53" s="3" t="str">
         <f>VLOOKUP(B53,[1]Sheet1!$A:$B,2,0)</f>
@@ -2757,9 +2755,9 @@
       </c>
       <c r="J53" s="2"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>231</v>
+        <v>297</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>2</v>
@@ -2771,7 +2769,7 @@
         <v>165</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="F54" s="3" t="str">
         <f>VLOOKUP(B54,[1]Sheet1!$A:$B,2,0)</f>
@@ -2779,9 +2777,9 @@
       </c>
       <c r="J54" s="2"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>231</v>
+        <v>297</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>3</v>
@@ -2793,7 +2791,7 @@
         <v>166</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="F55" s="3" t="str">
         <f>VLOOKUP(B55,[1]Sheet1!$A:$B,2,0)</f>
@@ -2801,9 +2799,9 @@
       </c>
       <c r="J55" s="2"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>231</v>
+        <v>297</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>62</v>
@@ -2815,7 +2813,7 @@
         <v>181</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="F56" s="3" t="str">
         <f>VLOOKUP(B56,[1]Sheet1!$A:$B,2,0)</f>
@@ -2823,9 +2821,9 @@
       </c>
       <c r="J56" s="2"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>231</v>
+        <v>297</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>50</v>
@@ -2837,7 +2835,7 @@
         <v>182</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="F57" s="3" t="e">
         <f>VLOOKUP(B57,[1]Sheet1!$A:$B,2,0)</f>
@@ -2845,9 +2843,9 @@
       </c>
       <c r="J57" s="2"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>231</v>
+        <v>297</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>63</v>
@@ -2859,7 +2857,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="F58" s="3" t="str">
         <f>VLOOKUP(B58,[1]Sheet1!$A:$B,2,0)</f>
@@ -2867,9 +2865,9 @@
       </c>
       <c r="J58" s="2"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>231</v>
+        <v>297</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>64</v>
@@ -2881,7 +2879,7 @@
         <v>190</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="F59" s="3" t="e">
         <f>VLOOKUP(B59,[1]Sheet1!$A:$B,2,0)</f>
@@ -2889,9 +2887,9 @@
       </c>
       <c r="J59" s="2"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>231</v>
+        <v>297</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>65</v>
@@ -2903,7 +2901,7 @@
         <v>177</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="F60" s="3" t="e">
         <f>VLOOKUP(B60,[1]Sheet1!$A:$B,2,0)</f>
@@ -2911,9 +2909,9 @@
       </c>
       <c r="J60" s="2"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>231</v>
+        <v>297</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>66</v>
@@ -2925,7 +2923,7 @@
         <v>186</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="F61" s="3" t="e">
         <f>VLOOKUP(B61,[1]Sheet1!$A:$B,2,0)</f>
@@ -2933,9 +2931,9 @@
       </c>
       <c r="J61" s="2"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>237</v>
+        <v>298</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>0</v>
@@ -2947,7 +2945,7 @@
         <v>191</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="F62" s="3" t="str">
         <f>VLOOKUP(B62,[1]Sheet1!$A:$B,2,0)</f>
@@ -2955,9 +2953,9 @@
       </c>
       <c r="J62" s="2"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>237</v>
+        <v>298</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>1</v>
@@ -2969,7 +2967,7 @@
         <v>164</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="F63" s="3" t="str">
         <f>VLOOKUP(B63,[1]Sheet1!$A:$B,2,0)</f>
@@ -2977,9 +2975,9 @@
       </c>
       <c r="J63" s="2"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>237</v>
+        <v>298</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>2</v>
@@ -2991,7 +2989,7 @@
         <v>165</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="F64" s="3" t="str">
         <f>VLOOKUP(B64,[1]Sheet1!$A:$B,2,0)</f>
@@ -2999,9 +2997,9 @@
       </c>
       <c r="J64" s="2"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>237</v>
+        <v>298</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>73</v>
@@ -3013,7 +3011,7 @@
         <v>192</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="F65" s="3" t="e">
         <f>VLOOKUP(B65,[1]Sheet1!$A:$B,2,0)</f>
@@ -3021,9 +3019,9 @@
       </c>
       <c r="J65" s="2"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>237</v>
+        <v>298</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>3</v>
@@ -3035,7 +3033,7 @@
         <v>166</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="F66" s="3" t="str">
         <f>VLOOKUP(B66,[1]Sheet1!$A:$B,2,0)</f>
@@ -3043,9 +3041,9 @@
       </c>
       <c r="J66" s="2"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>237</v>
+        <v>298</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>74</v>
@@ -3057,7 +3055,7 @@
         <v>166</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="F67" s="3" t="e">
         <f>VLOOKUP(B67,[1]Sheet1!$A:$B,2,0)</f>
@@ -3065,9 +3063,9 @@
       </c>
       <c r="J67" s="2"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>237</v>
+        <v>298</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>75</v>
@@ -3079,7 +3077,7 @@
         <v>4.3E-3</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="F68" s="3" t="e">
         <f>VLOOKUP(B68,[1]Sheet1!$A:$B,2,0)</f>
@@ -3087,9 +3085,9 @@
       </c>
       <c r="J68" s="2"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>237</v>
+        <v>298</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>62</v>
@@ -3101,7 +3099,7 @@
         <v>4.1999999999999997E-3</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="F69" s="3" t="str">
         <f>VLOOKUP(B69,[1]Sheet1!$A:$B,2,0)</f>
@@ -3109,9 +3107,9 @@
       </c>
       <c r="J69" s="2"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>237</v>
+        <v>298</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>76</v>
@@ -3123,7 +3121,7 @@
         <v>4.1000000000000003E-3</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="F70" s="3" t="e">
         <f>VLOOKUP(B70,[1]Sheet1!$A:$B,2,0)</f>
@@ -3131,9 +3129,9 @@
       </c>
       <c r="J70" s="2"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>237</v>
+        <v>298</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>63</v>
@@ -3145,7 +3143,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="F71" s="3" t="str">
         <f>VLOOKUP(B71,[1]Sheet1!$A:$B,2,0)</f>
@@ -3153,9 +3151,9 @@
       </c>
       <c r="J71" s="2"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>234</v>
+        <v>299</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>0</v>
@@ -3167,7 +3165,7 @@
         <v>191</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="F72" s="3" t="str">
         <f>VLOOKUP(B72,[1]Sheet1!$A:$B,2,0)</f>
@@ -3175,9 +3173,9 @@
       </c>
       <c r="J72" s="2"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>234</v>
+        <v>299</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>1</v>
@@ -3189,7 +3187,7 @@
         <v>164</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="F73" s="3" t="str">
         <f>VLOOKUP(B73,[1]Sheet1!$A:$B,2,0)</f>
@@ -3197,9 +3195,9 @@
       </c>
       <c r="J73" s="2"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>234</v>
+        <v>299</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>2</v>
@@ -3211,7 +3209,7 @@
         <v>165</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="F74" s="3" t="str">
         <f>VLOOKUP(B74,[1]Sheet1!$A:$B,2,0)</f>
@@ -3219,9 +3217,9 @@
       </c>
       <c r="J74" s="2"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>234</v>
+        <v>299</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>3</v>
@@ -3233,7 +3231,7 @@
         <v>166</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="F75" s="3" t="str">
         <f>VLOOKUP(B75,[1]Sheet1!$A:$B,2,0)</f>
@@ -3241,9 +3239,9 @@
       </c>
       <c r="J75" s="2"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>234</v>
+        <v>299</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>76</v>
@@ -3255,7 +3253,7 @@
         <v>4.3E-3</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="F76" s="3" t="e">
         <f>VLOOKUP(B76,[1]Sheet1!$A:$B,2,0)</f>
@@ -3263,9 +3261,9 @@
       </c>
       <c r="J76" s="2"/>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>234</v>
+        <v>299</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>62</v>
@@ -3277,7 +3275,7 @@
         <v>181</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="F77" s="3" t="str">
         <f>VLOOKUP(B77,[1]Sheet1!$A:$B,2,0)</f>
@@ -3285,9 +3283,9 @@
       </c>
       <c r="J77" s="2"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>234</v>
+        <v>299</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>63</v>
@@ -3299,7 +3297,7 @@
         <v>4.1000000000000003E-3</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="F78" s="3" t="str">
         <f>VLOOKUP(B78,[1]Sheet1!$A:$B,2,0)</f>
@@ -3307,9 +3305,9 @@
       </c>
       <c r="J78" s="2"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>234</v>
+        <v>299</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>84</v>
@@ -3321,7 +3319,7 @@
         <v>193</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="F79" s="3" t="e">
         <f>VLOOKUP(B79,[1]Sheet1!$A:$B,2,0)</f>
@@ -3329,9 +3327,9 @@
       </c>
       <c r="J79" s="2"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>234</v>
+        <v>299</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>85</v>
@@ -3343,7 +3341,7 @@
         <v>194</v>
       </c>
       <c r="E80" s="8" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="F80" s="3" t="str">
         <f>VLOOKUP(B80,[1]Sheet1!$A:$B,2,0)</f>
@@ -3351,9 +3349,9 @@
       </c>
       <c r="J80" s="2"/>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>234</v>
+        <v>299</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>86</v>
@@ -3365,7 +3363,7 @@
         <v>2.5999999999999999E-3</v>
       </c>
       <c r="E81" s="8" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="F81" s="3" t="e">
         <f>VLOOKUP(B81,[1]Sheet1!$A:$B,2,0)</f>
@@ -3373,9 +3371,9 @@
       </c>
       <c r="J81" s="2"/>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>227</v>
+        <v>300</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>0</v>
@@ -3387,7 +3385,7 @@
         <v>191</v>
       </c>
       <c r="E82" s="8" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="F82" s="3" t="str">
         <f>VLOOKUP(B82,[1]Sheet1!$A:$B,2,0)</f>
@@ -3395,9 +3393,9 @@
       </c>
       <c r="J82" s="2"/>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>227</v>
+        <v>300</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>1</v>
@@ -3409,7 +3407,7 @@
         <v>164</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="F83" s="3" t="str">
         <f>VLOOKUP(B83,[1]Sheet1!$A:$B,2,0)</f>
@@ -3417,9 +3415,9 @@
       </c>
       <c r="J83" s="2"/>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>227</v>
+        <v>300</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>2</v>
@@ -3431,7 +3429,7 @@
         <v>165</v>
       </c>
       <c r="E84" s="8" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="F84" s="3" t="str">
         <f>VLOOKUP(B84,[1]Sheet1!$A:$B,2,0)</f>
@@ -3439,9 +3437,9 @@
       </c>
       <c r="J84" s="2"/>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>227</v>
+        <v>300</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>91</v>
@@ -3453,7 +3451,7 @@
         <v>195</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="F85" s="3" t="e">
         <f>VLOOKUP(B85,[1]Sheet1!$A:$B,2,0)</f>
@@ -3461,9 +3459,9 @@
       </c>
       <c r="J85" s="2"/>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>227</v>
+        <v>300</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>92</v>
@@ -3475,7 +3473,7 @@
         <v>196</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="F86" s="3" t="e">
         <f>VLOOKUP(B86,[1]Sheet1!$A:$B,2,0)</f>
@@ -3483,9 +3481,9 @@
       </c>
       <c r="J86" s="2"/>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>227</v>
+        <v>300</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>3</v>
@@ -3497,7 +3495,7 @@
         <v>166</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="F87" s="3" t="str">
         <f>VLOOKUP(B87,[1]Sheet1!$A:$B,2,0)</f>
@@ -3505,9 +3503,9 @@
       </c>
       <c r="J87" s="2"/>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>227</v>
+        <v>300</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>62</v>
@@ -3519,7 +3517,7 @@
         <v>182</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="F88" s="3" t="str">
         <f>VLOOKUP(B88,[1]Sheet1!$A:$B,2,0)</f>
@@ -3527,9 +3525,9 @@
       </c>
       <c r="J88" s="2"/>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>227</v>
+        <v>300</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>63</v>
@@ -3541,7 +3539,7 @@
         <v>183</v>
       </c>
       <c r="E89" s="8" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="F89" s="3" t="str">
         <f>VLOOKUP(B89,[1]Sheet1!$A:$B,2,0)</f>
@@ -3549,9 +3547,9 @@
       </c>
       <c r="J89" s="2"/>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>227</v>
+        <v>300</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>85</v>
@@ -3563,7 +3561,7 @@
         <v>197</v>
       </c>
       <c r="E90" s="8" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="F90" s="3" t="str">
         <f>VLOOKUP(B90,[1]Sheet1!$A:$B,2,0)</f>
@@ -3571,9 +3569,9 @@
       </c>
       <c r="J90" s="2"/>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>227</v>
+        <v>300</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>84</v>
@@ -3585,7 +3583,7 @@
         <v>171</v>
       </c>
       <c r="E91" s="8" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="F91" s="3" t="e">
         <f>VLOOKUP(B91,[1]Sheet1!$A:$B,2,0)</f>
@@ -3593,9 +3591,9 @@
       </c>
       <c r="J91" s="2"/>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>241</v>
+        <v>301</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>0</v>
@@ -3607,7 +3605,7 @@
         <v>191</v>
       </c>
       <c r="E92" s="8" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="F92" s="3" t="str">
         <f>VLOOKUP(B92,[1]Sheet1!$A:$B,2,0)</f>
@@ -3615,9 +3613,9 @@
       </c>
       <c r="J92" s="2"/>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>241</v>
+        <v>301</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>1</v>
@@ -3629,7 +3627,7 @@
         <v>164</v>
       </c>
       <c r="E93" s="8" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="F93" s="3" t="str">
         <f>VLOOKUP(B93,[1]Sheet1!$A:$B,2,0)</f>
@@ -3637,9 +3635,9 @@
       </c>
       <c r="J93" s="2"/>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>241</v>
+        <v>301</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>2</v>
@@ -3651,7 +3649,7 @@
         <v>165</v>
       </c>
       <c r="E94" s="8" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="F94" s="3" t="str">
         <f>VLOOKUP(B94,[1]Sheet1!$A:$B,2,0)</f>
@@ -3659,9 +3657,9 @@
       </c>
       <c r="J94" s="2"/>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>241</v>
+        <v>301</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>99</v>
@@ -3673,7 +3671,7 @@
         <v>198</v>
       </c>
       <c r="E95" s="8" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="F95" s="3" t="e">
         <f>VLOOKUP(B95,[1]Sheet1!$A:$B,2,0)</f>
@@ -3681,9 +3679,9 @@
       </c>
       <c r="J95" s="2"/>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>241</v>
+        <v>301</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>3</v>
@@ -3695,7 +3693,7 @@
         <v>166</v>
       </c>
       <c r="E96" s="8" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="F96" s="3" t="str">
         <f>VLOOKUP(B96,[1]Sheet1!$A:$B,2,0)</f>
@@ -3703,9 +3701,9 @@
       </c>
       <c r="J96" s="2"/>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>241</v>
+        <v>301</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>62</v>
@@ -3717,7 +3715,7 @@
         <v>182</v>
       </c>
       <c r="E97" s="8" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="F97" s="3" t="str">
         <f>VLOOKUP(B97,[1]Sheet1!$A:$B,2,0)</f>
@@ -3725,9 +3723,9 @@
       </c>
       <c r="J97" s="2"/>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>241</v>
+        <v>301</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>63</v>
@@ -3739,7 +3737,7 @@
         <v>175</v>
       </c>
       <c r="E98" s="8" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="F98" s="3" t="str">
         <f>VLOOKUP(B98,[1]Sheet1!$A:$B,2,0)</f>
@@ -3747,9 +3745,9 @@
       </c>
       <c r="J98" s="2"/>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>241</v>
+        <v>301</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>100</v>
@@ -3761,7 +3759,7 @@
         <v>168</v>
       </c>
       <c r="E99" s="8" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="F99" s="3" t="e">
         <f>VLOOKUP(B99,[1]Sheet1!$A:$B,2,0)</f>
@@ -3769,9 +3767,9 @@
       </c>
       <c r="J99" s="2"/>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>241</v>
+        <v>301</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>85</v>
@@ -3783,7 +3781,7 @@
         <v>197</v>
       </c>
       <c r="E100" s="8" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="F100" s="3" t="str">
         <f>VLOOKUP(B100,[1]Sheet1!$A:$B,2,0)</f>
@@ -3791,9 +3789,9 @@
       </c>
       <c r="J100" s="2"/>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>241</v>
+        <v>301</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>101</v>
@@ -3805,7 +3803,7 @@
         <v>171</v>
       </c>
       <c r="E101" s="8" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="F101" s="3" t="e">
         <f>VLOOKUP(B101,[1]Sheet1!$A:$B,2,0)</f>
@@ -3813,9 +3811,9 @@
       </c>
       <c r="J101" s="2"/>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>238</v>
+        <v>302</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>0</v>
@@ -3827,7 +3825,7 @@
         <v>191</v>
       </c>
       <c r="E102" s="8" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="F102" s="3" t="str">
         <f>VLOOKUP(B102,[1]Sheet1!$A:$B,2,0)</f>
@@ -3835,9 +3833,9 @@
       </c>
       <c r="J102" s="2"/>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>238</v>
+        <v>302</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>1</v>
@@ -3849,7 +3847,7 @@
         <v>164</v>
       </c>
       <c r="E103" s="8" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="F103" s="3" t="str">
         <f>VLOOKUP(B103,[1]Sheet1!$A:$B,2,0)</f>
@@ -3857,9 +3855,9 @@
       </c>
       <c r="J103" s="2"/>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>238</v>
+        <v>302</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>2</v>
@@ -3871,7 +3869,7 @@
         <v>199</v>
       </c>
       <c r="E104" s="8" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="F104" s="3" t="str">
         <f>VLOOKUP(B104,[1]Sheet1!$A:$B,2,0)</f>
@@ -3879,9 +3877,9 @@
       </c>
       <c r="J104" s="2"/>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>238</v>
+        <v>302</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>3</v>
@@ -3893,7 +3891,7 @@
         <v>166</v>
       </c>
       <c r="E105" s="8" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="F105" s="3" t="str">
         <f>VLOOKUP(B105,[1]Sheet1!$A:$B,2,0)</f>
@@ -3901,9 +3899,9 @@
       </c>
       <c r="J105" s="2"/>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>238</v>
+        <v>302</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>107</v>
@@ -3915,7 +3913,7 @@
         <v>200</v>
       </c>
       <c r="E106" s="8" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="F106" s="3" t="e">
         <f>VLOOKUP(B106,[1]Sheet1!$A:$B,2,0)</f>
@@ -3923,9 +3921,9 @@
       </c>
       <c r="J106" s="2"/>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>238</v>
+        <v>302</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>62</v>
@@ -3937,7 +3935,7 @@
         <v>182</v>
       </c>
       <c r="E107" s="8" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="F107" s="3" t="str">
         <f>VLOOKUP(B107,[1]Sheet1!$A:$B,2,0)</f>
@@ -3945,9 +3943,9 @@
       </c>
       <c r="J107" s="2"/>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>238</v>
+        <v>302</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>108</v>
@@ -3959,7 +3957,7 @@
         <v>183</v>
       </c>
       <c r="E108" s="8" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
       <c r="F108" s="3" t="e">
         <f>VLOOKUP(B108,[1]Sheet1!$A:$B,2,0)</f>
@@ -3967,9 +3965,9 @@
       </c>
       <c r="J108" s="2"/>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>238</v>
+        <v>302</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>63</v>
@@ -3981,7 +3979,7 @@
         <v>175</v>
       </c>
       <c r="E109" s="8" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="F109" s="3" t="str">
         <f>VLOOKUP(B109,[1]Sheet1!$A:$B,2,0)</f>
@@ -3989,9 +3987,9 @@
       </c>
       <c r="J109" s="2"/>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>238</v>
+        <v>302</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>109</v>
@@ -4003,7 +4001,7 @@
         <v>201</v>
       </c>
       <c r="E110" s="8" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="F110" s="3" t="e">
         <f>VLOOKUP(B110,[1]Sheet1!$A:$B,2,0)</f>
@@ -4011,9 +4009,9 @@
       </c>
       <c r="J110" s="2"/>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>238</v>
+        <v>302</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>110</v>
@@ -4025,7 +4023,7 @@
         <v>168</v>
       </c>
       <c r="E111" s="8" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="F111" s="3" t="str">
         <f>VLOOKUP(B111,[1]Sheet1!$A:$B,2,0)</f>
@@ -4033,9 +4031,9 @@
       </c>
       <c r="J111" s="2"/>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>235</v>
+        <v>303</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>0</v>
@@ -4047,7 +4045,7 @@
         <v>191</v>
       </c>
       <c r="E112" s="8" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="F112" s="3" t="str">
         <f>VLOOKUP(B112,[1]Sheet1!$A:$B,2,0)</f>
@@ -4055,9 +4053,9 @@
       </c>
       <c r="J112" s="2"/>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>235</v>
+        <v>303</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>1</v>
@@ -4069,7 +4067,7 @@
         <v>202</v>
       </c>
       <c r="E113" s="8" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="F113" s="3" t="str">
         <f>VLOOKUP(B113,[1]Sheet1!$A:$B,2,0)</f>
@@ -4077,9 +4075,9 @@
       </c>
       <c r="J113" s="2"/>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>235</v>
+        <v>303</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>2</v>
@@ -4091,7 +4089,7 @@
         <v>203</v>
       </c>
       <c r="E114" s="8" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="F114" s="3" t="str">
         <f>VLOOKUP(B114,[1]Sheet1!$A:$B,2,0)</f>
@@ -4099,9 +4097,9 @@
       </c>
       <c r="J114" s="2"/>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>235</v>
+        <v>303</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>3</v>
@@ -4113,7 +4111,7 @@
         <v>166</v>
       </c>
       <c r="E115" s="8" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="F115" s="3" t="str">
         <f>VLOOKUP(B115,[1]Sheet1!$A:$B,2,0)</f>
@@ -4121,9 +4119,9 @@
       </c>
       <c r="J115" s="2"/>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>235</v>
+        <v>303</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>107</v>
@@ -4135,7 +4133,7 @@
         <v>200</v>
       </c>
       <c r="E116" s="8" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="F116" s="3" t="e">
         <f>VLOOKUP(B116,[1]Sheet1!$A:$B,2,0)</f>
@@ -4143,9 +4141,9 @@
       </c>
       <c r="J116" s="2"/>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>235</v>
+        <v>303</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>62</v>
@@ -4157,7 +4155,7 @@
         <v>181</v>
       </c>
       <c r="E117" s="8" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="F117" s="3" t="str">
         <f>VLOOKUP(B117,[1]Sheet1!$A:$B,2,0)</f>
@@ -4165,9 +4163,9 @@
       </c>
       <c r="J117" s="2"/>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>235</v>
+        <v>303</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>63</v>
@@ -4179,7 +4177,7 @@
         <v>175</v>
       </c>
       <c r="E118" s="8" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="F118" s="3" t="str">
         <f>VLOOKUP(B118,[1]Sheet1!$A:$B,2,0)</f>
@@ -4187,9 +4185,9 @@
       </c>
       <c r="J118" s="2"/>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>235</v>
+        <v>303</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>108</v>
@@ -4201,7 +4199,7 @@
         <v>168</v>
       </c>
       <c r="E119" s="8" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
       <c r="F119" s="3" t="e">
         <f>VLOOKUP(B119,[1]Sheet1!$A:$B,2,0)</f>
@@ -4209,9 +4207,9 @@
       </c>
       <c r="J119" s="2"/>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>235</v>
+        <v>303</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>110</v>
@@ -4223,7 +4221,7 @@
         <v>204</v>
       </c>
       <c r="E120" s="8" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="F120" s="3" t="str">
         <f>VLOOKUP(B120,[1]Sheet1!$A:$B,2,0)</f>
@@ -4231,9 +4229,9 @@
       </c>
       <c r="J120" s="2"/>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>235</v>
+        <v>303</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>122</v>
@@ -4245,7 +4243,7 @@
         <v>169</v>
       </c>
       <c r="E121" s="8" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="F121" s="3" t="e">
         <f>VLOOKUP(B121,[1]Sheet1!$A:$B,2,0)</f>
@@ -4253,9 +4251,9 @@
       </c>
       <c r="J121" s="2"/>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>228</v>
+        <v>304</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>0</v>
@@ -4267,7 +4265,7 @@
         <v>191</v>
       </c>
       <c r="E122" s="8" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="F122" s="3" t="str">
         <f>VLOOKUP(B122,[1]Sheet1!$A:$B,2,0)</f>
@@ -4275,9 +4273,9 @@
       </c>
       <c r="J122" s="2"/>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>228</v>
+        <v>304</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>1</v>
@@ -4289,7 +4287,7 @@
         <v>205</v>
       </c>
       <c r="E123" s="8" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="F123" s="3" t="str">
         <f>VLOOKUP(B123,[1]Sheet1!$A:$B,2,0)</f>
@@ -4297,9 +4295,9 @@
       </c>
       <c r="J123" s="2"/>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>228</v>
+        <v>304</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>2</v>
@@ -4311,7 +4309,7 @@
         <v>206</v>
       </c>
       <c r="E124" s="8" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="F124" s="3" t="str">
         <f>VLOOKUP(B124,[1]Sheet1!$A:$B,2,0)</f>
@@ -4319,9 +4317,9 @@
       </c>
       <c r="J124" s="2"/>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
-        <v>228</v>
+        <v>304</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>126</v>
@@ -4333,7 +4331,7 @@
         <v>207</v>
       </c>
       <c r="E125" s="8" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="F125" s="3" t="e">
         <f>VLOOKUP(B125,[1]Sheet1!$A:$B,2,0)</f>
@@ -4341,9 +4339,9 @@
       </c>
       <c r="J125" s="2"/>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
-        <v>228</v>
+        <v>304</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>3</v>
@@ -4355,7 +4353,7 @@
         <v>166</v>
       </c>
       <c r="E126" s="8" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="F126" s="3" t="str">
         <f>VLOOKUP(B126,[1]Sheet1!$A:$B,2,0)</f>
@@ -4363,9 +4361,9 @@
       </c>
       <c r="J126" s="2"/>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
-        <v>228</v>
+        <v>304</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>62</v>
@@ -4377,7 +4375,7 @@
         <v>182</v>
       </c>
       <c r="E127" s="8" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="F127" s="3" t="str">
         <f>VLOOKUP(B127,[1]Sheet1!$A:$B,2,0)</f>
@@ -4385,9 +4383,9 @@
       </c>
       <c r="J127" s="2"/>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
-        <v>228</v>
+        <v>304</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>63</v>
@@ -4399,7 +4397,7 @@
         <v>208</v>
       </c>
       <c r="E128" s="8" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="F128" s="3" t="str">
         <f>VLOOKUP(B128,[1]Sheet1!$A:$B,2,0)</f>
@@ -4407,9 +4405,9 @@
       </c>
       <c r="J128" s="2"/>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
-        <v>228</v>
+        <v>304</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>129</v>
@@ -4421,7 +4419,7 @@
         <v>175</v>
       </c>
       <c r="E129" s="8" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="F129" s="3" t="e">
         <f>VLOOKUP(B129,[1]Sheet1!$A:$B,2,0)</f>
@@ -4429,9 +4427,9 @@
       </c>
       <c r="J129" s="2"/>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
-        <v>228</v>
+        <v>304</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>110</v>
@@ -4443,7 +4441,7 @@
         <v>168</v>
       </c>
       <c r="E130" s="8" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="F130" s="3" t="str">
         <f>VLOOKUP(B130,[1]Sheet1!$A:$B,2,0)</f>
@@ -4451,9 +4449,9 @@
       </c>
       <c r="J130" s="2"/>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
-        <v>228</v>
+        <v>304</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>108</v>
@@ -4465,7 +4463,7 @@
         <v>168</v>
       </c>
       <c r="E131" s="8" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
       <c r="F131" s="3" t="e">
         <f>VLOOKUP(B131,[1]Sheet1!$A:$B,2,0)</f>
@@ -4473,9 +4471,9 @@
       </c>
       <c r="J131" s="2"/>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
-        <v>239</v>
+        <v>305</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>0</v>
@@ -4487,7 +4485,7 @@
         <v>209</v>
       </c>
       <c r="E132" s="8" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="F132" s="3" t="str">
         <f>VLOOKUP(B132,[1]Sheet1!$A:$B,2,0)</f>
@@ -4495,9 +4493,9 @@
       </c>
       <c r="J132" s="2"/>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
-        <v>239</v>
+        <v>305</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>1</v>
@@ -4509,7 +4507,7 @@
         <v>202</v>
       </c>
       <c r="E133" s="8" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="F133" s="3" t="str">
         <f>VLOOKUP(B133,[1]Sheet1!$A:$B,2,0)</f>
@@ -4517,9 +4515,9 @@
       </c>
       <c r="J133" s="2"/>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
-        <v>239</v>
+        <v>305</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>2</v>
@@ -4531,7 +4529,7 @@
         <v>210</v>
       </c>
       <c r="E134" s="8" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="F134" s="3" t="str">
         <f>VLOOKUP(B134,[1]Sheet1!$A:$B,2,0)</f>
@@ -4539,9 +4537,9 @@
       </c>
       <c r="J134" s="2"/>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
-        <v>239</v>
+        <v>305</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>3</v>
@@ -4553,7 +4551,7 @@
         <v>166</v>
       </c>
       <c r="E135" s="8" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="F135" s="3" t="str">
         <f>VLOOKUP(B135,[1]Sheet1!$A:$B,2,0)</f>
@@ -4561,9 +4559,9 @@
       </c>
       <c r="J135" s="2"/>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
-        <v>239</v>
+        <v>305</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>133</v>
@@ -4575,7 +4573,7 @@
         <v>211</v>
       </c>
       <c r="E136" s="8" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="F136" s="3" t="str">
         <f>VLOOKUP(B136,[1]Sheet1!$A:$B,2,0)</f>
@@ -4583,9 +4581,9 @@
       </c>
       <c r="J136" s="2"/>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
-        <v>239</v>
+        <v>305</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>62</v>
@@ -4597,7 +4595,7 @@
         <v>182</v>
       </c>
       <c r="E137" s="8" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="F137" s="3" t="str">
         <f>VLOOKUP(B137,[1]Sheet1!$A:$B,2,0)</f>
@@ -4605,9 +4603,9 @@
       </c>
       <c r="J137" s="2"/>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
-        <v>239</v>
+        <v>305</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>63</v>
@@ -4619,7 +4617,7 @@
         <v>208</v>
       </c>
       <c r="E138" s="8" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="F138" s="3" t="str">
         <f>VLOOKUP(B138,[1]Sheet1!$A:$B,2,0)</f>
@@ -4627,9 +4625,9 @@
       </c>
       <c r="J138" s="2"/>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
-        <v>239</v>
+        <v>305</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>110</v>
@@ -4641,7 +4639,7 @@
         <v>168</v>
       </c>
       <c r="E139" s="8" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="F139" s="3" t="str">
         <f>VLOOKUP(B139,[1]Sheet1!$A:$B,2,0)</f>
@@ -4649,9 +4647,9 @@
       </c>
       <c r="J139" s="2"/>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
-        <v>239</v>
+        <v>305</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>85</v>
@@ -4663,7 +4661,7 @@
         <v>184</v>
       </c>
       <c r="E140" s="8" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="F140" s="3" t="str">
         <f>VLOOKUP(B140,[1]Sheet1!$A:$B,2,0)</f>
@@ -4671,9 +4669,9 @@
       </c>
       <c r="J140" s="2"/>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
-        <v>239</v>
+        <v>305</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>137</v>
@@ -4685,7 +4683,7 @@
         <v>204</v>
       </c>
       <c r="E141" s="8" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="F141" s="3" t="str">
         <f>VLOOKUP(B141,[1]Sheet1!$A:$B,2,0)</f>
@@ -4693,9 +4691,9 @@
       </c>
       <c r="J141" s="2"/>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
-        <v>240</v>
+        <v>306</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>0</v>
@@ -4707,7 +4705,7 @@
         <v>209</v>
       </c>
       <c r="E142" s="8" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="F142" s="3" t="str">
         <f>VLOOKUP(B142,[1]Sheet1!$A:$B,2,0)</f>
@@ -4715,9 +4713,9 @@
       </c>
       <c r="J142" s="2"/>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
-        <v>240</v>
+        <v>306</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>1</v>
@@ -4729,7 +4727,7 @@
         <v>202</v>
       </c>
       <c r="E143" s="8" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="F143" s="3" t="str">
         <f>VLOOKUP(B143,[1]Sheet1!$A:$B,2,0)</f>
@@ -4737,9 +4735,9 @@
       </c>
       <c r="J143" s="2"/>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
-        <v>240</v>
+        <v>306</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>2</v>
@@ -4751,7 +4749,7 @@
         <v>210</v>
       </c>
       <c r="E144" s="8" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="F144" s="3" t="str">
         <f>VLOOKUP(B144,[1]Sheet1!$A:$B,2,0)</f>
@@ -4759,9 +4757,9 @@
       </c>
       <c r="J144" s="2"/>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
-        <v>240</v>
+        <v>306</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>222</v>
@@ -4773,7 +4771,7 @@
         <v>212</v>
       </c>
       <c r="E145" s="8" t="s">
-        <v>300</v>
+        <v>283</v>
       </c>
       <c r="F145" s="3" t="str">
         <f>VLOOKUP(B145,[1]Sheet1!$A:$B,2,0)</f>
@@ -4781,9 +4779,9 @@
       </c>
       <c r="J145" s="2"/>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
-        <v>240</v>
+        <v>306</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>3</v>
@@ -4795,7 +4793,7 @@
         <v>166</v>
       </c>
       <c r="E146" s="8" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="F146" s="3" t="str">
         <f>VLOOKUP(B146,[1]Sheet1!$A:$B,2,0)</f>
@@ -4803,9 +4801,9 @@
       </c>
       <c r="J146" s="2"/>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
-        <v>240</v>
+        <v>306</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>141</v>
@@ -4817,7 +4815,7 @@
         <v>167</v>
       </c>
       <c r="E147" s="8" t="s">
-        <v>301</v>
+        <v>284</v>
       </c>
       <c r="F147" s="3" t="e">
         <f>VLOOKUP(B147,[1]Sheet1!$A:$B,2,0)</f>
@@ -4825,9 +4823,9 @@
       </c>
       <c r="J147" s="2"/>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
-        <v>240</v>
+        <v>306</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>62</v>
@@ -4839,7 +4837,7 @@
         <v>182</v>
       </c>
       <c r="E148" s="8" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="F148" s="3" t="str">
         <f>VLOOKUP(B148,[1]Sheet1!$A:$B,2,0)</f>
@@ -4847,9 +4845,9 @@
       </c>
       <c r="J148" s="2"/>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
-        <v>240</v>
+        <v>306</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>133</v>
@@ -4861,7 +4859,7 @@
         <v>208</v>
       </c>
       <c r="E149" s="8" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="F149" s="3" t="str">
         <f>VLOOKUP(B149,[1]Sheet1!$A:$B,2,0)</f>
@@ -4869,9 +4867,9 @@
       </c>
       <c r="J149" s="2"/>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
-        <v>240</v>
+        <v>306</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>63</v>
@@ -4883,7 +4881,7 @@
         <v>3.8999999999999998E-3</v>
       </c>
       <c r="E150" s="8" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="F150" s="3" t="str">
         <f>VLOOKUP(B150,[1]Sheet1!$A:$B,2,0)</f>
@@ -4891,9 +4889,9 @@
       </c>
       <c r="J150" s="2"/>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
-        <v>240</v>
+        <v>306</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>85</v>
@@ -4905,7 +4903,7 @@
         <v>213</v>
       </c>
       <c r="E151" s="8" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="F151" s="3" t="str">
         <f>VLOOKUP(B151,[1]Sheet1!$A:$B,2,0)</f>
@@ -4913,9 +4911,9 @@
       </c>
       <c r="J151" s="2"/>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
-        <v>236</v>
+        <v>307</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>0</v>
@@ -4927,7 +4925,7 @@
         <v>214</v>
       </c>
       <c r="E152" s="8" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="F152" s="3" t="str">
         <f>VLOOKUP(B152,[1]Sheet1!$A:$B,2,0)</f>
@@ -4935,9 +4933,9 @@
       </c>
       <c r="J152" s="2"/>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
-        <v>236</v>
+        <v>307</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>1</v>
@@ -4949,7 +4947,7 @@
         <v>215</v>
       </c>
       <c r="E153" s="8" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="F153" s="3" t="str">
         <f>VLOOKUP(B153,[1]Sheet1!$A:$B,2,0)</f>
@@ -4957,9 +4955,9 @@
       </c>
       <c r="J153" s="2"/>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
-        <v>236</v>
+        <v>307</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>2</v>
@@ -4971,7 +4969,7 @@
         <v>210</v>
       </c>
       <c r="E154" s="8" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="F154" s="3" t="str">
         <f>VLOOKUP(B154,[1]Sheet1!$A:$B,2,0)</f>
@@ -4979,9 +4977,9 @@
       </c>
       <c r="J154" s="2"/>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
-        <v>236</v>
+        <v>307</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>146</v>
@@ -4993,7 +4991,7 @@
         <v>216</v>
       </c>
       <c r="E155" s="8" t="s">
-        <v>302</v>
+        <v>285</v>
       </c>
       <c r="F155" s="3" t="str">
         <f>VLOOKUP(B155,[1]Sheet1!$A:$B,2,0)</f>
@@ -5001,9 +4999,9 @@
       </c>
       <c r="J155" s="2"/>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
-        <v>236</v>
+        <v>307</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>139</v>
@@ -5015,7 +5013,7 @@
         <v>217</v>
       </c>
       <c r="E156" s="8" t="s">
-        <v>300</v>
+        <v>283</v>
       </c>
       <c r="F156" s="3" t="str">
         <f>VLOOKUP(B156,[1]Sheet1!$A:$B,2,0)</f>
@@ -5023,9 +5021,9 @@
       </c>
       <c r="J156" s="2"/>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
-        <v>236</v>
+        <v>307</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>3</v>
@@ -5037,7 +5035,7 @@
         <v>218</v>
       </c>
       <c r="E157" s="8" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="F157" s="3" t="str">
         <f>VLOOKUP(B157,[1]Sheet1!$A:$B,2,0)</f>
@@ -5045,9 +5043,9 @@
       </c>
       <c r="J157" s="2"/>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
-        <v>236</v>
+        <v>307</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>62</v>
@@ -5059,7 +5057,7 @@
         <v>182</v>
       </c>
       <c r="E158" s="8" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="F158" s="3" t="str">
         <f>VLOOKUP(B158,[1]Sheet1!$A:$B,2,0)</f>
@@ -5067,9 +5065,9 @@
       </c>
       <c r="J158" s="2"/>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
-        <v>236</v>
+        <v>307</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>63</v>
@@ -5081,7 +5079,7 @@
         <v>208</v>
       </c>
       <c r="E159" s="8" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="F159" s="3" t="str">
         <f>VLOOKUP(B159,[1]Sheet1!$A:$B,2,0)</f>
@@ -5089,9 +5087,9 @@
       </c>
       <c r="J159" s="2"/>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
-        <v>236</v>
+        <v>307</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>137</v>
@@ -5103,7 +5101,7 @@
         <v>175</v>
       </c>
       <c r="E160" s="8" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="F160" s="3" t="str">
         <f>VLOOKUP(B160,[1]Sheet1!$A:$B,2,0)</f>
@@ -5111,9 +5109,9 @@
       </c>
       <c r="J160" s="2"/>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
-        <v>236</v>
+        <v>307</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>152</v>
@@ -5125,23 +5123,23 @@
         <v>201</v>
       </c>
       <c r="E161" s="8" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
       <c r="F161" s="3" t="str">
         <f>VLOOKUP(B161,[1]Sheet1!$A:$B,2,0)</f>
         <v>https://kuaicha.10jqka.com.cn/yuqingwebapp/yuqingapp/?client_userid=A1XHy&amp;share_hxapp=gsc&amp;share_action=&amp;back_source=wxhy#/personDetail/personMap?id=Q00000454944881&amp;company_size=1&amp;person_size=0&amp;scFrom=f10&amp;share=hexin&amp;isShowAppBar=false&amp;isShowStatusBar=false</v>
       </c>
       <c r="G161" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="H161" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="J161" s="2"/>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A162" s="2" t="s">
         <v>308</v>
-      </c>
-      <c r="H161" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="J161" s="2"/>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A162" s="2" t="s">
-        <v>229</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>0</v>
@@ -5153,7 +5151,7 @@
         <v>214</v>
       </c>
       <c r="E162" s="8" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="F162" s="3" t="str">
         <f>VLOOKUP(B162,[1]Sheet1!$A:$B,2,0)</f>
@@ -5161,9 +5159,9 @@
       </c>
       <c r="J162" s="2"/>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
-        <v>229</v>
+        <v>308</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>1</v>
@@ -5175,7 +5173,7 @@
         <v>215</v>
       </c>
       <c r="E163" s="8" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="F163" s="3" t="str">
         <f>VLOOKUP(B163,[1]Sheet1!$A:$B,2,0)</f>
@@ -5183,9 +5181,9 @@
       </c>
       <c r="J163" s="2"/>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
-        <v>229</v>
+        <v>308</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>154</v>
@@ -5197,7 +5195,7 @@
         <v>210</v>
       </c>
       <c r="E164" s="8" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="F164" s="3" t="str">
         <f>VLOOKUP(B164,[1]Sheet1!$A:$B,2,0)</f>
@@ -5205,9 +5203,9 @@
       </c>
       <c r="J164" s="2"/>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
-        <v>229</v>
+        <v>308</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>152</v>
@@ -5219,7 +5217,7 @@
         <v>219</v>
       </c>
       <c r="E165" s="8" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
       <c r="F165" s="3" t="str">
         <f>VLOOKUP(B165,[1]Sheet1!$A:$B,2,0)</f>
@@ -5227,9 +5225,9 @@
       </c>
       <c r="J165" s="2"/>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
-        <v>229</v>
+        <v>308</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>156</v>
@@ -5241,7 +5239,7 @@
         <v>220</v>
       </c>
       <c r="E166" s="8" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="F166" s="3" t="str">
         <f>VLOOKUP(B166,[1]Sheet1!$A:$B,2,0)</f>
@@ -5249,9 +5247,9 @@
       </c>
       <c r="J166" s="2"/>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
-        <v>229</v>
+        <v>308</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>139</v>
@@ -5263,7 +5261,7 @@
         <v>221</v>
       </c>
       <c r="E167" s="8" t="s">
-        <v>300</v>
+        <v>283</v>
       </c>
       <c r="F167" s="3" t="str">
         <f>VLOOKUP(B167,[1]Sheet1!$A:$B,2,0)</f>
@@ -5271,9 +5269,9 @@
       </c>
       <c r="J167" s="2"/>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
-        <v>229</v>
+        <v>308</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>159</v>
@@ -5285,7 +5283,7 @@
         <v>217</v>
       </c>
       <c r="E168" s="8" t="s">
-        <v>306</v>
+        <v>289</v>
       </c>
       <c r="F168" s="3" t="str">
         <f>VLOOKUP(B168,[1]Sheet1!$A:$B,2,0)</f>
@@ -5293,9 +5291,9 @@
       </c>
       <c r="J168" s="2"/>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
-        <v>229</v>
+        <v>308</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>161</v>
@@ -5307,7 +5305,7 @@
         <v>211</v>
       </c>
       <c r="E169" s="10" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="F169" s="3" t="e">
         <f>VLOOKUP(B169,[1]Sheet1!$A:$B,2,0)</f>
@@ -5315,9 +5313,9 @@
       </c>
       <c r="J169" s="2"/>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
-        <v>229</v>
+        <v>308</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>62</v>
@@ -5329,7 +5327,7 @@
         <v>182</v>
       </c>
       <c r="E170" s="8" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="F170" s="3" t="str">
         <f>VLOOKUP(B170,[1]Sheet1!$A:$B,2,0)</f>
@@ -5337,9 +5335,9 @@
       </c>
       <c r="J170" s="2"/>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
-        <v>229</v>
+        <v>308</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>63</v>
@@ -5351,7 +5349,7 @@
         <v>208</v>
       </c>
       <c r="E171" s="8" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="F171" s="3" t="str">
         <f>VLOOKUP(B171,[1]Sheet1!$A:$B,2,0)</f>
@@ -5359,66 +5357,66 @@
       </c>
       <c r="J171" s="2"/>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A172" s="2"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
       <c r="E172" s="7"/>
       <c r="J172" s="2"/>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A173" s="2"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
       <c r="E173" s="7"/>
       <c r="J173" s="2"/>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A174" s="2"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
       <c r="E174" s="7"/>
       <c r="J174" s="2"/>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A175" s="2"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
       <c r="E175" s="7"/>
       <c r="J175" s="2"/>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A176" s="2"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
       <c r="E176" s="7"/>
       <c r="J176" s="2"/>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A177" s="2"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
       <c r="J177" s="2"/>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A178" s="2"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
       <c r="J178" s="2"/>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A179" s="2"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
       <c r="J179" s="2"/>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A180" s="2"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
       <c r="J180" s="2"/>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A181" s="2"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
